--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_98.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_98.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32478-d1011234-Reviews-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>167</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Candlewood-Suites-LAX-Hawthorne.h1876370.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_98.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_98.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="693">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2033 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r584362746-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>32478</t>
+  </si>
+  <si>
+    <t>1011234</t>
+  </si>
+  <si>
+    <t>584362746</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t>I have spent the last 4 yrs on and off staying at this location for work.The staff is wounderful, the property is clean and well taken care of. I felt safe and secure.Inessa the manager is fabulous and took care of any of my concerns.I recomend this property to everyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Inessa U, Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>I have spent the last 4 yrs on and off staying at this location for work.The staff is wounderful, the property is clean and well taken care of. I felt safe and secure.Inessa the manager is fabulous and took care of any of my concerns.I recomend this property to everyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r578757732-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>578757732</t>
+  </si>
+  <si>
+    <t>05/08/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay for a week, free parking,convenient,  quiet, comfortable bed, clean, good staff</t>
+  </si>
+  <si>
+    <t>I  had a view of Dumpsters outside my room, up close, and the hall carpet was stained, but  Receptionist  was helpful (directed me to Evolution, a really great vegetarian restaurant nearby), the room was immaculately clean, there is a 'fridge, microwave, dish washer, a little gym, video rentals.  Parking is free, and the bed was extremely comfortable. You can buy oatmeal and popcorn, fruit and soup, and coffee/tea are free. It's long term stay really, so they clean 1x week unless you ask.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Inessa U, Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded May 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2018</t>
+  </si>
+  <si>
+    <t>I  had a view of Dumpsters outside my room, up close, and the hall carpet was stained, but  Receptionist  was helpful (directed me to Evolution, a really great vegetarian restaurant nearby), the room was immaculately clean, there is a 'fridge, microwave, dish washer, a little gym, video rentals.  Parking is free, and the bed was extremely comfortable. You can buy oatmeal and popcorn, fruit and soup, and coffee/tea are free. It's long term stay really, so they clean 1x week unless you ask.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r572297369-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>572297369</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>Maria at the desk and all staff were awesome!</t>
+  </si>
+  <si>
+    <t>I have stayed at this property in the past.It is a short drive to LAX.  It also is not on the "LAX Century drive strip" of hotels so it's often cheaper in price.Don't let the area fool you .... 10 years ago, I would have been more leery, but this part of Hawthorne is changing.  The area is much safer and cleaner than it used to be.  This property shares a (security code) parking garage with the Holiday Inn Express, and Hampton Inn.The grounds are clean and the staff are friendly.Maria at the desk went above and beyond.The rooms are spacious .... lots of amenities.The only "con" was a perfumy smell in the room.(No smell is good smell ... my nose was stuffed up for a bit and then got used to it.)There is a room with washer/dryer and adequate exercise room.I would definitely stay here again!: -)MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Inessa U, Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded April 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2018</t>
+  </si>
+  <si>
+    <t>I have stayed at this property in the past.It is a short drive to LAX.  It also is not on the "LAX Century drive strip" of hotels so it's often cheaper in price.Don't let the area fool you .... 10 years ago, I would have been more leery, but this part of Hawthorne is changing.  The area is much safer and cleaner than it used to be.  This property shares a (security code) parking garage with the Holiday Inn Express, and Hampton Inn.The grounds are clean and the staff are friendly.Maria at the desk went above and beyond.The rooms are spacious .... lots of amenities.The only "con" was a perfumy smell in the room.(No smell is good smell ... my nose was stuffed up for a bit and then got used to it.)There is a room with washer/dryer and adequate exercise room.I would definitely stay here again!: -)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r557727817-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>557727817</t>
+  </si>
+  <si>
+    <t>02/01/2018</t>
+  </si>
+  <si>
+    <t>Not Again</t>
+  </si>
+  <si>
+    <t>Waited one half hour for the Shuttle from the airport. Called the hotel when we were outside and asked the desk person where to go for the shuttle and was told to ask someone at the airport. Carpet in halls dirty. Carpet in room around the edges full of dust. Use a towel to wipe my back after a shower and it ripped. No restaurant close except fast food and then we were accosted for money and food. Stay somewhere else. Not worth the slightly lower price. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Inessa U, Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded February 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2018</t>
+  </si>
+  <si>
+    <t>Waited one half hour for the Shuttle from the airport. Called the hotel when we were outside and asked the desk person where to go for the shuttle and was told to ask someone at the airport. Carpet in halls dirty. Carpet in room around the edges full of dust. Use a towel to wipe my back after a shower and it ripped. No restaurant close except fast food and then we were accosted for money and food. Stay somewhere else. Not worth the slightly lower price. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r553051019-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>553051019</t>
+  </si>
+  <si>
+    <t>01/10/2018</t>
+  </si>
+  <si>
+    <t>Now that’s nice</t>
+  </si>
+  <si>
+    <t>We as a family come as one or as a couple. Whenever we come to LA, we come to Candlewood at Hawthorne.The staff are helpful all the time and have that smile on their dial whenever they see anyone.Rooms are comfy and served weekly.Fresh towels are available downstairs at the desk whenever you wish.The likes of Maria makes this place tick.We’ll always come back here at anytime with no doubt.Only downfall that I might have concerns about, is that there is no storage for returning customers while traveling.Great work Candlewood suites at Hawthorne.A job well done.MoreShow less</t>
+  </si>
+  <si>
+    <t>Inessa U, Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded January 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2018</t>
+  </si>
+  <si>
+    <t>We as a family come as one or as a couple. Whenever we come to LA, we come to Candlewood at Hawthorne.The staff are helpful all the time and have that smile on their dial whenever they see anyone.Rooms are comfy and served weekly.Fresh towels are available downstairs at the desk whenever you wish.The likes of Maria makes this place tick.We’ll always come back here at anytime with no doubt.Only downfall that I might have concerns about, is that there is no storage for returning customers while traveling.Great work Candlewood suites at Hawthorne.A job well done.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r543655984-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>543655984</t>
+  </si>
+  <si>
+    <t>11/27/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel, with caveats</t>
+  </si>
+  <si>
+    <t>This Candlewood location has four floors and
+two elevators; both elevators were modern and
+fast.  The suites are roomy, and have two
+lighting levels: the conventional table lamps
+and bright ceiling lights.  It is nice to stay
+in a hotel room that does not feel like being
+in a cave.  The bathroom lighting was also good.
+For some reason the hotel put me in a handicapped
+room, which means the room was next to the elevator,
+which directly contradicts my IHG preferences.
+Also, the shower was cumbersome for a non-handicapped
+person to use.
+The desk clerk on duty during the graveyard shift
+was rude, arrogant, and condescending.  I tried to
+talk to him about getting a late check-out but he
+acted like he did not want to talk to me.
+Also, I specifically asked him if the late check-out
+info would be given to the maids, and he said yes;
+but in the morning the maids came banging on the
+door at regular check-out time wanting to know why
+I was not out yet.
+This location is unique in that it has a parking
+garage that provides secure, covered parking;
+I really like this arrangement.  This hotel is
+easy to find, has easy access to the freeway, and
+is a short drive from LAX.  The side facing the
+street can be noisy.
+Internet at this hotel is terrible.  Both wired and
+Wi-Fi are slow, and there are frequent disconnects.
+Not...This Candlewood location has four floors andtwo elevators; both elevators were modern andfast.  The suites are roomy, and have twolighting levels: the conventional table lampsand bright ceiling lights.  It is nice to stayin a hotel room that does not feel like beingin a cave.  The bathroom lighting was also good.For some reason the hotel put me in a handicappedroom, which means the room was next to the elevator,which directly contradicts my IHG preferences.Also, the shower was cumbersome for a non-handicappedperson to use.The desk clerk on duty during the graveyard shiftwas rude, arrogant, and condescending.  I tried totalk to him about getting a late check-out but heacted like he did not want to talk to me.Also, I specifically asked him if the late check-outinfo would be given to the maids, and he said yes;but in the morning the maids came banging on thedoor at regular check-out time wanting to know whyI was not out yet.This location is unique in that it has a parkinggarage that provides secure, covered parking;I really like this arrangement.  This hotel iseasy to find, has easy access to the freeway, andis a short drive from LAX.  The side facing thestreet can be noisy.Internet at this hotel is terrible.  Both wired andWi-Fi are slow, and there are frequent disconnects.Not being able to get any work done online, I triedto watch TV, but the channel guide was of marginalvalue, and when I tried to manually scroll throughthe channels, there were many that only had staticor audio that was scratchy or pictures that keptpixelating or losing sync.MoreShow less</t>
+  </si>
+  <si>
+    <t>Inessa U, Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded November 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2017</t>
+  </si>
+  <si>
+    <t>This Candlewood location has four floors and
+two elevators; both elevators were modern and
+fast.  The suites are roomy, and have two
+lighting levels: the conventional table lamps
+and bright ceiling lights.  It is nice to stay
+in a hotel room that does not feel like being
+in a cave.  The bathroom lighting was also good.
+For some reason the hotel put me in a handicapped
+room, which means the room was next to the elevator,
+which directly contradicts my IHG preferences.
+Also, the shower was cumbersome for a non-handicapped
+person to use.
+The desk clerk on duty during the graveyard shift
+was rude, arrogant, and condescending.  I tried to
+talk to him about getting a late check-out but he
+acted like he did not want to talk to me.
+Also, I specifically asked him if the late check-out
+info would be given to the maids, and he said yes;
+but in the morning the maids came banging on the
+door at regular check-out time wanting to know why
+I was not out yet.
+This location is unique in that it has a parking
+garage that provides secure, covered parking;
+I really like this arrangement.  This hotel is
+easy to find, has easy access to the freeway, and
+is a short drive from LAX.  The side facing the
+street can be noisy.
+Internet at this hotel is terrible.  Both wired and
+Wi-Fi are slow, and there are frequent disconnects.
+Not...This Candlewood location has four floors andtwo elevators; both elevators were modern andfast.  The suites are roomy, and have twolighting levels: the conventional table lampsand bright ceiling lights.  It is nice to stayin a hotel room that does not feel like beingin a cave.  The bathroom lighting was also good.For some reason the hotel put me in a handicappedroom, which means the room was next to the elevator,which directly contradicts my IHG preferences.Also, the shower was cumbersome for a non-handicappedperson to use.The desk clerk on duty during the graveyard shiftwas rude, arrogant, and condescending.  I tried totalk to him about getting a late check-out but heacted like he did not want to talk to me.Also, I specifically asked him if the late check-outinfo would be given to the maids, and he said yes;but in the morning the maids came banging on thedoor at regular check-out time wanting to know whyI was not out yet.This location is unique in that it has a parkinggarage that provides secure, covered parking;I really like this arrangement.  This hotel iseasy to find, has easy access to the freeway, andis a short drive from LAX.  The side facing thestreet can be noisy.Internet at this hotel is terrible.  Both wired andWi-Fi are slow, and there are frequent disconnects.Not being able to get any work done online, I triedto watch TV, but the channel guide was of marginalvalue, and when I tried to manually scroll throughthe channels, there were many that only had staticor audio that was scratchy or pictures that keptpixelating or losing sync.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r530588435-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>530588435</t>
+  </si>
+  <si>
+    <t>10/06/2017</t>
+  </si>
+  <si>
+    <t>Candlewood Suites Lax Hawthorne</t>
+  </si>
+  <si>
+    <t>I chose this hotel primarily because they did not charge extra fees for parking. I booked a studio suite with a queen bed and it was very comfortable. I used the free laundry facilities and to wash and dry my clothes at the end of my stay. The staff was friendly and helpful. I did not spend a lot of time at the hotel. This was my first visit to L.A. I was only there to take a shower and get some sleep. I would definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Inessa U, Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded October 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2017</t>
+  </si>
+  <si>
+    <t>I chose this hotel primarily because they did not charge extra fees for parking. I booked a studio suite with a queen bed and it was very comfortable. I used the free laundry facilities and to wash and dry my clothes at the end of my stay. The staff was friendly and helpful. I did not spend a lot of time at the hotel. This was my first visit to L.A. I was only there to take a shower and get some sleep. I would definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r510049645-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>510049645</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>Good proximity to LAX, centrally located for L.A. access</t>
+  </si>
+  <si>
+    <t>Easy check-in and nice personnel.Room configured as two double beds, and nice.  Except for the padded chair which had several rips and worn spots.Carpet could use a cleaning, but everything was clean.There is a fridge, microwave and kitchen plates, bowls etc. available.  All working and clean.The area around the hotel has several fast food restaurants close by.  However, the area does have several homeless wandering street.  And when I asked at the front desk if it good to walk in the area, they suggested driving might be a better choice.But we never felt insecure.  And there are people monitoring the parking garage area and has a key entry for the garage.  I felt very safe, but I do understand the caution.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Inessa U, General Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded August 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2017</t>
+  </si>
+  <si>
+    <t>Easy check-in and nice personnel.Room configured as two double beds, and nice.  Except for the padded chair which had several rips and worn spots.Carpet could use a cleaning, but everything was clean.There is a fridge, microwave and kitchen plates, bowls etc. available.  All working and clean.The area around the hotel has several fast food restaurants close by.  However, the area does have several homeless wandering street.  And when I asked at the front desk if it good to walk in the area, they suggested driving might be a better choice.But we never felt insecure.  And there are people monitoring the parking garage area and has a key entry for the garage.  I felt very safe, but I do understand the caution.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r507225714-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>507225714</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>Will not return</t>
+  </si>
+  <si>
+    <t>We used the Candlewood Suites Hawthorne as the IHG alternative hotel closer to the airport was fully booked. The free shuttle eventually came and we arrived at the Suites in Hawthorne mid evening, approximately 4 miles from LAX airport. The area did not feel particularly safe at night with people sitting on the footpath and corner outside the hotel and adjacent to McDonalds across the road. The hotel itself looks pleasant from the outside, however on entering, the lobby is plain and the corridors are reminiscent of a rest home or hospital. The male on reception was very matter of fact and not particularly welcoming, simply stating 'NAME' when we approached the desk. Our room was clean but hot when we arrived, the air con had not been activated ahead of our arrival. The beds were comfortable, however the level of noise from the elevator on the adjacent wall made it impossible to get an undisturbed sleep throughout the night, which was a real problem after a long international flight.  We asked to be moved but the short reply was there were no other rooms available. The air conditioning unit is also noisy when on cool. We would not choose to stay at Candlewood again simply for the reason there was no genuine effort made to resolve our issue, or warn us ahead our room was going to be where it was. The reception lady the following morning was very...We used the Candlewood Suites Hawthorne as the IHG alternative hotel closer to the airport was fully booked. The free shuttle eventually came and we arrived at the Suites in Hawthorne mid evening, approximately 4 miles from LAX airport. The area did not feel particularly safe at night with people sitting on the footpath and corner outside the hotel and adjacent to McDonalds across the road. The hotel itself looks pleasant from the outside, however on entering, the lobby is plain and the corridors are reminiscent of a rest home or hospital. The male on reception was very matter of fact and not particularly welcoming, simply stating 'NAME' when we approached the desk. Our room was clean but hot when we arrived, the air con had not been activated ahead of our arrival. The beds were comfortable, however the level of noise from the elevator on the adjacent wall made it impossible to get an undisturbed sleep throughout the night, which was a real problem after a long international flight.  We asked to be moved but the short reply was there were no other rooms available. The air conditioning unit is also noisy when on cool. We would not choose to stay at Candlewood again simply for the reason there was no genuine effort made to resolve our issue, or warn us ahead our room was going to be where it was. The reception lady the following morning was very pleasant and sympathised with us, even acknowledging management should not use this particular room (118) for commercial purpose. Our advice - do not stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Inessa U, General Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded August 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2017</t>
+  </si>
+  <si>
+    <t>We used the Candlewood Suites Hawthorne as the IHG alternative hotel closer to the airport was fully booked. The free shuttle eventually came and we arrived at the Suites in Hawthorne mid evening, approximately 4 miles from LAX airport. The area did not feel particularly safe at night with people sitting on the footpath and corner outside the hotel and adjacent to McDonalds across the road. The hotel itself looks pleasant from the outside, however on entering, the lobby is plain and the corridors are reminiscent of a rest home or hospital. The male on reception was very matter of fact and not particularly welcoming, simply stating 'NAME' when we approached the desk. Our room was clean but hot when we arrived, the air con had not been activated ahead of our arrival. The beds were comfortable, however the level of noise from the elevator on the adjacent wall made it impossible to get an undisturbed sleep throughout the night, which was a real problem after a long international flight.  We asked to be moved but the short reply was there were no other rooms available. The air conditioning unit is also noisy when on cool. We would not choose to stay at Candlewood again simply for the reason there was no genuine effort made to resolve our issue, or warn us ahead our room was going to be where it was. The reception lady the following morning was very...We used the Candlewood Suites Hawthorne as the IHG alternative hotel closer to the airport was fully booked. The free shuttle eventually came and we arrived at the Suites in Hawthorne mid evening, approximately 4 miles from LAX airport. The area did not feel particularly safe at night with people sitting on the footpath and corner outside the hotel and adjacent to McDonalds across the road. The hotel itself looks pleasant from the outside, however on entering, the lobby is plain and the corridors are reminiscent of a rest home or hospital. The male on reception was very matter of fact and not particularly welcoming, simply stating 'NAME' when we approached the desk. Our room was clean but hot when we arrived, the air con had not been activated ahead of our arrival. The beds were comfortable, however the level of noise from the elevator on the adjacent wall made it impossible to get an undisturbed sleep throughout the night, which was a real problem after a long international flight.  We asked to be moved but the short reply was there were no other rooms available. The air conditioning unit is also noisy when on cool. We would not choose to stay at Candlewood again simply for the reason there was no genuine effort made to resolve our issue, or warn us ahead our room was going to be where it was. The reception lady the following morning was very pleasant and sympathised with us, even acknowledging management should not use this particular room (118) for commercial purpose. Our advice - do not stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r479026946-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>479026946</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t>Great price!</t>
+  </si>
+  <si>
+    <t>I travel to LA often for work and I travel all over the place so finding a place that is close to a freeway, isn't that expensive and that doesn't charge you for parking might sound easy but it's actually my nightmare. This hotel was close to a freeway, had a mini kitchen and that's super convenient. They also didn't charge for parking, the garage is strange since it's shared by three hotels but it's actually pretty big and the spots aren't the smallest things you'll ever see. It's close to LAX but that's good for me since I tend to end up all over LA. It was also incredibly affordable. I will most definitely be returning. I'm pretty sure they have a shuttle to the airport. They have a laundry facility on site free of charge, you can borrow board games or cooking gadgets and they had this outdoor grilling area. I've stayed at 5 hotels in LA in the pst 3 weeks and have had horrible experiences and this one is actually awesome. I highly recommend it. The rooms are modern and clean and for Southern California they are huge.Big yes from me.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Inessa U, General Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded May 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2017</t>
+  </si>
+  <si>
+    <t>I travel to LA often for work and I travel all over the place so finding a place that is close to a freeway, isn't that expensive and that doesn't charge you for parking might sound easy but it's actually my nightmare. This hotel was close to a freeway, had a mini kitchen and that's super convenient. They also didn't charge for parking, the garage is strange since it's shared by three hotels but it's actually pretty big and the spots aren't the smallest things you'll ever see. It's close to LAX but that's good for me since I tend to end up all over LA. It was also incredibly affordable. I will most definitely be returning. I'm pretty sure they have a shuttle to the airport. They have a laundry facility on site free of charge, you can borrow board games or cooking gadgets and they had this outdoor grilling area. I've stayed at 5 hotels in LA in the pst 3 weeks and have had horrible experiences and this one is actually awesome. I highly recommend it. The rooms are modern and clean and for Southern California they are huge.Big yes from me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r477596117-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>477596117</t>
+  </si>
+  <si>
+    <t>04/20/2017</t>
+  </si>
+  <si>
+    <t>Not the besr</t>
+  </si>
+  <si>
+    <t>You get what you pay for.  The room was in need of new carpets and there was a bad odor coming from the air conditioner.  Do not stay near the picnic area, people were there late at night making noise and the windows were not sound proof.  I would not stay here again unless there were no alternatives.MoreShow less</t>
+  </si>
+  <si>
+    <t>Inessa U, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded April 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2017</t>
+  </si>
+  <si>
+    <t>You get what you pay for.  The room was in need of new carpets and there was a bad odor coming from the air conditioner.  Do not stay near the picnic area, people were there late at night making noise and the windows were not sound proof.  I would not stay here again unless there were no alternatives.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r476560123-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>476560123</t>
+  </si>
+  <si>
+    <t>04/17/2017</t>
+  </si>
+  <si>
+    <t>Long stay at Candlewood</t>
+  </si>
+  <si>
+    <t>Throughout my three decades of traveling, I have come to find out this was the best stay I've ever had. Thank you to all the staff for relaxing and enjoyable stay;  Mohamad, Shaz, Inessa, Maria, Sharron, Sally, Brian, Alejandro, all front desk, housekeeping and shuttle staff.  I would recommend this place 100%. Thank you all for making my stay so memorable. 10 stars to this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Inessa U, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded April 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2017</t>
+  </si>
+  <si>
+    <t>Throughout my three decades of traveling, I have come to find out this was the best stay I've ever had. Thank you to all the staff for relaxing and enjoyable stay;  Mohamad, Shaz, Inessa, Maria, Sharron, Sally, Brian, Alejandro, all front desk, housekeeping and shuttle staff.  I would recommend this place 100%. Thank you all for making my stay so memorable. 10 stars to this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r440979597-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>440979597</t>
+  </si>
+  <si>
+    <t>11/29/2016</t>
+  </si>
+  <si>
+    <t>Four Easy Days in Los Angeles</t>
+  </si>
+  <si>
+    <t>Great property and great comfort. Staff excellent, especially Raniesha at the front desk, who handled a tricky situation with aplomb. Well located near the (clogged) highways and close to LAX. Fully equipped kitchen makes for in-room food preparation. Stove, Microwave, no oven. Pots and pans, silverware and a dishwasher and full size fridge. Beds comfy. Local shuttle. Parking in locked garage next to property. McDonalds right across street and Dollar Store within one block. Taco Bell/KFC nearby also. Near SpaceX. TV great. Business Center great with two computers and a printer. Lobby has faux fireplace and is cozy. There is a cupboard to buy drinks and food--good selection. Gym great. Lockered items such as games, markers, tape and blenders are available free of charge. Washers and dryers were free to use. TV had most needed cable stations and HBO and NFL network. Bathtub in my room. I gave 5 stars but the property owner could make an improvement... behind the hotel--visible through all the back room windows, is a vacant lot used to store trash in two huge dumpsters that are overflowing with trash. I asked, and the lot is owned by the owner of the property, who should do something to mitigate the trashy eyesore visible to everyone with windows out the back of the hotel (Half of the rooms!) The curtains blocked the view just fine and otherwise, it was an excellent stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Inessa U, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded November 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2016</t>
+  </si>
+  <si>
+    <t>Great property and great comfort. Staff excellent, especially Raniesha at the front desk, who handled a tricky situation with aplomb. Well located near the (clogged) highways and close to LAX. Fully equipped kitchen makes for in-room food preparation. Stove, Microwave, no oven. Pots and pans, silverware and a dishwasher and full size fridge. Beds comfy. Local shuttle. Parking in locked garage next to property. McDonalds right across street and Dollar Store within one block. Taco Bell/KFC nearby also. Near SpaceX. TV great. Business Center great with two computers and a printer. Lobby has faux fireplace and is cozy. There is a cupboard to buy drinks and food--good selection. Gym great. Lockered items such as games, markers, tape and blenders are available free of charge. Washers and dryers were free to use. TV had most needed cable stations and HBO and NFL network. Bathtub in my room. I gave 5 stars but the property owner could make an improvement... behind the hotel--visible through all the back room windows, is a vacant lot used to store trash in two huge dumpsters that are overflowing with trash. I asked, and the lot is owned by the owner of the property, who should do something to mitigate the trashy eyesore visible to everyone with windows out the back of the hotel (Half of the rooms!) The curtains blocked the view just fine and otherwise, it was an excellent stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r432143601-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>432143601</t>
+  </si>
+  <si>
+    <t>10/27/2016</t>
+  </si>
+  <si>
+    <t>Nice Surprise</t>
+  </si>
+  <si>
+    <t>We stayed at the Candlewood Suites to be near the airport for an early flight the next day. It was an ideal location, only a short drive away. Although Hawthorne is not what you'd call a city center, the hotel has a Starbucks, McDonald's and gasoline right on the corner. The sights of L A are near enough to drive to such that you could spend you whole vacation there. The room is spacious and clean, the kitchen is well-equipped and the dishes kept clean enough to use. The staff are very helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Inessa U, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2016</t>
+  </si>
+  <si>
+    <t>We stayed at the Candlewood Suites to be near the airport for an early flight the next day. It was an ideal location, only a short drive away. Although Hawthorne is not what you'd call a city center, the hotel has a Starbucks, McDonald's and gasoline right on the corner. The sights of L A are near enough to drive to such that you could spend you whole vacation there. The room is spacious and clean, the kitchen is well-equipped and the dishes kept clean enough to use. The staff are very helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r406254020-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>406254020</t>
+  </si>
+  <si>
+    <t>08/16/2016</t>
+  </si>
+  <si>
+    <t>Excellent Extended Stay Hotel w/Free Washer and Dryer Access</t>
+  </si>
+  <si>
+    <t>Came in from overseas and needed a quiet place.  Friendly, professional front desk staff.   Very quiet most of the time.  Though my room was on the side of the street that looked onto a busy highway, the solid windows kept out noise from the street until I actually opened the window.  Very clean and well-stocked, stainless steel kitchen with full size frig.  Spotless, free washer and dryer room which really came in handy.  Close to market, fast food restaurants, and small shopping center and very close to LAX.  Nice stay.  Will definitely recommend and stay here again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Inessa U, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded August 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2016</t>
+  </si>
+  <si>
+    <t>Came in from overseas and needed a quiet place.  Friendly, professional front desk staff.   Very quiet most of the time.  Though my room was on the side of the street that looked onto a busy highway, the solid windows kept out noise from the street until I actually opened the window.  Very clean and well-stocked, stainless steel kitchen with full size frig.  Spotless, free washer and dryer room which really came in handy.  Close to market, fast food restaurants, and small shopping center and very close to LAX.  Nice stay.  Will definitely recommend and stay here again in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r398452047-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>398452047</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t>Tired and overpriced</t>
+  </si>
+  <si>
+    <t>Stayed two nights, the last part of a road trip from Chicago to Los Angeles.Ample car parking in separate secure block next to hotel. Staff friendly and welcoming.Room (2 queens) large with the usual Kitchen area including a large fridge/freezer. Small TV with a reasonable selection of channels. Room was clean and tidy but looked a bit tired, beds creaky and could do with replacing. The only armchair was covered in splits, should have been replaced! Wi-Fi hit 2mbps if you were lucky with constant drop out, not helpful when doing the flight check in!Reasonable size bathroom but not enough counter top space, hooks or shelving.Lighting ok, extractor ok, water pressure ok, water temperature dangerously hot!Did not use the fitness room.Hotel is in a good location for airport but not so good for the tourist bits. Stayed in the Hampton next door last year, a much better choice.No eateries nearby. Avoid the Chili’s a few miles away. Food ok, service not up to scratch! Person at the door pointed to a distance empty table and told us to seat ourselves. Waitress hovered while we paid the bill watching to see what tip was given.MoreShow less</t>
+  </si>
+  <si>
+    <t>Inessa U, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded July 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2016</t>
+  </si>
+  <si>
+    <t>Stayed two nights, the last part of a road trip from Chicago to Los Angeles.Ample car parking in separate secure block next to hotel. Staff friendly and welcoming.Room (2 queens) large with the usual Kitchen area including a large fridge/freezer. Small TV with a reasonable selection of channels. Room was clean and tidy but looked a bit tired, beds creaky and could do with replacing. The only armchair was covered in splits, should have been replaced! Wi-Fi hit 2mbps if you were lucky with constant drop out, not helpful when doing the flight check in!Reasonable size bathroom but not enough counter top space, hooks or shelving.Lighting ok, extractor ok, water pressure ok, water temperature dangerously hot!Did not use the fitness room.Hotel is in a good location for airport but not so good for the tourist bits. Stayed in the Hampton next door last year, a much better choice.No eateries nearby. Avoid the Chili’s a few miles away. Food ok, service not up to scratch! Person at the door pointed to a distance empty table and told us to seat ourselves. Waitress hovered while we paid the bill watching to see what tip was given.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r397708631-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>397708631</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>not family friendly</t>
+  </si>
+  <si>
+    <t>people nice,dishwasher leaked and had no pool. to go anywhere it took hours not 30 min. won't stay there again. And only got maid service once. beach 30 min. away but took longer traffic was terrible. Not for a family vacation  only business.MoreShow less</t>
+  </si>
+  <si>
+    <t>people nice,dishwasher leaked and had no pool. to go anywhere it took hours not 30 min. won't stay there again. And only got maid service once. beach 30 min. away but took longer traffic was terrible. Not for a family vacation  only business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r397267835-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>397267835</t>
+  </si>
+  <si>
+    <t>Good value for a longer stay</t>
+  </si>
+  <si>
+    <t>Clean, friendly and quiet. If you need to stay in the area for more than a couple of days this would be a great choice. Rooms all have full-size fridges and cook tops and  an outdoor grilling area. For trips other than the airport you'll want to rent a car. Staff are excellent.  NO POOL - NO RESTAURANT.MoreShow less</t>
+  </si>
+  <si>
+    <t>Clean, friendly and quiet. If you need to stay in the area for more than a couple of days this would be a great choice. Rooms all have full-size fridges and cook tops and  an outdoor grilling area. For trips other than the airport you'll want to rent a car. Staff are excellent.  NO POOL - NO RESTAURANT.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r373941417-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>373941417</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Clean and spacious</t>
+  </si>
+  <si>
+    <t>Had I done more research I probably would have stay here my entire trip. The laundry room was perfect and free! The staff was great.  I would have saved money by cooking instead of eating out at mediocre restaurants. Only negative is I wish the bed was less firm! I would stay here again. The location is questionable at times, but security was on hand. My rental was in a safe  coded parking garage.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Inessa U, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded May 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2016</t>
+  </si>
+  <si>
+    <t>Had I done more research I probably would have stay here my entire trip. The laundry room was perfect and free! The staff was great.  I would have saved money by cooking instead of eating out at mediocre restaurants. Only negative is I wish the bed was less firm! I would stay here again. The location is questionable at times, but security was on hand. My rental was in a safe  coded parking garage.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r371560779-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>371560779</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service</t>
+  </si>
+  <si>
+    <t>In researching a hotel for a long-term stay because of medical treatment, we selected the Candlewoods Suites in Hawthorne, California which provided everything that families needed for comfort from begin away from home.  The amenities fit right into our budget, which allowed for free parking, free internet, free laundry, and staff that treated you like family.  The kitchenette which is equipped with a full-size fridge and a two-burner stovetop  made it possible to save on having to eat out everyday.  There was also a gym that was available for  you to run or lift weights anytime of the day.  But, along with all of this, is the excellent staff members that greeted as you leave the hotel and welcomed you back as you arrived.  They  accommodated all of our needs throughout our stay. This is probably one of the best hotels in Los Angeles!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Inessa U, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded May 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2016</t>
+  </si>
+  <si>
+    <t>In researching a hotel for a long-term stay because of medical treatment, we selected the Candlewoods Suites in Hawthorne, California which provided everything that families needed for comfort from begin away from home.  The amenities fit right into our budget, which allowed for free parking, free internet, free laundry, and staff that treated you like family.  The kitchenette which is equipped with a full-size fridge and a two-burner stovetop  made it possible to save on having to eat out everyday.  There was also a gym that was available for  you to run or lift weights anytime of the day.  But, along with all of this, is the excellent staff members that greeted as you leave the hotel and welcomed you back as you arrived.  They  accommodated all of our needs throughout our stay. This is probably one of the best hotels in Los Angeles!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r369343419-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>369343419</t>
+  </si>
+  <si>
+    <t>05/01/2016</t>
+  </si>
+  <si>
+    <t>Gorgeous Rooms and Excellent Customer Service</t>
+  </si>
+  <si>
+    <t>I made a last minute reservation at Candlewood Suites. I'd never stayed with them before but I was looking forward to it.  I arrived and check-in was a breeze.  I discovered they have free garage parking which was a fabulous perk.  My room was a real suite... a full-kitchen, large bathroom with tub, work desk, recliner, queen bed and lots and lots of outlets for my electronics.  The hotel is on a busy corner but I had no problem with noise and I slept like a baby.  I can't wait to visit Candlewood Suites again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Inessa U, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded May 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2016</t>
+  </si>
+  <si>
+    <t>I made a last minute reservation at Candlewood Suites. I'd never stayed with them before but I was looking forward to it.  I arrived and check-in was a breeze.  I discovered they have free garage parking which was a fabulous perk.  My room was a real suite... a full-kitchen, large bathroom with tub, work desk, recliner, queen bed and lots and lots of outlets for my electronics.  The hotel is on a busy corner but I had no problem with noise and I slept like a baby.  I can't wait to visit Candlewood Suites again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r358320137-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>358320137</t>
+  </si>
+  <si>
+    <t>03/24/2016</t>
+  </si>
+  <si>
+    <t>Very Clean and Professional Staff</t>
+  </si>
+  <si>
+    <t>I book this hotel for one night.  I'm a flight attendant on call for the night and need a place to stay.  The price was great and the room was super clean.  The night van drive was professional and very helpful.  I arrive the was greeted by Alex at the front desk.  He was a very professional and very friendly.  He was a great help in tell a great place to eat and the area around the hotel.  The only problem I had was I got a Handicap room and I'm not Handicap.  But, the room was very nice and that was important to me.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Inessa U, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded April 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2016</t>
+  </si>
+  <si>
+    <t>I book this hotel for one night.  I'm a flight attendant on call for the night and need a place to stay.  The price was great and the room was super clean.  The night van drive was professional and very helpful.  I arrive the was greeted by Alex at the front desk.  He was a very professional and very friendly.  He was a great help in tell a great place to eat and the area around the hotel.  The only problem I had was I got a Handicap room and I'm not Handicap.  But, the room was very nice and that was important to me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r341784075-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>341784075</t>
+  </si>
+  <si>
+    <t>01/21/2016</t>
+  </si>
+  <si>
+    <t>"it is definitely a home away from home"</t>
+  </si>
+  <si>
+    <t>from the airport i went straight to the hotel . I was accommodated right away by two friendly and efficient staff namely Inessa and Maria even though the check in time is in the afternoon. its my first time to use this hotel and i was really delighted and contented when i saw the room. its clean, organize, complete with everything you need . kitchen, microwave,toaster,dish washer,induction cooker kitchen utensils pots etc.you name it they have it...if it is not in the room you can always ask the friendly staff. they even have a free laundry area...though they don't serve breakfast, they have free pastries every morning..coffee and tea are free 24/7.aside from this the hotel is near the train station and is accessible by bus that can take you to a nearby mall for shopping and to the nearest beach. Try Redondo Beach Pier. it is a place to walk, jog, eat, shop some souvenir and see the sunset.. i will definitely miss this place and will definitely go back on this place.. Thanks to the staff  especially to Inessa and Maria for the wonderful experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Inessa U, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded January 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2016</t>
+  </si>
+  <si>
+    <t>from the airport i went straight to the hotel . I was accommodated right away by two friendly and efficient staff namely Inessa and Maria even though the check in time is in the afternoon. its my first time to use this hotel and i was really delighted and contented when i saw the room. its clean, organize, complete with everything you need . kitchen, microwave,toaster,dish washer,induction cooker kitchen utensils pots etc.you name it they have it...if it is not in the room you can always ask the friendly staff. they even have a free laundry area...though they don't serve breakfast, they have free pastries every morning..coffee and tea are free 24/7.aside from this the hotel is near the train station and is accessible by bus that can take you to a nearby mall for shopping and to the nearest beach. Try Redondo Beach Pier. it is a place to walk, jog, eat, shop some souvenir and see the sunset.. i will definitely miss this place and will definitely go back on this place.. Thanks to the staff  especially to Inessa and Maria for the wonderful experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r336600542-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>336600542</t>
+  </si>
+  <si>
+    <t>01/02/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One night </t>
+  </si>
+  <si>
+    <t>The hotel is good with all necessary accessories needed. The room's space is good and enough to put your stuff. The bed is enough for two. The hotel staff are friendly and the location is almost 6 minutes from the airport. They offer free and safe parking which is additional advantage. I guess the price of the room was also competitive compared to other hotels. There are so many Resturant around you which make it easy for you to get your needMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Inessa U, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded January 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2016</t>
+  </si>
+  <si>
+    <t>The hotel is good with all necessary accessories needed. The room's space is good and enough to put your stuff. The bed is enough for two. The hotel staff are friendly and the location is almost 6 minutes from the airport. They offer free and safe parking which is additional advantage. I guess the price of the room was also competitive compared to other hotels. There are so many Resturant around you which make it easy for you to get your needMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r297031392-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>297031392</t>
+  </si>
+  <si>
+    <t>08/08/2015</t>
+  </si>
+  <si>
+    <t>Staff is super nice, rooms are average at best!</t>
+  </si>
+  <si>
+    <t>People in the hotel, staff, are nice to work with but rooms are way too expensive for what they offer. We used it only to sleep overnight as we visited LA and surroundings throughout the day so I cannot pronounce about laundry and fitness room that I have seen being used. It is clean inside and outside. Has a BBQ area where you can enjoy just chilling outside. It is close to a few stores, major highways, has shuttle to LAX but still believe it is way more expensive than it should be.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>CHC H, Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded August 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2015</t>
+  </si>
+  <si>
+    <t>People in the hotel, staff, are nice to work with but rooms are way too expensive for what they offer. We used it only to sleep overnight as we visited LA and surroundings throughout the day so I cannot pronounce about laundry and fitness room that I have seen being used. It is clean inside and outside. Has a BBQ area where you can enjoy just chilling outside. It is close to a few stores, major highways, has shuttle to LAX but still believe it is way more expensive than it should be.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r296066466-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>296066466</t>
+  </si>
+  <si>
+    <t>08/05/2015</t>
+  </si>
+  <si>
+    <t>Convenient LAX Location</t>
+  </si>
+  <si>
+    <t>The Candlewood Suites LAX Hawthorne is conveniently located, just a few management provided and shared with the adjacent Holiday Inn Express Hotel, shuttle van ride away to LAX.The suites are well equipped, with full fridge and freezer, microwave, sink etc.The hotel staff is small in number, but generally friendly and welcoming. There are a good number of Fast Food and other restaurants/stores nearby, within walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>The Candlewood Suites LAX Hawthorne is conveniently located, just a few management provided and shared with the adjacent Holiday Inn Express Hotel, shuttle van ride away to LAX.The suites are well equipped, with full fridge and freezer, microwave, sink etc.The hotel staff is small in number, but generally friendly and welcoming. There are a good number of Fast Food and other restaurants/stores nearby, within walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r293339236-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>293339236</t>
+  </si>
+  <si>
+    <t>07/28/2015</t>
+  </si>
+  <si>
+    <t>Room service😀</t>
+  </si>
+  <si>
+    <t>I liked the service provided by the staff, all the staffs always seemed to be in a good mood and they tried and were happy to be of help in any possible way they could. I liked the size of the room and the size of the beds, they were average but the only thing I did not like was there chair giving in the room. The area were one was meant to sit was torn making the causing pain on the individual utilizing it. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Inessa U, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded July 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2015</t>
+  </si>
+  <si>
+    <t>I liked the service provided by the staff, all the staffs always seemed to be in a good mood and they tried and were happy to be of help in any possible way they could. I liked the size of the room and the size of the beds, they were average but the only thing I did not like was there chair giving in the room. The area were one was meant to sit was torn making the causing pain on the individual utilizing it. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r272105459-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>272105459</t>
+  </si>
+  <si>
+    <t>05/15/2015</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>I sold my home in LA Ca.and had a number of appointments to complete before relocating.I had absolutely no intentions of staying at the Candlewood Suites for an entire month.
+It is my pleasure too share with all future guest that my time spent there was wonderful. Their Great Employee's are the best.The rooms are nice, clean and bug free. I'll always remember Maria(Front Desk) as the first impression representing this establishment because she was very warm and welcoming and i was exhausted after two long days of moving and just wanted to rest!! She quickly and professionally handled the process in minutes. It wasn't just "a" good day for Maria because she and Inessa were very sweet &amp; pleasant each morning during my unexpected extended stay. The evening &amp; graveyard shifts with Bryan,Sharon and Larry (Mr cool breeze) were equally great!! One evening i decided to vent my automobile issues with Sharon without knowledge of her valuable expertise regarding automobile repairs. Not only could she run the hotel, she's also a merchanic that knows her stuff!! (I returned to my merchanic feeling empowered) Thank You Sharon :) . The Hotel offers around the clock security. David is that special security guy that every company prays for.He made certain you knew that you were safe throughout the property. Always with a smile as he warmly greeted everyone. 
+I have traveled the world and my stay at the Candlewood Suites ranks...I sold my home in LA Ca.and had a number of appointments to complete before relocating.I had absolutely no intentions of staying at the Candlewood Suites for an entire month.It is my pleasure too share with all future guest that my time spent there was wonderful. Their Great Employee's are the best.The rooms are nice, clean and bug free. I'll always remember Maria(Front Desk) as the first impression representing this establishment because she was very warm and welcoming and i was exhausted after two long days of moving and just wanted to rest!! She quickly and professionally handled the process in minutes. It wasn't just "a" good day for Maria because she and Inessa were very sweet &amp; pleasant each morning during my unexpected extended stay. The evening &amp; graveyard shifts with Bryan,Sharon and Larry (Mr cool breeze) were equally great!! One evening i decided to vent my automobile issues with Sharon without knowledge of her valuable expertise regarding automobile repairs. Not only could she run the hotel, she's also a merchanic that knows her stuff!! (I returned to my merchanic feeling empowered) Thank You Sharon :) . The Hotel offers around the clock security. David is that special security guy that every company prays for.He made certain you knew that you were safe throughout the property. Always with a smile as he warmly greeted everyone. I have traveled the world and my stay at the Candlewood Suites ranks as my favorite (amongst its level of stay).Thanks to all of the Candlewood Suites Employee's of Hawthorne Ca.for your Top Notch Service. You Are Simply The Best!!C JonesMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Inessa U, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded May 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2015</t>
+  </si>
+  <si>
+    <t>I sold my home in LA Ca.and had a number of appointments to complete before relocating.I had absolutely no intentions of staying at the Candlewood Suites for an entire month.
+It is my pleasure too share with all future guest that my time spent there was wonderful. Their Great Employee's are the best.The rooms are nice, clean and bug free. I'll always remember Maria(Front Desk) as the first impression representing this establishment because she was very warm and welcoming and i was exhausted after two long days of moving and just wanted to rest!! She quickly and professionally handled the process in minutes. It wasn't just "a" good day for Maria because she and Inessa were very sweet &amp; pleasant each morning during my unexpected extended stay. The evening &amp; graveyard shifts with Bryan,Sharon and Larry (Mr cool breeze) were equally great!! One evening i decided to vent my automobile issues with Sharon without knowledge of her valuable expertise regarding automobile repairs. Not only could she run the hotel, she's also a merchanic that knows her stuff!! (I returned to my merchanic feeling empowered) Thank You Sharon :) . The Hotel offers around the clock security. David is that special security guy that every company prays for.He made certain you knew that you were safe throughout the property. Always with a smile as he warmly greeted everyone. 
+I have traveled the world and my stay at the Candlewood Suites ranks...I sold my home in LA Ca.and had a number of appointments to complete before relocating.I had absolutely no intentions of staying at the Candlewood Suites for an entire month.It is my pleasure too share with all future guest that my time spent there was wonderful. Their Great Employee's are the best.The rooms are nice, clean and bug free. I'll always remember Maria(Front Desk) as the first impression representing this establishment because she was very warm and welcoming and i was exhausted after two long days of moving and just wanted to rest!! She quickly and professionally handled the process in minutes. It wasn't just "a" good day for Maria because she and Inessa were very sweet &amp; pleasant each morning during my unexpected extended stay. The evening &amp; graveyard shifts with Bryan,Sharon and Larry (Mr cool breeze) were equally great!! One evening i decided to vent my automobile issues with Sharon without knowledge of her valuable expertise regarding automobile repairs. Not only could she run the hotel, she's also a merchanic that knows her stuff!! (I returned to my merchanic feeling empowered) Thank You Sharon :) . The Hotel offers around the clock security. David is that special security guy that every company prays for.He made certain you knew that you were safe throughout the property. Always with a smile as he warmly greeted everyone. I have traveled the world and my stay at the Candlewood Suites ranks as my favorite (amongst its level of stay).Thanks to all of the Candlewood Suites Employee's of Hawthorne Ca.for your Top Notch Service. You Are Simply The Best!!C JonesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r271780073-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>271780073</t>
+  </si>
+  <si>
+    <t>05/13/2015</t>
+  </si>
+  <si>
+    <t>It was amazing experience....</t>
+  </si>
+  <si>
+    <t>We stayed there for 8 days...in their 1 bedroom suite...and our experience was very good...our kid liked it a lot...as he could play in their separated living room...the kitchen was very well maintained....utensils were provided...u have to bring only your nonstick utensil...if you want....dish soap was also there...hotel staff was nice and helpful....I gave 4 stars because...there is no facility for breakfast...there is a small cupboard..in which they have some munching items..coffee..cold drinks...but we didn't need it as we always had something leftover from restaurant with us...they do housekeeping after a week....and it's not a very fancy hotel...but it was comfortable for us...n I recommend it for long stays.... They provide free laundry 24 hrs...gym....Overall it was very nice...MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>We stayed there for 8 days...in their 1 bedroom suite...and our experience was very good...our kid liked it a lot...as he could play in their separated living room...the kitchen was very well maintained....utensils were provided...u have to bring only your nonstick utensil...if you want....dish soap was also there...hotel staff was nice and helpful....I gave 4 stars because...there is no facility for breakfast...there is a small cupboard..in which they have some munching items..coffee..cold drinks...but we didn't need it as we always had something leftover from restaurant with us...they do housekeeping after a week....and it's not a very fancy hotel...but it was comfortable for us...n I recommend it for long stays.... They provide free laundry 24 hrs...gym....Overall it was very nice...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r270269721-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>270269721</t>
+  </si>
+  <si>
+    <t>05/05/2015</t>
+  </si>
+  <si>
+    <t>Despite being on top floor, smell of cigarette smoke is strong in hallway</t>
+  </si>
+  <si>
+    <t>A typical Candlewood property located in a not-so-nice area of Hawthorne (just east of LAX airport).The staff were incredible and very receptive both at checkin and checkout. I was placed in a room on the top (4th) floor, yet there was the strong odor of cigarette smoke throughout the hallway. Thankfully the odor did not enter my room.The property is secure enough but the surrounding area is rather sketchy, esp. after dark. I did walk from the Hawthorne/Lennox Green line station (about 1/4 mile north of the hotel), but I would not recommend this after the sun goes down. Immediately within walking distance is a strip shopping center containing a Hawaiian restaurant and I believe a Subway sandwiches, and across the street El Pollo Loco (a Mexican chicken fast food joint). There is a Ralph's supermarket about 1/3 of a mile south of the hotel, but as one goes south the area does look dangerous.My advice is that you do all your errands and eating during daylight hours, then return to the property after the sunset. Parking lot is shared with the adjoining Holiday In Express and is reasonably well-lit. The hotel provides a shuttle to LAX airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>Inessa U, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded May 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2015</t>
+  </si>
+  <si>
+    <t>A typical Candlewood property located in a not-so-nice area of Hawthorne (just east of LAX airport).The staff were incredible and very receptive both at checkin and checkout. I was placed in a room on the top (4th) floor, yet there was the strong odor of cigarette smoke throughout the hallway. Thankfully the odor did not enter my room.The property is secure enough but the surrounding area is rather sketchy, esp. after dark. I did walk from the Hawthorne/Lennox Green line station (about 1/4 mile north of the hotel), but I would not recommend this after the sun goes down. Immediately within walking distance is a strip shopping center containing a Hawaiian restaurant and I believe a Subway sandwiches, and across the street El Pollo Loco (a Mexican chicken fast food joint). There is a Ralph's supermarket about 1/3 of a mile south of the hotel, but as one goes south the area does look dangerous.My advice is that you do all your errands and eating during daylight hours, then return to the property after the sunset. Parking lot is shared with the adjoining Holiday In Express and is reasonably well-lit. The hotel provides a shuttle to LAX airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r259805818-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>259805818</t>
+  </si>
+  <si>
+    <t>03/16/2015</t>
+  </si>
+  <si>
+    <t>So good, I kept extending my stay</t>
+  </si>
+  <si>
+    <t>I needed temporary long term accommodations for a few months. I found this hotel which had a convenient location, a good long term rate, free wifi, and free cable. From the moment I arrived, everyone on staff was incredibly nice -- especially Maria who always went out of her way to greet you when you arrived/left the building. The room was basically a studio apartment with all of the standard necessities and supplies. The cleaning staff, always super polite, came in once a week to clean and exchange fresh towels/sheets. They steam cleaned the common area carpets a few times while I was there and everything always smelled fresh/clean. Some nights they were completely booked, and it was still quiet which I appreciated. The hotel and parking garage were always clean and secure. There was an onsite gym that had all the basics and was rarely packed. And free laundry facilities. It's fairly close to the airport and beaches with a free shuttle bus to the airport. I enjoyed this location so much, I extended my stay twice. I would gladly recommend this place and stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>CHC H, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded March 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2015</t>
+  </si>
+  <si>
+    <t>I needed temporary long term accommodations for a few months. I found this hotel which had a convenient location, a good long term rate, free wifi, and free cable. From the moment I arrived, everyone on staff was incredibly nice -- especially Maria who always went out of her way to greet you when you arrived/left the building. The room was basically a studio apartment with all of the standard necessities and supplies. The cleaning staff, always super polite, came in once a week to clean and exchange fresh towels/sheets. They steam cleaned the common area carpets a few times while I was there and everything always smelled fresh/clean. Some nights they were completely booked, and it was still quiet which I appreciated. The hotel and parking garage were always clean and secure. There was an onsite gym that had all the basics and was rarely packed. And free laundry facilities. It's fairly close to the airport and beaches with a free shuttle bus to the airport. I enjoyed this location so much, I extended my stay twice. I would gladly recommend this place and stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r259106093-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>259106093</t>
+  </si>
+  <si>
+    <t>03/12/2015</t>
+  </si>
+  <si>
+    <t>Beautiful Place</t>
+  </si>
+  <si>
+    <t>When you first walk in the greetings are so delightful and welcoming. Customer Service is Great especially "MARIA" she is very helpful kind and a very hard worker she's always smiling. Maria also always makes sure im ok with the  stay here at the Candlewood and thats a hard worker. Far as MANAGEMENT "INESSA" she is so sweet and kind hearted to me and others. If the Candlewood is Sold Out She always find another room for me so my family is covered and thats great management. Inessa also keeps a smile on her face an her welcoming is great. The Candlewood is a beautiful place with wonderful people.  THANK YOU AGAIN MARIA AND INESSA. GENA.MoreShow less</t>
+  </si>
+  <si>
+    <t>CHC H, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded March 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2015</t>
+  </si>
+  <si>
+    <t>When you first walk in the greetings are so delightful and welcoming. Customer Service is Great especially "MARIA" she is very helpful kind and a very hard worker she's always smiling. Maria also always makes sure im ok with the  stay here at the Candlewood and thats a hard worker. Far as MANAGEMENT "INESSA" she is so sweet and kind hearted to me and others. If the Candlewood is Sold Out She always find another room for me so my family is covered and thats great management. Inessa also keeps a smile on her face an her welcoming is great. The Candlewood is a beautiful place with wonderful people.  THANK YOU AGAIN MARIA AND INESSA. GENA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r259102980-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>259102980</t>
+  </si>
+  <si>
+    <t>Great place to stay after arriving in LA</t>
+  </si>
+  <si>
+    <t>The Candlewood Suites in Hawthorne, just minutes away from LAX is my choice when I arrive in LA from Sydney. The price is great as you are not paying LAX rates and it has absolutely everything you need. Starbucks is just down the road as is a supermarket and 2 fast food restaurants across the road. It also includes secure parking if needed. The rooms are fantastic, large with everything you need for a self contained stay. Staff are always friendly and will assist you if you are looking to order in for dinner (great Chinese food delivered). Highly recommendMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>The Candlewood Suites in Hawthorne, just minutes away from LAX is my choice when I arrive in LA from Sydney. The price is great as you are not paying LAX rates and it has absolutely everything you need. Starbucks is just down the road as is a supermarket and 2 fast food restaurants across the road. It also includes secure parking if needed. The rooms are fantastic, large with everything you need for a self contained stay. Staff are always friendly and will assist you if you are looking to order in for dinner (great Chinese food delivered). Highly recommendMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r247275962-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>247275962</t>
+  </si>
+  <si>
+    <t>01/03/2015</t>
+  </si>
+  <si>
+    <t>"First Class Room Appearance"</t>
+  </si>
+  <si>
+    <t>the rooms are of good quality. the walls are somewhat thin at times, although it was quiet during the three day period of Christmas. the suite was well stocked with pots and pans, even paper towels and dish towels. I was impressed by this and apparently the rooms have been updated to a newer version.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>CHC H, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded January 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2015</t>
+  </si>
+  <si>
+    <t>the rooms are of good quality. the walls are somewhat thin at times, although it was quiet during the three day period of Christmas. the suite was well stocked with pots and pans, even paper towels and dish towels. I was impressed by this and apparently the rooms have been updated to a newer version.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r246122250-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>246122250</t>
+  </si>
+  <si>
+    <t>12/27/2014</t>
+  </si>
+  <si>
+    <t>A bit overpriced,sofa bed is a small childs bed</t>
+  </si>
+  <si>
+    <t>I arrived at the hotel very late as our flight from Boston was over 2 hours late.Since I was traveling with my two late teen daughters,I gave them the bedroom and I had to sleep on the unmade sofa bed. There were no sheets on the bed. I had a very hard time finding them and as it was nearly 1am pdt,I didn't want to bother the front desk. When I finally got to bed,my feet hung over the short bed. I have stayed at other Candlewoods in the East and they all had nice sofa beds,not this rickety bed that was fit for a child. I am only 5'10".When we finally woke up the air conditioning did not work properly in the living room.It took two technicians to fix it and two hours later it was fixed.They did give us an extra hour to check out which was nice.The next time I need to stay near LAX, I will look for other accommodations.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>CHC H, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded December 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2014</t>
+  </si>
+  <si>
+    <t>I arrived at the hotel very late as our flight from Boston was over 2 hours late.Since I was traveling with my two late teen daughters,I gave them the bedroom and I had to sleep on the unmade sofa bed. There were no sheets on the bed. I had a very hard time finding them and as it was nearly 1am pdt,I didn't want to bother the front desk. When I finally got to bed,my feet hung over the short bed. I have stayed at other Candlewoods in the East and they all had nice sofa beds,not this rickety bed that was fit for a child. I am only 5'10".When we finally woke up the air conditioning did not work properly in the living room.It took two technicians to fix it and two hours later it was fixed.They did give us an extra hour to check out which was nice.The next time I need to stay near LAX, I will look for other accommodations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r245161712-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>245161712</t>
+  </si>
+  <si>
+    <t>12/19/2014</t>
+  </si>
+  <si>
+    <t>Reasonable Rates with Free Covered Parking</t>
+  </si>
+  <si>
+    <t>Overall I was pleased with my stay.  The staff was friendly and the hotel was clean.  The parking garage is right next door and well secured.  Internet was free and had reasonable speed.  Time to/from LAX was very short and they had a shuttle also.MoreShow less</t>
+  </si>
+  <si>
+    <t>CHC H, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded December 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 23, 2014</t>
+  </si>
+  <si>
+    <t>Overall I was pleased with my stay.  The staff was friendly and the hotel was clean.  The parking garage is right next door and well secured.  Internet was free and had reasonable speed.  Time to/from LAX was very short and they had a shuttle also.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r238945290-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>238945290</t>
+  </si>
+  <si>
+    <t>11/09/2014</t>
+  </si>
+  <si>
+    <t>Good hotel, bad area</t>
+  </si>
+  <si>
+    <t>This Candlewood is a good place to stay, fits in with the rest, clean and good service. However, it's not in a good area - there was some police activity outside overnight. Parking is in a garage behind the property. Gate codes are required. Makes checking in and out with luggage a little cumbersomb. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>CHC H, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded November 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2014</t>
+  </si>
+  <si>
+    <t>This Candlewood is a good place to stay, fits in with the rest, clean and good service. However, it's not in a good area - there was some police activity outside overnight. Parking is in a garage behind the property. Gate codes are required. Makes checking in and out with luggage a little cumbersomb. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r223063234-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>223063234</t>
+  </si>
+  <si>
+    <t>08/19/2014</t>
+  </si>
+  <si>
+    <t>OK hotel.</t>
+  </si>
+  <si>
+    <t>This hotel is just ok. It is not in the greatest area. If you stay on the property you are ok but there are some very bad areas not too far away. There is some great food in walking distance (in the daylight).MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>CHC-GR, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded August 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2014</t>
+  </si>
+  <si>
+    <t>This hotel is just ok. It is not in the greatest area. If you stay on the property you are ok but there are some very bad areas not too far away. There is some great food in walking distance (in the daylight).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r216509839-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>216509839</t>
+  </si>
+  <si>
+    <t>07/20/2014</t>
+  </si>
+  <si>
+    <t>Good hotel near the airport</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights in July.  We had four in our party so we booked a suite.  Jose at the front desk for friendly and checked us in with no problems.  The room was large and in good condition.  The suite included a full kitchen.  We used the microwave and the refrigerator and had no problems.  The only downside was that the sofa-bed was small.  We intended for two of us to sleep on the sofa bed.  It was too small so two of us slept on the floor.  That is not a big problem and we should have checked ahead of time.  The parking was in a parking deck adjacent to the hotel.  You have to have a code to go in and out.  It was secure and safe.  We all took the shuttle over to the airport to drop two of our party off.  David drove the van and kept a good mood even with all the LAX traffic.  This hotel is a good place to stay near LAX and we will defintely use it again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Sana-GRM, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded August 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights in July.  We had four in our party so we booked a suite.  Jose at the front desk for friendly and checked us in with no problems.  The room was large and in good condition.  The suite included a full kitchen.  We used the microwave and the refrigerator and had no problems.  The only downside was that the sofa-bed was small.  We intended for two of us to sleep on the sofa bed.  It was too small so two of us slept on the floor.  That is not a big problem and we should have checked ahead of time.  The parking was in a parking deck adjacent to the hotel.  You have to have a code to go in and out.  It was secure and safe.  We all took the shuttle over to the airport to drop two of our party off.  David drove the van and kept a good mood even with all the LAX traffic.  This hotel is a good place to stay near LAX and we will defintely use it again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r203983963-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>203983963</t>
+  </si>
+  <si>
+    <t>05/04/2014</t>
+  </si>
+  <si>
+    <t>Amazing - can't wait to stay again</t>
+  </si>
+  <si>
+    <t>It's been a while since we stayed (holiday was actually October 2011 - it wouldn't let me go back that far) but we still talk about our holiday all the time. We stayed at Candlewood Suites for 7 nights and really, really didn't want to leave. The staff where fab, the rooms &amp; communal areas always immaculately clean and the facilities are flawless with a gym &amp; even a shop.The rooms are a great size &amp; would be lovely to stay in long term. The kitchen is well stocked with everything you could possibly need and more. The bathroom is a fab size &amp; really clean with a lovely shower. Super comfy bed, a desk &amp; good sized TV as well.We can't wait to go back to LA (hopefully soon) and wouldn't stay anywhere else!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>CHC-GR, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded May 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2014</t>
+  </si>
+  <si>
+    <t>It's been a while since we stayed (holiday was actually October 2011 - it wouldn't let me go back that far) but we still talk about our holiday all the time. We stayed at Candlewood Suites for 7 nights and really, really didn't want to leave. The staff where fab, the rooms &amp; communal areas always immaculately clean and the facilities are flawless with a gym &amp; even a shop.The rooms are a great size &amp; would be lovely to stay in long term. The kitchen is well stocked with everything you could possibly need and more. The bathroom is a fab size &amp; really clean with a lovely shower. Super comfy bed, a desk &amp; good sized TV as well.We can't wait to go back to LA (hopefully soon) and wouldn't stay anywhere else!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r203514301-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>203514301</t>
+  </si>
+  <si>
+    <t>04/30/2014</t>
+  </si>
+  <si>
+    <t>More than expected</t>
+  </si>
+  <si>
+    <t>We stayed just one night at the recommendation of our travel agent. This hotel would be ideal for the traveler looking for a longer term stay. The shuttle from the airport was very nice and got there much sooner than we expected. The staff we had contact with was very pleasant and helpful. The room was beautiful, spacious and clean. The bed was comfortable. There was a recliner!!! The view was nothing much, but it was pretty quiet, considering the area. There were several dining establishments within walking distance (including the world's slowest McDonald's). Don't expect ice in the fridge or even the fridge being turned on. That was our only disappointment. The hotel is just across a cobblestone area from a Holiday Inn and it seems the two are perhaps commercially connected somehow, as you are invited to use the Holiday Inn's ice makers and newspapers. There is even a nice area to grill and eat outdoors if you feel so inclined. Free use of DVDs was a nice addition.  If this is a two star hotel, a one star might be good enough! I'd consider it 4 stars for a longer term stay! Very nice!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>We stayed just one night at the recommendation of our travel agent. This hotel would be ideal for the traveler looking for a longer term stay. The shuttle from the airport was very nice and got there much sooner than we expected. The staff we had contact with was very pleasant and helpful. The room was beautiful, spacious and clean. The bed was comfortable. There was a recliner!!! The view was nothing much, but it was pretty quiet, considering the area. There were several dining establishments within walking distance (including the world's slowest McDonald's). Don't expect ice in the fridge or even the fridge being turned on. That was our only disappointment. The hotel is just across a cobblestone area from a Holiday Inn and it seems the two are perhaps commercially connected somehow, as you are invited to use the Holiday Inn's ice makers and newspapers. There is even a nice area to grill and eat outdoors if you feel so inclined. Free use of DVDs was a nice addition.  If this is a two star hotel, a one star might be good enough! I'd consider it 4 stars for a longer term stay! Very nice!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r202283714-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>202283714</t>
+  </si>
+  <si>
+    <t>04/22/2014</t>
+  </si>
+  <si>
+    <t>Good for extended stay</t>
+  </si>
+  <si>
+    <t>I have stayed there for long time and it is a really good hotel if you are planning for extended stay in Los Angeles near airport. Our one bedroom suite was spacious with enough storage for clothes and stuffs. They provide a full kitchen with pots and pans and dishwasher. This hotel also has free gym, free wifi, free secure parking and free laundry!!one bed room suit has 2 TVs and DVD player. Internet speed was average.The only issue I had that this hotel does not provide breakfast , but there is a cupboard where you can buy snacks and beverages. Although the area initially dose not look good,but I never had any problem while walking around during evening time.  I really appreciate front desk staffs. They are efficient and willing to provide good service every time specially Maria and Jose.Overall I liked this property and would like to visit again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed there for long time and it is a really good hotel if you are planning for extended stay in Los Angeles near airport. Our one bedroom suite was spacious with enough storage for clothes and stuffs. They provide a full kitchen with pots and pans and dishwasher. This hotel also has free gym, free wifi, free secure parking and free laundry!!one bed room suit has 2 TVs and DVD player. Internet speed was average.The only issue I had that this hotel does not provide breakfast , but there is a cupboard where you can buy snacks and beverages. Although the area initially dose not look good,but I never had any problem while walking around during evening time.  I really appreciate front desk staffs. They are efficient and willing to provide good service every time specially Maria and Jose.Overall I liked this property and would like to visit again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r197906252-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>197906252</t>
+  </si>
+  <si>
+    <t>03/18/2014</t>
+  </si>
+  <si>
+    <t>Nice and cozy :)</t>
+  </si>
+  <si>
+    <t>The room is warm and cozy, home away from home. Close to shopping center and restraunts and also very close to the airport.  Idea location to get around in the city.  The rooms have wooden floors, very modern and modern.  The Hotel is much nicer than you can imagine.  Nice kitchen, and clean bathroom. The gym small and convenient. I do reccommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>CHC-GR, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded March 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2014</t>
+  </si>
+  <si>
+    <t>The room is warm and cozy, home away from home. Close to shopping center and restraunts and also very close to the airport.  Idea location to get around in the city.  The rooms have wooden floors, very modern and modern.  The Hotel is much nicer than you can imagine.  Nice kitchen, and clean bathroom. The gym small and convenient. I do reccommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r196236373-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>196236373</t>
+  </si>
+  <si>
+    <t>03/04/2014</t>
+  </si>
+  <si>
+    <t>liked it but…</t>
+  </si>
+  <si>
+    <t>The hotel is clean. Rooms are big and well equiped. Staff is kind of tired for serving customers ,  do not like to advise.No Breakfast which is huge disadvantage. In front is the Holiday inn which has breakfast. Gym room is nice and also the self laundry. Do not know if i will use again. MoreShow less</t>
+  </si>
+  <si>
+    <t>CHC-GR, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded March 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2014</t>
+  </si>
+  <si>
+    <t>The hotel is clean. Rooms are big and well equiped. Staff is kind of tired for serving customers ,  do not like to advise.No Breakfast which is huge disadvantage. In front is the Holiday inn which has breakfast. Gym room is nice and also the self laundry. Do not know if i will use again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r194464974-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>194464974</t>
+  </si>
+  <si>
+    <t>02/17/2014</t>
+  </si>
+  <si>
+    <t>back again</t>
+  </si>
+  <si>
+    <t>after a quick work trip to Vegas, I'm back again. no reason to stay anywhere else. area is sketchy but they have 24/7 security patrolling outside and I am in and out at all times of the day and night and always look around and see the guard watching out for me. the room is the same, roomy, and comfortable. ill be here for another month or more and have no reason not to stay here. Maria at the front desk and the Mgr, Mr. Shaz are wonderful and always answer my questions.Maids do a good job and I especially say hi to the security guards. (oh, and laundry is free too.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>CHC-GR, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded February 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2014</t>
+  </si>
+  <si>
+    <t>after a quick work trip to Vegas, I'm back again. no reason to stay anywhere else. area is sketchy but they have 24/7 security patrolling outside and I am in and out at all times of the day and night and always look around and see the guard watching out for me. the room is the same, roomy, and comfortable. ill be here for another month or more and have no reason not to stay here. Maria at the front desk and the Mgr, Mr. Shaz are wonderful and always answer my questions.Maids do a good job and I especially say hi to the security guards. (oh, and laundry is free too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r192857075-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>192857075</t>
+  </si>
+  <si>
+    <t>02/02/2014</t>
+  </si>
+  <si>
+    <t>Awful service, view of garbage-strewn lot, torn linens</t>
+  </si>
+  <si>
+    <t>I've had great experiences with Candlewood Suites in Times Square and Massachusetts, but I will never come back to this one.  Reserved a handicapped-accessible suite for myself and my mother, who is in a wheelchair.  At check-in was told (only when I asked), "Oh yeah, I see you reserved that, but they gave that room to someone else and we're sold out, so there's nothing we can do about it." (We were told we could have a handicapped accessible single room, but not the suite we'd reserved.) Nothing about the hotel was explained to us, no instructions on where the parking was, no info unless specifically asked, then the clerk went back to texting.   Fortunately, the wheelchair fit OK in the room they gave us, and the interior of the room itself is great -- spacious and clean, though missing little touches I've found in other Candlewoods, like popcorn waiting in the microwave.  The view out the window is of a lot filled with garbage and dumpsters (see photo).  When we opened the fold-out couch, it was a bare, lumpy mattress, and no extra linens or pillows could be found in the room.  We called to ask for help with this and a young man showed up with too-large sheets, no pillows, and a torn-up and stained blanket (see photo), threw everything down, and ran out -- we were laughing at how obvious it was he didn't want to be...I've had great experiences with Candlewood Suites in Times Square and Massachusetts, but I will never come back to this one.  Reserved a handicapped-accessible suite for myself and my mother, who is in a wheelchair.  At check-in was told (only when I asked), "Oh yeah, I see you reserved that, but they gave that room to someone else and we're sold out, so there's nothing we can do about it." (We were told we could have a handicapped accessible single room, but not the suite we'd reserved.) Nothing about the hotel was explained to us, no instructions on where the parking was, no info unless specifically asked, then the clerk went back to texting.   Fortunately, the wheelchair fit OK in the room they gave us, and the interior of the room itself is great -- spacious and clean, though missing little touches I've found in other Candlewoods, like popcorn waiting in the microwave.  The view out the window is of a lot filled with garbage and dumpsters (see photo).  When we opened the fold-out couch, it was a bare, lumpy mattress, and no extra linens or pillows could be found in the room.  We called to ask for help with this and a young man showed up with too-large sheets, no pillows, and a torn-up and stained blanket (see photo), threw everything down, and ran out -- we were laughing at how obvious it was he didn't want to be asked to make the bed. I brought a box of food garbage downstairs (left over from food we had delivered) and asked where it should go, and the new woman behind the desk sent me out myself into a back alley and told me to throw the box out there.  No one ever offered to help hold a door as I struggled with the wheelchair.  Parking across the street in the garage, where the gate stays open for multiple cars, felt not very safe in the middle of the night. We are only here 3 nights so will not bother moving, but at a minimum,the staff here needs customer-service training.MoreShow less</t>
+  </si>
+  <si>
+    <t>CHC-GR, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded February 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2014</t>
+  </si>
+  <si>
+    <t>I've had great experiences with Candlewood Suites in Times Square and Massachusetts, but I will never come back to this one.  Reserved a handicapped-accessible suite for myself and my mother, who is in a wheelchair.  At check-in was told (only when I asked), "Oh yeah, I see you reserved that, but they gave that room to someone else and we're sold out, so there's nothing we can do about it." (We were told we could have a handicapped accessible single room, but not the suite we'd reserved.) Nothing about the hotel was explained to us, no instructions on where the parking was, no info unless specifically asked, then the clerk went back to texting.   Fortunately, the wheelchair fit OK in the room they gave us, and the interior of the room itself is great -- spacious and clean, though missing little touches I've found in other Candlewoods, like popcorn waiting in the microwave.  The view out the window is of a lot filled with garbage and dumpsters (see photo).  When we opened the fold-out couch, it was a bare, lumpy mattress, and no extra linens or pillows could be found in the room.  We called to ask for help with this and a young man showed up with too-large sheets, no pillows, and a torn-up and stained blanket (see photo), threw everything down, and ran out -- we were laughing at how obvious it was he didn't want to be...I've had great experiences with Candlewood Suites in Times Square and Massachusetts, but I will never come back to this one.  Reserved a handicapped-accessible suite for myself and my mother, who is in a wheelchair.  At check-in was told (only when I asked), "Oh yeah, I see you reserved that, but they gave that room to someone else and we're sold out, so there's nothing we can do about it." (We were told we could have a handicapped accessible single room, but not the suite we'd reserved.) Nothing about the hotel was explained to us, no instructions on where the parking was, no info unless specifically asked, then the clerk went back to texting.   Fortunately, the wheelchair fit OK in the room they gave us, and the interior of the room itself is great -- spacious and clean, though missing little touches I've found in other Candlewoods, like popcorn waiting in the microwave.  The view out the window is of a lot filled with garbage and dumpsters (see photo).  When we opened the fold-out couch, it was a bare, lumpy mattress, and no extra linens or pillows could be found in the room.  We called to ask for help with this and a young man showed up with too-large sheets, no pillows, and a torn-up and stained blanket (see photo), threw everything down, and ran out -- we were laughing at how obvious it was he didn't want to be asked to make the bed. I brought a box of food garbage downstairs (left over from food we had delivered) and asked where it should go, and the new woman behind the desk sent me out myself into a back alley and told me to throw the box out there.  No one ever offered to help hold a door as I struggled with the wheelchair.  Parking across the street in the garage, where the gate stays open for multiple cars, felt not very safe in the middle of the night. We are only here 3 nights so will not bother moving, but at a minimum,the staff here needs customer-service training.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r187713724-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>187713724</t>
+  </si>
+  <si>
+    <t>12/15/2013</t>
+  </si>
+  <si>
+    <t>Awesome Hotel</t>
+  </si>
+  <si>
+    <t>We were checked in by Jose.  He was friendly and thorough.  He explained the parking, business center, gym and laundry to us.  We felt welcomed by this polite young man.The room was beautiful.  It had ammenities from home, pans,dishes, glasses and silverware.  The room had a comfy ambiance.  It was clean and well maintained.  The pillows and towels are the best!  Throughout the week Maria at the front desk greeted us with a smile.  You can tell she truly loves her job.  She is knowledable about the area and greeted us each time we left and re-entered.  Its so nice to see a genuine friendly person at the desk.Our room was tidied up each day by Josephina.  She takes great care to ensure your room is to her satisfaction.  She was polite and friendly as well.  This hotel is staffed with friendly staff that are dedicated to making your stay the best!  Thanks to all that make this Candlewood hotel awesome!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>CHC-GR, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded December 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2013</t>
+  </si>
+  <si>
+    <t>We were checked in by Jose.  He was friendly and thorough.  He explained the parking, business center, gym and laundry to us.  We felt welcomed by this polite young man.The room was beautiful.  It had ammenities from home, pans,dishes, glasses and silverware.  The room had a comfy ambiance.  It was clean and well maintained.  The pillows and towels are the best!  Throughout the week Maria at the front desk greeted us with a smile.  You can tell she truly loves her job.  She is knowledable about the area and greeted us each time we left and re-entered.  Its so nice to see a genuine friendly person at the desk.Our room was tidied up each day by Josephina.  She takes great care to ensure your room is to her satisfaction.  She was polite and friendly as well.  This hotel is staffed with friendly staff that are dedicated to making your stay the best!  Thanks to all that make this Candlewood hotel awesome!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r186474104-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>186474104</t>
+  </si>
+  <si>
+    <t>12/01/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel. Perfect for what we needed.</t>
+  </si>
+  <si>
+    <t>We stayed in L.A. for 3 quick days. We wanted to be near LAX since our flight out on the third day was going to be early in the morning. 
+Upon booking, I wasn't sure how safe the neighborhood would be. But, I always check TripAdvisor and it had pretty good reviews, so I felt OK about it. Once we got there, we saw the neighborhood was fine. I was not scared at all. Didn't hear a lot of outside noise while in the hotel, either. 
+Another plus was, we had booked "A Day in LA Tour", and one of the "pick up" spots for the tour was literally right next door at the Holiday Inn Express. So, that was convenient for us.
+As a IHG member, they gave me a nice coupon to pick out any drink and snack I wanted from their snack store. 
+Our room was on the third floor, it was clean and quiet. We had a kitchenette with a full refrigerator and a dishwasher. There was no breakfast place at this hotel, but you could walk across the street to McDonald's. We ended up getting some milk, cereal and juice at a local grocery store. 
+I paid ahead of time (online) to lock in a good rate. There was gated and secure parking (can't remember if there was a fee for the parking or whether that was included in our stay.) 
+I used the business...We stayed in L.A. for 3 quick days. We wanted to be near LAX since our flight out on the third day was going to be early in the morning. Upon booking, I wasn't sure how safe the neighborhood would be. But, I always check TripAdvisor and it had pretty good reviews, so I felt OK about it. Once we got there, we saw the neighborhood was fine. I was not scared at all. Didn't hear a lot of outside noise while in the hotel, either. Another plus was, we had booked "A Day in LA Tour", and one of the "pick up" spots for the tour was literally right next door at the Holiday Inn Express. So, that was convenient for us.As a IHG member, they gave me a nice coupon to pick out any drink and snack I wanted from their snack store. Our room was on the third floor, it was clean and quiet. We had a kitchenette with a full refrigerator and a dishwasher. There was no breakfast place at this hotel, but you could walk across the street to McDonald's. We ended up getting some milk, cereal and juice at a local grocery store. I paid ahead of time (online) to lock in a good rate. There was gated and secure parking (can't remember if there was a fee for the parking or whether that was included in our stay.) I used the business center a lot because I had some work email to check and I did not bring my laptop on this trip. The computer I used had fast internet. The wifi in the hotel also worked very well.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>CHC-GR, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded December 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2013</t>
+  </si>
+  <si>
+    <t>We stayed in L.A. for 3 quick days. We wanted to be near LAX since our flight out on the third day was going to be early in the morning. 
+Upon booking, I wasn't sure how safe the neighborhood would be. But, I always check TripAdvisor and it had pretty good reviews, so I felt OK about it. Once we got there, we saw the neighborhood was fine. I was not scared at all. Didn't hear a lot of outside noise while in the hotel, either. 
+Another plus was, we had booked "A Day in LA Tour", and one of the "pick up" spots for the tour was literally right next door at the Holiday Inn Express. So, that was convenient for us.
+As a IHG member, they gave me a nice coupon to pick out any drink and snack I wanted from their snack store. 
+Our room was on the third floor, it was clean and quiet. We had a kitchenette with a full refrigerator and a dishwasher. There was no breakfast place at this hotel, but you could walk across the street to McDonald's. We ended up getting some milk, cereal and juice at a local grocery store. 
+I paid ahead of time (online) to lock in a good rate. There was gated and secure parking (can't remember if there was a fee for the parking or whether that was included in our stay.) 
+I used the business...We stayed in L.A. for 3 quick days. We wanted to be near LAX since our flight out on the third day was going to be early in the morning. Upon booking, I wasn't sure how safe the neighborhood would be. But, I always check TripAdvisor and it had pretty good reviews, so I felt OK about it. Once we got there, we saw the neighborhood was fine. I was not scared at all. Didn't hear a lot of outside noise while in the hotel, either. Another plus was, we had booked "A Day in LA Tour", and one of the "pick up" spots for the tour was literally right next door at the Holiday Inn Express. So, that was convenient for us.As a IHG member, they gave me a nice coupon to pick out any drink and snack I wanted from their snack store. Our room was on the third floor, it was clean and quiet. We had a kitchenette with a full refrigerator and a dishwasher. There was no breakfast place at this hotel, but you could walk across the street to McDonald's. We ended up getting some milk, cereal and juice at a local grocery store. I paid ahead of time (online) to lock in a good rate. There was gated and secure parking (can't remember if there was a fee for the parking or whether that was included in our stay.) I used the business center a lot because I had some work email to check and I did not bring my laptop on this trip. The computer I used had fast internet. The wifi in the hotel also worked very well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r181570070-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>181570070</t>
+  </si>
+  <si>
+    <t>10/19/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel to stay in.</t>
+  </si>
+  <si>
+    <t>This place is centrally located near Los Angeles airport and just south of Beverly hills, 15 minutes to downtown and a short drive south to Orange county. Beaches are close too, like 5 minutes to the closest one.If you want service, this one has wonderful  front counter personel, the security guys in the parking area are always watching so that we are safe and the maids make sure you are comfortable. a kitchen in the room and free laundry and workout room really make this place feel like home. I give it an A+. you can't go wrong here. I will return to this one againMoreShow less</t>
+  </si>
+  <si>
+    <t>CHC-GR, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded October 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2013</t>
+  </si>
+  <si>
+    <t>This place is centrally located near Los Angeles airport and just south of Beverly hills, 15 minutes to downtown and a short drive south to Orange county. Beaches are close too, like 5 minutes to the closest one.If you want service, this one has wonderful  front counter personel, the security guys in the parking area are always watching so that we are safe and the maids make sure you are comfortable. a kitchen in the room and free laundry and workout room really make this place feel like home. I give it an A+. you can't go wrong here. I will return to this one againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r179773516-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>179773516</t>
+  </si>
+  <si>
+    <t>10/04/2013</t>
+  </si>
+  <si>
+    <t>This is the only place to stay for me now</t>
+  </si>
+  <si>
+    <t>just a few rambling thoughts about this hotel......this place is near the LAX airport (about 2 miles) and has protected 24 hour security parking.located in the opposite direction of heavy traffic for me during this stay. while I'm headed to work toward the east, heavy traffic is on the other side and the reverse direction is true on the way home....awesome. the hotel has a kitchen that is well equipped. the desk personnel are attentive and very helpful; (Thanks Maria and Shaz). The maids take care of the room and I don't even know when they are there except for the clean towels and bed is made (thanks to Trini and Josefina. they do a great job and are very friendly). This is my new favorite home away from home. If every Candlewood is this friendly, I will be staying at more of them as I cross the country. (and the free laundry machines are a very nice touch) and I get my points as a priority member too. Thank you candlewood!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>CHC-GR, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded October 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2013</t>
+  </si>
+  <si>
+    <t>just a few rambling thoughts about this hotel......this place is near the LAX airport (about 2 miles) and has protected 24 hour security parking.located in the opposite direction of heavy traffic for me during this stay. while I'm headed to work toward the east, heavy traffic is on the other side and the reverse direction is true on the way home....awesome. the hotel has a kitchen that is well equipped. the desk personnel are attentive and very helpful; (Thanks Maria and Shaz). The maids take care of the room and I don't even know when they are there except for the clean towels and bed is made (thanks to Trini and Josefina. they do a great job and are very friendly). This is my new favorite home away from home. If every Candlewood is this friendly, I will be staying at more of them as I cross the country. (and the free laundry machines are a very nice touch) and I get my points as a priority member too. Thank you candlewood!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r179284306-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>179284306</t>
+  </si>
+  <si>
+    <t>09/30/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel if staying several days</t>
+  </si>
+  <si>
+    <t>Stayed at the Express next door and thought would upgrade (price would assume) to better hotel.  Problem was beds smaller, not pool or hot tub.  Kitchenette nice if was going to use, no ice in freezer (told to go and get from Express.  With kitchenette, no breakfast, and ran out of morning paper (to to get from Express). For the price, Express better choice and was told that by off going clerk - saving grace was Jose at the desk - really nice and helpful .MoreShow less</t>
+  </si>
+  <si>
+    <t>CHC-GR, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded October 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2013</t>
+  </si>
+  <si>
+    <t>Stayed at the Express next door and thought would upgrade (price would assume) to better hotel.  Problem was beds smaller, not pool or hot tub.  Kitchenette nice if was going to use, no ice in freezer (told to go and get from Express.  With kitchenette, no breakfast, and ran out of morning paper (to to get from Express). For the price, Express better choice and was told that by off going clerk - saving grace was Jose at the desk - really nice and helpful .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r167324797-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>167324797</t>
+  </si>
+  <si>
+    <t>07/12/2013</t>
+  </si>
+  <si>
+    <t>Service is terrible</t>
+  </si>
+  <si>
+    <t>I stayed here on 7/9-7/10 and They have done nothing but made my stay worse and worse. I go to check in and the rooms  arent ready and when they are they put other people ahead of me. I am a platinum member and stay at these chains all year long and this is ny far one of the worst places to stay. Then they over charge my room when i was supposed to be on GOVT' rate. oh well never again. They didnt even recognize me as a priority club member.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>CHC-GR, Director of Sales at Candlewood Suites Lax Hawthorne, responded to this reviewResponded July 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here on 7/9-7/10 and They have done nothing but made my stay worse and worse. I go to check in and the rooms  arent ready and when they are they put other people ahead of me. I am a platinum member and stay at these chains all year long and this is ny far one of the worst places to stay. Then they over charge my room when i was supposed to be on GOVT' rate. oh well never again. They didnt even recognize me as a priority club member.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r166800125-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>166800125</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>Good Hotel, Bad Location</t>
+  </si>
+  <si>
+    <t>We stayed here during a road trip down from San Francisco to San Diego.  It's located close to the airport.  The neighborhood is not so great and the parking structure is detached from the hotel so be careful if arriving late at night.  The rooms are big and have a kitchenette in there.  So that is convenient.  It wasn't the nicest place but it fit our needs for our two nights while passing through L.A. area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>CHC-GR, Director of Sales at Candlewood Suites Lax Hawthorne, responded to this reviewResponded July 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2013</t>
+  </si>
+  <si>
+    <t>We stayed here during a road trip down from San Francisco to San Diego.  It's located close to the airport.  The neighborhood is not so great and the parking structure is detached from the hotel so be careful if arriving late at night.  The rooms are big and have a kitchenette in there.  So that is convenient.  It wasn't the nicest place but it fit our needs for our two nights while passing through L.A. area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r162129120-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>162129120</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>Good for a longer stay</t>
+  </si>
+  <si>
+    <t>Going into my third week in this facility. Friendliness of front desk, free laundry, and nearness to job (Huntington Beach) are biggest plus. Room is ok but not luxurious. Full size fridge with ice maker is great. Stove top but no oven is downer. Not the best part of town but secure parking garage with lots of spaces  -even at capacity crowd of holiday weekend. No complaints for the extended stay price. MoreShow less</t>
+  </si>
+  <si>
+    <t>CHC-GR, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded May 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2013</t>
+  </si>
+  <si>
+    <t>Going into my third week in this facility. Friendliness of front desk, free laundry, and nearness to job (Huntington Beach) are biggest plus. Room is ok but not luxurious. Full size fridge with ice maker is great. Stove top but no oven is downer. Not the best part of town but secure parking garage with lots of spaces  -even at capacity crowd of holiday weekend. No complaints for the extended stay price. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r156665846-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>156665846</t>
+  </si>
+  <si>
+    <t>04/05/2013</t>
+  </si>
+  <si>
+    <t>Amazing hotel for all types of people and family</t>
+  </si>
+  <si>
+    <t>Stayed for a week and Loved this hotel , facilities are amazing and professional, polite and helpful staff. My family and I had a great stay! The area was safe and had many fast food places nearby which were walking distance such as McDonald's and KFC and a lovely restaurant nearby named 'el poco loco' which had delicious food and appeared to be the most suitable to us!Only disadvantage is the location as it was far from the main attractions of LA. the subway and buses were easy to figure out however it did take a while . I would hire a car if I was to stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>CHC-GR, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded April 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2013</t>
+  </si>
+  <si>
+    <t>Stayed for a week and Loved this hotel , facilities are amazing and professional, polite and helpful staff. My family and I had a great stay! The area was safe and had many fast food places nearby which were walking distance such as McDonald's and KFC and a lovely restaurant nearby named 'el poco loco' which had delicious food and appeared to be the most suitable to us!Only disadvantage is the location as it was far from the main attractions of LA. the subway and buses were easy to figure out however it did take a while . I would hire a car if I was to stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r154742732-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>154742732</t>
+  </si>
+  <si>
+    <t>03/16/2013</t>
+  </si>
+  <si>
+    <t>Excellent service and affordable accommodation</t>
+  </si>
+  <si>
+    <t>The staff at this hotel are excellent in customer service, made great recommendations and were courteous. The rooms were slightly dated but were spacious and had all amenities needed for a comfortable stay. Unfortunately the location is the only downside, I didn't feel safe walking around the area day or night and it is quite far from any tourist locations and/or malls. Would stay here again but perhaps rent a car.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded April 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2013</t>
+  </si>
+  <si>
+    <t>The staff at this hotel are excellent in customer service, made great recommendations and were courteous. The rooms were slightly dated but were spacious and had all amenities needed for a comfortable stay. Unfortunately the location is the only downside, I didn't feel safe walking around the area day or night and it is quite far from any tourist locations and/or malls. Would stay here again but perhaps rent a car.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r147318583-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>147318583</t>
+  </si>
+  <si>
+    <t>12/12/2012</t>
+  </si>
+  <si>
+    <t>Nice place to stay and local to the airport</t>
+  </si>
+  <si>
+    <t>Stayed here while working in the area. Rooms are nice and the staff is very friendly. Laundry is free and the have a pretty good exercise room which is important to me. I will be staying here agian when I come out hereMoreShow less</t>
+  </si>
+  <si>
+    <t>HIELAXHB, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded January 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here while working in the area. Rooms are nice and the staff is very friendly. Laundry is free and the have a pretty good exercise room which is important to me. I will be staying here agian when I come out hereMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r144558031-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>144558031</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Nice place to stay close to LAX</t>
+  </si>
+  <si>
+    <t>Great value and nice amenities, close to LAX and my printing company in Gardena. Will stay here again! The kitchen, refrigerator and microwave were a nice bonus. Bed and pillows very comfortable for a good night's rest!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>HIELAXHB, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded November 6, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2012</t>
+  </si>
+  <si>
+    <t>Great value and nice amenities, close to LAX and my printing company in Gardena. Will stay here again! The kitchen, refrigerator and microwave were a nice bonus. Bed and pillows very comfortable for a good night's rest!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r144402510-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>144402510</t>
+  </si>
+  <si>
+    <t>11/03/2012</t>
+  </si>
+  <si>
+    <t>An excellent option for a quick business trip to LA</t>
+  </si>
+  <si>
+    <t>The hotel is very close to LAX and there are a number of places to eat out at in close proximity.This is actually an apartment hotel so the rooms are huge with a small lounge are and kitchen.Very comfortable and clean.I would recommend this hotel to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is very close to LAX and there are a number of places to eat out at in close proximity.This is actually an apartment hotel so the rooms are huge with a small lounge are and kitchen.Very comfortable and clean.I would recommend this hotel to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r142957681-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>142957681</t>
+  </si>
+  <si>
+    <t>10/16/2012</t>
+  </si>
+  <si>
+    <t>ENJOYED THE STAY</t>
+  </si>
+  <si>
+    <t>The convenience of having a full kitchen was enjoyable. The room was clean and adequately equipped. Even had a dish washer and detergent to get you started. So sweet of them to  put a buttered popcorn package and plastic bowl in the microwave as a room gift. Had an internet room in the lobby, very convenient, and a commissary snack room also. The staff was very friendly. Each day and evening we were greeted at the door with smiles and friendly "Hello's". I appreciate it when the front desk dont talk loud when checking you in and everyone then knows your business. Candlewood talked directly to us in a reasonably tone of voice. The hallways were quiet. Even the cleaning staff were friendly and always spoke with a "good morning". We, ( my husband and I) truly enjoyed our stay. We celebrated our 44th wedding anniversary during our stay in California. (our only small complaint was our window faced a lot with constuction debris and 6am we awoke to loud sounds of trucks moving and stacking debris.) That really didnt bother us too much since we wake 6:30am normally. Otherwise it was a great trip. We would definitely return. Hopefully construction will be over then.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>HIELAXHB, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded October 19, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2012</t>
+  </si>
+  <si>
+    <t>The convenience of having a full kitchen was enjoyable. The room was clean and adequately equipped. Even had a dish washer and detergent to get you started. So sweet of them to  put a buttered popcorn package and plastic bowl in the microwave as a room gift. Had an internet room in the lobby, very convenient, and a commissary snack room also. The staff was very friendly. Each day and evening we were greeted at the door with smiles and friendly "Hello's". I appreciate it when the front desk dont talk loud when checking you in and everyone then knows your business. Candlewood talked directly to us in a reasonably tone of voice. The hallways were quiet. Even the cleaning staff were friendly and always spoke with a "good morning". We, ( my husband and I) truly enjoyed our stay. We celebrated our 44th wedding anniversary during our stay in California. (our only small complaint was our window faced a lot with constuction debris and 6am we awoke to loud sounds of trucks moving and stacking debris.) That really didnt bother us too much since we wake 6:30am normally. Otherwise it was a great trip. We would definitely return. Hopefully construction will be over then.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r135112863-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>135112863</t>
+  </si>
+  <si>
+    <t>07/22/2012</t>
+  </si>
+  <si>
+    <t>LAX Hotel</t>
+  </si>
+  <si>
+    <t>This hotel was close to the airport about 15 mins. We stayed there in July 2012 for 3 nights before going to Anaheim. The room was very clean, there was a little canteen that sold basic stuff, the room included a little kitchen with a stove top, regular size fridge, dishwasher, microwave, glasses and dishes including stuff to wash dishes. There were 3 washers and 4 dryers that were free to use for guest. Parking was also very good with secured parking I believe the parking was free and also included wi-fi internet (a little on the slow side). Easy check in and check out.The area was sort of run down but the people were very friendly and there was a lot of fast food places all within walking distance.The only negative thing I can say about the stay was the noise we heard every morning and night of someone walking in the room above us. It was really loud like if the person was stomping and walking.MoreShow less</t>
+  </si>
+  <si>
+    <t>HIELAXHB, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded July 25, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2012</t>
+  </si>
+  <si>
+    <t>This hotel was close to the airport about 15 mins. We stayed there in July 2012 for 3 nights before going to Anaheim. The room was very clean, there was a little canteen that sold basic stuff, the room included a little kitchen with a stove top, regular size fridge, dishwasher, microwave, glasses and dishes including stuff to wash dishes. There were 3 washers and 4 dryers that were free to use for guest. Parking was also very good with secured parking I believe the parking was free and also included wi-fi internet (a little on the slow side). Easy check in and check out.The area was sort of run down but the people were very friendly and there was a lot of fast food places all within walking distance.The only negative thing I can say about the stay was the noise we heard every morning and night of someone walking in the room above us. It was really loud like if the person was stomping and walking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r133409588-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>133409588</t>
+  </si>
+  <si>
+    <t>07/03/2012</t>
+  </si>
+  <si>
+    <t>Good no, frills hotel near LAX</t>
+  </si>
+  <si>
+    <t>Had a nice stay at Candlewood Suites near the airport.  They had a free shuttle to and from LAX but the shuttle doesn't loop around so you need to call them to pick you up.  I suggest that you give them a call when you arrive coz it takes about 15 minutes to get to the hotel.Check in was quick and we got to spin the wheel to get a free great being a priority club member.  The room was nice with two double beds and it has a kitchenette with a full size fridge, a two or three burner stove and a microwave and a good size sink.  The bathroom was spacious with very basic toiletries.  They also had free self-serve laundry.  They had a nice gazebo with a BBQ close to the parkade.  I think this hotel caters more to long term clients with their free laundry and a mini kitchen and no breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2012</t>
+  </si>
+  <si>
+    <t>Had a nice stay at Candlewood Suites near the airport.  They had a free shuttle to and from LAX but the shuttle doesn't loop around so you need to call them to pick you up.  I suggest that you give them a call when you arrive coz it takes about 15 minutes to get to the hotel.Check in was quick and we got to spin the wheel to get a free great being a priority club member.  The room was nice with two double beds and it has a kitchenette with a full size fridge, a two or three burner stove and a microwave and a good size sink.  The bathroom was spacious with very basic toiletries.  They also had free self-serve laundry.  They had a nice gazebo with a BBQ close to the parkade.  I think this hotel caters more to long term clients with their free laundry and a mini kitchen and no breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r131486066-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>131486066</t>
+  </si>
+  <si>
+    <t>06/07/2012</t>
+  </si>
+  <si>
+    <t>Convenient to LAX</t>
+  </si>
+  <si>
+    <t>Spent one night here before flying out of LAX.  Hotel is clean.  Staff is friendly.  Rooms are a small "suite".  It's all one room, but you do have a mini kitchen.  Room had a food odor...must have been whatever the previous occupant had cooked the night before.  No big deal.Parking is secure...it has to be.  The area sucks.  It's not a part of town I would go walking around by myself or at night.Very convenient to the airport.  I don't think it even took 10 minutes to get to Alamo to return the car.It's also noisy.  Didn't look out the window, so I don't know if it was hotel guests outside, or the neighborhood.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>HIELAXHB, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded June 8, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2012</t>
+  </si>
+  <si>
+    <t>Spent one night here before flying out of LAX.  Hotel is clean.  Staff is friendly.  Rooms are a small "suite".  It's all one room, but you do have a mini kitchen.  Room had a food odor...must have been whatever the previous occupant had cooked the night before.  No big deal.Parking is secure...it has to be.  The area sucks.  It's not a part of town I would go walking around by myself or at night.Very convenient to the airport.  I don't think it even took 10 minutes to get to Alamo to return the car.It's also noisy.  Didn't look out the window, so I don't know if it was hotel guests outside, or the neighborhood.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r130181047-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>130181047</t>
+  </si>
+  <si>
+    <t>05/18/2012</t>
+  </si>
+  <si>
+    <t>Last night in California!</t>
+  </si>
+  <si>
+    <t>This was the last night of our holiday in California and we had booked 2 suites so we could relax before the long flight home the following day.  
+Unfortunately when we got there, the booking had been cancelled.   I was told that my credit card had declined the payment.  I had booked the rooms through membership of the parent group and wished the Candlewood Hawthorne had emailed me but perhaps bookings are done centrally.  A few months previously my bank had upgraded my credit card and this necessitated a number change.  I obviously thought that any previous committments would be honoured by my bank but this obviously was not the case.  
+We were lucky that the manager gave us 2 rooms - studios on the ground floor with a view of a wall - for the same rate as that detailed on our hotel confirmation.   However, the room was clean with a full kitchen.
+There are a few shops locally but I'm not sure if it's a safe place to walk around at night.  There is a shopping centre around 20 minutes away by bus but getting back to the hotel was a challenge.  We couldn't find the bus stop and when we eventually found a terminus (behind the shopping centre) found the bus drivers do not run to a schedule - they seem to decide when they want to leave.  A complete contrast to the cheerful drivers and well...This was the last night of our holiday in California and we had booked 2 suites so we could relax before the long flight home the following day.  Unfortunately when we got there, the booking had been cancelled.   I was told that my credit card had declined the payment.  I had booked the rooms through membership of the parent group and wished the Candlewood Hawthorne had emailed me but perhaps bookings are done centrally.  A few months previously my bank had upgraded my credit card and this necessitated a number change.  I obviously thought that any previous committments would be honoured by my bank but this obviously was not the case.  We were lucky that the manager gave us 2 rooms - studios on the ground floor with a view of a wall - for the same rate as that detailed on our hotel confirmation.   However, the room was clean with a full kitchen.There are a few shops locally but I'm not sure if it's a safe place to walk around at night.  There is a shopping centre around 20 minutes away by bus but getting back to the hotel was a challenge.  We couldn't find the bus stop and when we eventually found a terminus (behind the shopping centre) found the bus drivers do not run to a schedule - they seem to decide when they want to leave.  A complete contrast to the cheerful drivers and well run bus service in Santa Barbara.  It was just a disappointing end to our holiday not to have the rooms we had booked,  but we were just glad we had a room.  If I could highlight one member of staff it would be the man who drove the free courtesy bus to the airport - he was very pleasant and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>HIELAXHB, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded May 25, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2012</t>
+  </si>
+  <si>
+    <t>This was the last night of our holiday in California and we had booked 2 suites so we could relax before the long flight home the following day.  
+Unfortunately when we got there, the booking had been cancelled.   I was told that my credit card had declined the payment.  I had booked the rooms through membership of the parent group and wished the Candlewood Hawthorne had emailed me but perhaps bookings are done centrally.  A few months previously my bank had upgraded my credit card and this necessitated a number change.  I obviously thought that any previous committments would be honoured by my bank but this obviously was not the case.  
+We were lucky that the manager gave us 2 rooms - studios on the ground floor with a view of a wall - for the same rate as that detailed on our hotel confirmation.   However, the room was clean with a full kitchen.
+There are a few shops locally but I'm not sure if it's a safe place to walk around at night.  There is a shopping centre around 20 minutes away by bus but getting back to the hotel was a challenge.  We couldn't find the bus stop and when we eventually found a terminus (behind the shopping centre) found the bus drivers do not run to a schedule - they seem to decide when they want to leave.  A complete contrast to the cheerful drivers and well...This was the last night of our holiday in California and we had booked 2 suites so we could relax before the long flight home the following day.  Unfortunately when we got there, the booking had been cancelled.   I was told that my credit card had declined the payment.  I had booked the rooms through membership of the parent group and wished the Candlewood Hawthorne had emailed me but perhaps bookings are done centrally.  A few months previously my bank had upgraded my credit card and this necessitated a number change.  I obviously thought that any previous committments would be honoured by my bank but this obviously was not the case.  We were lucky that the manager gave us 2 rooms - studios on the ground floor with a view of a wall - for the same rate as that detailed on our hotel confirmation.   However, the room was clean with a full kitchen.There are a few shops locally but I'm not sure if it's a safe place to walk around at night.  There is a shopping centre around 20 minutes away by bus but getting back to the hotel was a challenge.  We couldn't find the bus stop and when we eventually found a terminus (behind the shopping centre) found the bus drivers do not run to a schedule - they seem to decide when they want to leave.  A complete contrast to the cheerful drivers and well run bus service in Santa Barbara.  It was just a disappointing end to our holiday not to have the rooms we had booked,  but we were just glad we had a room.  If I could highlight one member of staff it would be the man who drove the free courtesy bus to the airport - he was very pleasant and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r129760985-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>129760985</t>
+  </si>
+  <si>
+    <t>05/11/2012</t>
+  </si>
+  <si>
+    <t>Noisy but otherwise GREAT</t>
+  </si>
+  <si>
+    <t>Let's start by saying that this is a horrible, nasty area.  However, sometimes that's where you have to be, and you need somewhere decent to stay.  I was not disappointed with this hotel.  I have used Candlewood before in Texas, and this was what I expected.  For $225.00 for two nights, we have a queen standard suite with full kitchen and bath.  CLEAN and perfect for what I needed.  The only downside is the noise.  Lots of doors slamming, thumping and traffic noise.... but what do you expect this close to LAX??  Free parking in a VERY secure garage, free wifi, and the little store downstairs.  Those were all huge plus factors.  There is a Holiday Inn Express across the driveway that is probably very similar.  I'm definitely happy with this stay, and would use this location again if I were needing a room in this area.  The bed is very comfy, good linens and towels too.  I just wish it were a little quieter.MoreShow less</t>
+  </si>
+  <si>
+    <t>HIELAXHB, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded May 14, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2012</t>
+  </si>
+  <si>
+    <t>Let's start by saying that this is a horrible, nasty area.  However, sometimes that's where you have to be, and you need somewhere decent to stay.  I was not disappointed with this hotel.  I have used Candlewood before in Texas, and this was what I expected.  For $225.00 for two nights, we have a queen standard suite with full kitchen and bath.  CLEAN and perfect for what I needed.  The only downside is the noise.  Lots of doors slamming, thumping and traffic noise.... but what do you expect this close to LAX??  Free parking in a VERY secure garage, free wifi, and the little store downstairs.  Those were all huge plus factors.  There is a Holiday Inn Express across the driveway that is probably very similar.  I'm definitely happy with this stay, and would use this location again if I were needing a room in this area.  The bed is very comfy, good linens and towels too.  I just wish it were a little quieter.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r128976585-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>128976585</t>
+  </si>
+  <si>
+    <t>04/28/2012</t>
+  </si>
+  <si>
+    <t>"Standard Suites" not really suites.</t>
+  </si>
+  <si>
+    <t>The "standard suites"  is just a regular hotel room with a full size fridge crammed in.  Go for the supersize if you want a real suite.  Totally non-smoking hotel so Cigar Connoisseurs are not welcome.  Otherwise, its your standard room, close to the airport w/ free shuttle service.MoreShow less</t>
+  </si>
+  <si>
+    <t>HIELAXHB, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded April 30, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2012</t>
+  </si>
+  <si>
+    <t>The "standard suites"  is just a regular hotel room with a full size fridge crammed in.  Go for the supersize if you want a real suite.  Totally non-smoking hotel so Cigar Connoisseurs are not welcome.  Otherwise, its your standard room, close to the airport w/ free shuttle service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r120176609-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>120176609</t>
+  </si>
+  <si>
+    <t>11/04/2011</t>
+  </si>
+  <si>
+    <t>Really great rooms, very comfortable for overnight stays before an early morning flight</t>
+  </si>
+  <si>
+    <t>We stayed here on our last night of a 10 California road trip and having stayed in many Holiday Inns and SPG hotels, this one was the best equipped and most comfortable. (If you use IHG points, it's a really great deal).Pros+ well equipped+ you park in a closed garage across the street+ huge bed, you get a welcome juiceCons- the street can be a bit noisy- you'll hear the bigger planes, so check-in late- everything is self-serviceMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>HIELAXHB, Guest Relations Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded March 21, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2012</t>
+  </si>
+  <si>
+    <t>We stayed here on our last night of a 10 California road trip and having stayed in many Holiday Inns and SPG hotels, this one was the best equipped and most comfortable. (If you use IHG points, it's a really great deal).Pros+ well equipped+ you park in a closed garage across the street+ huge bed, you get a welcome juiceCons- the street can be a bit noisy- you'll hear the bigger planes, so check-in late- everything is self-serviceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r119268451-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>119268451</t>
+  </si>
+  <si>
+    <t>10/13/2011</t>
+  </si>
+  <si>
+    <t>Nicely Done</t>
+  </si>
+  <si>
+    <t>Candlewood Suites with Holiday Inn's budget extended stay hotel, but budget isn't the first word that comes to mind when you step into your room.  It was nicely decorated, comes fully equipped with a kitchen with everything you'd find at home (except an oven).  This hotel is in a complex with a Holiday Inn Express and Comfort Suites.  All three hotels share a covered garage with security gate.  The one thing you don't get is housekeeping on a daily basis, it is only weekly.  I'd like to see Candlewood change this policy to a higher frequency.  I know Homewood Suites has what they call a "light" housekeeping day vs. a more extensive cleaning, which would do Candlewood good to adopt.The staff here is friendly, always greeting you when you walk in the door, even if they don't remember your name.  The hotel is not in the best neighborhood, but it is near LAX (offering free shuttle) and is only blocks from the 405 and 105 freeways if you're driving (and if you're in LA, you're driving).  I felt entirely safe while there, as the hotels and garage seem to be "set apart" from the rest of the area.  A good choice if you find yourself needing a hotel near LAX.MoreShow less</t>
+  </si>
+  <si>
+    <t>Candlewood Suites with Holiday Inn's budget extended stay hotel, but budget isn't the first word that comes to mind when you step into your room.  It was nicely decorated, comes fully equipped with a kitchen with everything you'd find at home (except an oven).  This hotel is in a complex with a Holiday Inn Express and Comfort Suites.  All three hotels share a covered garage with security gate.  The one thing you don't get is housekeeping on a daily basis, it is only weekly.  I'd like to see Candlewood change this policy to a higher frequency.  I know Homewood Suites has what they call a "light" housekeeping day vs. a more extensive cleaning, which would do Candlewood good to adopt.The staff here is friendly, always greeting you when you walk in the door, even if they don't remember your name.  The hotel is not in the best neighborhood, but it is near LAX (offering free shuttle) and is only blocks from the 405 and 105 freeways if you're driving (and if you're in LA, you're driving).  I felt entirely safe while there, as the hotels and garage seem to be "set apart" from the rest of the area.  A good choice if you find yourself needing a hotel near LAX.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r118330985-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>118330985</t>
+  </si>
+  <si>
+    <t>09/19/2011</t>
+  </si>
+  <si>
+    <t>Looks like home :)</t>
+  </si>
+  <si>
+    <t>We stayed here together with partner for 3 nights being in and around Los Angeles. The hotel is very nice - clean and quiet. The rooms has everything you may need to stay long, including microwave, large fridge, cooker, coffee maker and even a dishwasher. And what I liked the most - a set of utensils (plates, forks, knives etc.) + glasses :)). The hotel doesn't serve breakfast, but you can cook your own meal while there. The other thing we especially liked about the hotel was its location -  about 7 miles from LAX, 10 miles from beautiful Manhattan beach and appx. 30 minutes to Griffith Observatory. Other good things were free Wi-Fi, free self-parking in a parking building, small shop inside the hotel, laundry room.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>HIELAXHB, Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded September 21, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2011</t>
+  </si>
+  <si>
+    <t>We stayed here together with partner for 3 nights being in and around Los Angeles. The hotel is very nice - clean and quiet. The rooms has everything you may need to stay long, including microwave, large fridge, cooker, coffee maker and even a dishwasher. And what I liked the most - a set of utensils (plates, forks, knives etc.) + glasses :)). The hotel doesn't serve breakfast, but you can cook your own meal while there. The other thing we especially liked about the hotel was its location -  about 7 miles from LAX, 10 miles from beautiful Manhattan beach and appx. 30 minutes to Griffith Observatory. Other good things were free Wi-Fi, free self-parking in a parking building, small shop inside the hotel, laundry room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r112532866-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>112532866</t>
+  </si>
+  <si>
+    <t>06/10/2011</t>
+  </si>
+  <si>
+    <t>Excellent Hotel and Staff</t>
+  </si>
+  <si>
+    <t>Me and my partner stayed at this hotel for 16 nights, we were in town for a wedding and sightseeing.  Our room was clean, updated, the air conditioner worked great as well.  We used extended stay and our room came with a 2 burner glasstop stove, a full sized refrigerator, plenty of cupboard space and a dishwasher.  The TV was a large flatscreen with a DVD player (and use of a free if slightly outdated lending library).  Our bed was comfy and the pillows soft.  Extended stay gets housekeeping once a week and you can get new towels/sheets anytime you wish.  Gym facilities, laundry, wifi and parking (gated and covered) all free which I found a major bonus.  A business center with accessable printer as well.  I even bought stamps and mailed postcards and the front desk.  We had 2 minor repairs needed and were address promptly.  All the staff was great, friendly and accomodating.  This being the first time I have ever stayed in a hotel for an extended amount of time I found this one enjoyable, I searched on Tripadvisor for 5 months and loved the reviews for this one.  They proved to be quite accurate and I'm glad I stayed!  Overnight or extended a perfect hotel.  The neighborhood is a bit sketchy, but I had no problems and security around the hotel(s) in the area patrol at night on a golf cart, and the distance to find...Me and my partner stayed at this hotel for 16 nights, we were in town for a wedding and sightseeing.  Our room was clean, updated, the air conditioner worked great as well.  We used extended stay and our room came with a 2 burner glasstop stove, a full sized refrigerator, plenty of cupboard space and a dishwasher.  The TV was a large flatscreen with a DVD player (and use of a free if slightly outdated lending library).  Our bed was comfy and the pillows soft.  Extended stay gets housekeeping once a week and you can get new towels/sheets anytime you wish.  Gym facilities, laundry, wifi and parking (gated and covered) all free which I found a major bonus.  A business center with accessable printer as well.  I even bought stamps and mailed postcards and the front desk.  We had 2 minor repairs needed and were address promptly.  All the staff was great, friendly and accomodating.  This being the first time I have ever stayed in a hotel for an extended amount of time I found this one enjoyable, I searched on Tripadvisor for 5 months and loved the reviews for this one.  They proved to be quite accurate and I'm glad I stayed!  Overnight or extended a perfect hotel.  The neighborhood is a bit sketchy, but I had no problems and security around the hotel(s) in the area patrol at night on a golf cart, and the distance to find more approved surroundings is not far.  I would suggest anyone needing to stay near LAX book here! (65/night for 15 and more night stays) *only thing it needs is a pool*MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>HIELAXHB, Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded June 15, 2011</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2011</t>
+  </si>
+  <si>
+    <t>Me and my partner stayed at this hotel for 16 nights, we were in town for a wedding and sightseeing.  Our room was clean, updated, the air conditioner worked great as well.  We used extended stay and our room came with a 2 burner glasstop stove, a full sized refrigerator, plenty of cupboard space and a dishwasher.  The TV was a large flatscreen with a DVD player (and use of a free if slightly outdated lending library).  Our bed was comfy and the pillows soft.  Extended stay gets housekeeping once a week and you can get new towels/sheets anytime you wish.  Gym facilities, laundry, wifi and parking (gated and covered) all free which I found a major bonus.  A business center with accessable printer as well.  I even bought stamps and mailed postcards and the front desk.  We had 2 minor repairs needed and were address promptly.  All the staff was great, friendly and accomodating.  This being the first time I have ever stayed in a hotel for an extended amount of time I found this one enjoyable, I searched on Tripadvisor for 5 months and loved the reviews for this one.  They proved to be quite accurate and I'm glad I stayed!  Overnight or extended a perfect hotel.  The neighborhood is a bit sketchy, but I had no problems and security around the hotel(s) in the area patrol at night on a golf cart, and the distance to find...Me and my partner stayed at this hotel for 16 nights, we were in town for a wedding and sightseeing.  Our room was clean, updated, the air conditioner worked great as well.  We used extended stay and our room came with a 2 burner glasstop stove, a full sized refrigerator, plenty of cupboard space and a dishwasher.  The TV was a large flatscreen with a DVD player (and use of a free if slightly outdated lending library).  Our bed was comfy and the pillows soft.  Extended stay gets housekeeping once a week and you can get new towels/sheets anytime you wish.  Gym facilities, laundry, wifi and parking (gated and covered) all free which I found a major bonus.  A business center with accessable printer as well.  I even bought stamps and mailed postcards and the front desk.  We had 2 minor repairs needed and were address promptly.  All the staff was great, friendly and accomodating.  This being the first time I have ever stayed in a hotel for an extended amount of time I found this one enjoyable, I searched on Tripadvisor for 5 months and loved the reviews for this one.  They proved to be quite accurate and I'm glad I stayed!  Overnight or extended a perfect hotel.  The neighborhood is a bit sketchy, but I had no problems and security around the hotel(s) in the area patrol at night on a golf cart, and the distance to find more approved surroundings is not far.  I would suggest anyone needing to stay near LAX book here! (65/night for 15 and more night stays) *only thing it needs is a pool*More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r110627090-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>110627090</t>
+  </si>
+  <si>
+    <t>05/30/2011</t>
+  </si>
+  <si>
+    <t>Better than expected!</t>
+  </si>
+  <si>
+    <t>My husband and I were flying out of LAX early.  We wanted to stay the night before and leave our car parked at the hotel while we were on vacation.  We arrived at the hotel arount 10pm and the desk clerk was very nice.  He had everything ready for us and explained where to park our car (in a locked, gated, covered parking garage).  He arranged for a time to meet with the shuttle that took us to the airport.  We were pleasantly surprised when we got to the room and it was very nice and clean! It was equiped with a kitchen (which we didn't need, but might be nice for more than overnight) desk, dvd player and a comfortable bed.  The shuttle was on time and got us to the airport in plenty of time.  They explained how to get the shuttle back to the car when we returned from our trip.  This was also very easy, just call when we got our baggage and wait at the red shuttle stop.  Got back to our car and left.  We will definitely us this hotel the next time we leave from LAX!MoreShow less</t>
+  </si>
+  <si>
+    <t>HIELAXHB, Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded June 3, 2011</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2011</t>
+  </si>
+  <si>
+    <t>My husband and I were flying out of LAX early.  We wanted to stay the night before and leave our car parked at the hotel while we were on vacation.  We arrived at the hotel arount 10pm and the desk clerk was very nice.  He had everything ready for us and explained where to park our car (in a locked, gated, covered parking garage).  He arranged for a time to meet with the shuttle that took us to the airport.  We were pleasantly surprised when we got to the room and it was very nice and clean! It was equiped with a kitchen (which we didn't need, but might be nice for more than overnight) desk, dvd player and a comfortable bed.  The shuttle was on time and got us to the airport in plenty of time.  They explained how to get the shuttle back to the car when we returned from our trip.  This was also very easy, just call when we got our baggage and wait at the red shuttle stop.  Got back to our car and left.  We will definitely us this hotel the next time we leave from LAX!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r110347507-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>110347507</t>
+  </si>
+  <si>
+    <t>05/29/2011</t>
+  </si>
+  <si>
+    <t>Awesome staff....nice hotel</t>
+  </si>
+  <si>
+    <t>This hotel has clean, beautiful and comfortable rooms.  I stay often for business.  The staff is very friendly and willing to help out.   There is not much up front parking but there is a covered, gated secure parking area that is a minimal walk.  The beds are comfortable and nice. If you are looking for a great place to stay with awesome staff check out this Candlewood you will not be disappointed...MoreShow less</t>
+  </si>
+  <si>
+    <t>HIELAXHB, Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded May 31, 2011</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2011</t>
+  </si>
+  <si>
+    <t>This hotel has clean, beautiful and comfortable rooms.  I stay often for business.  The staff is very friendly and willing to help out.   There is not much up front parking but there is a covered, gated secure parking area that is a minimal walk.  The beds are comfortable and nice. If you are looking for a great place to stay with awesome staff check out this Candlewood you will not be disappointed...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r103427408-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>103427408</t>
+  </si>
+  <si>
+    <t>04/09/2011</t>
+  </si>
+  <si>
+    <t>Excellent Stay.... but</t>
+  </si>
+  <si>
+    <t>This is the 2nd trip to Hawthorne, with the 1st being January/2010 when I stayed at the Hawthorne Holiday Inn.  In noting the visible change in the neighborhood that the Holiday Inn and the Candlewood Suites are situated, I'd suggest that security may become an issue.  During the most recent visit, I walked Hawthorne Blvd. twice to either the Roby's grocery store, or to SubWay.  Both times were in the early evening hours.  Both times I noticed youth activity that made me feel uneasy.  On the way to SubWay I was approached by a young woman who asked "Is there anything I can do for you tonight?"  I know that LA is changing; maybe Candlewood Suites, the Holiday Inn, and the Comfort Inn should consider either moving, or giving guests a sense of ease by the visible presence of security staff in the front drive and street entrance.I travel alot, and this is the first time I felt led to respond regarding this topic.  Even though the Candlewood Suites was everything I expected (and more), I'll think twice about staying in that neighborhood the next time I'm in LA.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>HIELAXHB, Manager at Candlewood Suites Lax Hawthorne, responded to this reviewResponded May 13, 2011</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2011</t>
+  </si>
+  <si>
+    <t>This is the 2nd trip to Hawthorne, with the 1st being January/2010 when I stayed at the Hawthorne Holiday Inn.  In noting the visible change in the neighborhood that the Holiday Inn and the Candlewood Suites are situated, I'd suggest that security may become an issue.  During the most recent visit, I walked Hawthorne Blvd. twice to either the Roby's grocery store, or to SubWay.  Both times were in the early evening hours.  Both times I noticed youth activity that made me feel uneasy.  On the way to SubWay I was approached by a young woman who asked "Is there anything I can do for you tonight?"  I know that LA is changing; maybe Candlewood Suites, the Holiday Inn, and the Comfort Inn should consider either moving, or giving guests a sense of ease by the visible presence of security staff in the front drive and street entrance.I travel alot, and this is the first time I felt led to respond regarding this topic.  Even though the Candlewood Suites was everything I expected (and more), I'll think twice about staying in that neighborhood the next time I'm in LA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r99781735-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>99781735</t>
+  </si>
+  <si>
+    <t>03/11/2011</t>
+  </si>
+  <si>
+    <t>great stay as long as you're not near the elevator.</t>
+  </si>
+  <si>
+    <t>the staff was friendly,  the rooms were nice, only one complaint: do not stay in an odd numbered room on the first floor, your only view will be a concrete wall about seven foot high! other than that, my month long stay was very pleasant. would stay again for sure!</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r94546855-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>94546855</t>
+  </si>
+  <si>
+    <t>01/26/2011</t>
+  </si>
+  <si>
+    <t>surprisingly nice hotel!</t>
+  </si>
+  <si>
+    <t>stayed a week at this hotel, would def had stayed longer if possible. really nice, clean and new rooms. had kind of a big kitchen in the room, also new and clean. there are free laundry service, free wifi, free gym and safe free parking in a garage. good spot to explore the city from since you need a car anyway and its easy to get on the freeway.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r86112846-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>86112846</t>
+  </si>
+  <si>
+    <t>11/05/2010</t>
+  </si>
+  <si>
+    <t>The BEST HOTEL IN THE LAX AREA</t>
+  </si>
+  <si>
+    <t>i  stay at a lot of hotels close to the lax area due to business commitments and i was recommended by a business associate to stay at this property and i think candlewood suites LAX has to be one of the best hotels i have stayed at. The staff is very friendly and responsive to all my needs. The rooms are very nice and clean  the property is new the location is great  close to LAX what i also liked was free WIFI and free parking and free laundry can you believe that with $59 rate....I am already looking forward to my stay next month</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r84985586-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>84985586</t>
+  </si>
+  <si>
+    <t>10/26/2010</t>
+  </si>
+  <si>
+    <t>Value for Money!!</t>
+  </si>
+  <si>
+    <t>Having worked in hotels for the past 10 years, I think this hotel is wonderful! The staff are fantastic and friendly (we were acknowledge every time we walked past Reception). Their washing machines and dryers are free to use, free gym, free internet, free car parking, there was a general store at Reception and free hire of movies and the rooms are new (refurbished 2010), lovely and clean and even allow you to cook your own meals if you wish.  I met a few of the other guests while doing my washing and everyone was so happy and impressed with Candlewood Suites Hawthorne!! The hotel is located close to the airport and has easy access to the freeways to access the theme parks and Hollywood. I think it took us approximately 40 minutes to Disneyland and about 40 minutes to Universal Studios (both a must do). There is a McDonalds across the road and a grocery store within 5 minutes drive. I couldn't believe how reasonable priced the rooms are and how good everything was. I was worried about the lack of Trip Advisor comments but the hotel has only just opened this year after its refurbishment!! I highly recommend this hotel and will stay here next time when in LA.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>Having worked in hotels for the past 10 years, I think this hotel is wonderful! The staff are fantastic and friendly (we were acknowledge every time we walked past Reception). Their washing machines and dryers are free to use, free gym, free internet, free car parking, there was a general store at Reception and free hire of movies and the rooms are new (refurbished 2010), lovely and clean and even allow you to cook your own meals if you wish.  I met a few of the other guests while doing my washing and everyone was so happy and impressed with Candlewood Suites Hawthorne!! The hotel is located close to the airport and has easy access to the freeways to access the theme parks and Hollywood. I think it took us approximately 40 minutes to Disneyland and about 40 minutes to Universal Studios (both a must do). There is a McDonalds across the road and a grocery store within 5 minutes drive. I couldn't believe how reasonable priced the rooms are and how good everything was. I was worried about the lack of Trip Advisor comments but the hotel has only just opened this year after its refurbishment!! I highly recommend this hotel and will stay here next time when in LA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r81142989-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>81142989</t>
+  </si>
+  <si>
+    <t>09/26/2010</t>
+  </si>
+  <si>
+    <t>I will be back</t>
+  </si>
+  <si>
+    <t>Absolutely nothing wrong with this hotel. New, clean. Not downtown LA, but transit very close by, and if driving, location not an issue. Local neighborhood has seen better days but looks like its back on the way up. Staff are wonderful, very helpful and friendly. Grocery down the street, tons of restaurants in the area, shopping close by. Can you beat the price? I don't think so. Full Kitchen, free internet, free parking, LAX shuttle. A sure winner all around.</t>
+  </si>
+  <si>
+    <t>September 2010</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2675,5212 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" t="s">
+        <v>107</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>116</v>
+      </c>
+      <c r="O9" t="s">
+        <v>117</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>118</v>
+      </c>
+      <c r="X9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>116</v>
+      </c>
+      <c r="O10" t="s">
+        <v>117</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>126</v>
+      </c>
+      <c r="X10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>135</v>
+      </c>
+      <c r="X11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>134</v>
+      </c>
+      <c r="O12" t="s">
+        <v>117</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>143</v>
+      </c>
+      <c r="X12" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" t="s">
+        <v>149</v>
+      </c>
+      <c r="L13" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>151</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>152</v>
+      </c>
+      <c r="X13" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" t="s">
+        <v>157</v>
+      </c>
+      <c r="K14" t="s">
+        <v>158</v>
+      </c>
+      <c r="L14" t="s">
+        <v>159</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>160</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>161</v>
+      </c>
+      <c r="X14" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>165</v>
+      </c>
+      <c r="J15" t="s">
+        <v>166</v>
+      </c>
+      <c r="K15" t="s">
+        <v>167</v>
+      </c>
+      <c r="L15" t="s">
+        <v>168</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>169</v>
+      </c>
+      <c r="O15" t="s">
+        <v>81</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>170</v>
+      </c>
+      <c r="X15" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>174</v>
+      </c>
+      <c r="J16" t="s">
+        <v>175</v>
+      </c>
+      <c r="K16" t="s">
+        <v>176</v>
+      </c>
+      <c r="L16" t="s">
+        <v>177</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>178</v>
+      </c>
+      <c r="O16" t="s">
+        <v>117</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>179</v>
+      </c>
+      <c r="X16" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>183</v>
+      </c>
+      <c r="J17" t="s">
+        <v>184</v>
+      </c>
+      <c r="K17" t="s">
+        <v>185</v>
+      </c>
+      <c r="L17" t="s">
+        <v>186</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>178</v>
+      </c>
+      <c r="O17" t="s">
+        <v>117</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>187</v>
+      </c>
+      <c r="X17" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>190</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>191</v>
+      </c>
+      <c r="J18" t="s">
+        <v>192</v>
+      </c>
+      <c r="K18" t="s">
+        <v>193</v>
+      </c>
+      <c r="L18" t="s">
+        <v>194</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>178</v>
+      </c>
+      <c r="O18" t="s">
+        <v>117</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>187</v>
+      </c>
+      <c r="X18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>196</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>197</v>
+      </c>
+      <c r="J19" t="s">
+        <v>192</v>
+      </c>
+      <c r="K19" t="s">
+        <v>198</v>
+      </c>
+      <c r="L19" t="s">
+        <v>199</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>178</v>
+      </c>
+      <c r="O19" t="s">
+        <v>81</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>187</v>
+      </c>
+      <c r="X19" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>202</v>
+      </c>
+      <c r="J20" t="s">
+        <v>203</v>
+      </c>
+      <c r="K20" t="s">
+        <v>204</v>
+      </c>
+      <c r="L20" t="s">
+        <v>205</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>206</v>
+      </c>
+      <c r="O20" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>207</v>
+      </c>
+      <c r="X20" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>211</v>
+      </c>
+      <c r="J21" t="s">
+        <v>212</v>
+      </c>
+      <c r="K21" t="s">
+        <v>213</v>
+      </c>
+      <c r="L21" t="s">
+        <v>214</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>215</v>
+      </c>
+      <c r="O21" t="s">
+        <v>81</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>216</v>
+      </c>
+      <c r="X21" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>220</v>
+      </c>
+      <c r="J22" t="s">
+        <v>221</v>
+      </c>
+      <c r="K22" t="s">
+        <v>222</v>
+      </c>
+      <c r="L22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>215</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>224</v>
+      </c>
+      <c r="X22" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>227</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>228</v>
+      </c>
+      <c r="J23" t="s">
+        <v>229</v>
+      </c>
+      <c r="K23" t="s">
+        <v>230</v>
+      </c>
+      <c r="L23" t="s">
+        <v>231</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>232</v>
+      </c>
+      <c r="O23" t="s">
+        <v>107</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>233</v>
+      </c>
+      <c r="X23" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>236</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>237</v>
+      </c>
+      <c r="J24" t="s">
+        <v>238</v>
+      </c>
+      <c r="K24" t="s">
+        <v>239</v>
+      </c>
+      <c r="L24" t="s">
+        <v>240</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>241</v>
+      </c>
+      <c r="O24" t="s">
+        <v>117</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>242</v>
+      </c>
+      <c r="X24" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>245</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>246</v>
+      </c>
+      <c r="J25" t="s">
+        <v>247</v>
+      </c>
+      <c r="K25" t="s">
+        <v>248</v>
+      </c>
+      <c r="L25" t="s">
+        <v>249</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>250</v>
+      </c>
+      <c r="O25" t="s">
+        <v>117</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>251</v>
+      </c>
+      <c r="X25" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>255</v>
+      </c>
+      <c r="J26" t="s">
+        <v>256</v>
+      </c>
+      <c r="K26" t="s">
+        <v>257</v>
+      </c>
+      <c r="L26" t="s">
+        <v>258</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>259</v>
+      </c>
+      <c r="O26" t="s">
+        <v>260</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>261</v>
+      </c>
+      <c r="X26" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>264</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>265</v>
+      </c>
+      <c r="J27" t="s">
+        <v>266</v>
+      </c>
+      <c r="K27" t="s">
+        <v>267</v>
+      </c>
+      <c r="L27" t="s">
+        <v>268</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>269</v>
+      </c>
+      <c r="O27" t="s">
+        <v>260</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>261</v>
+      </c>
+      <c r="X27" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>271</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>272</v>
+      </c>
+      <c r="J28" t="s">
+        <v>273</v>
+      </c>
+      <c r="K28" t="s">
+        <v>274</v>
+      </c>
+      <c r="L28" t="s">
+        <v>275</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>276</v>
+      </c>
+      <c r="O28" t="s">
+        <v>117</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>277</v>
+      </c>
+      <c r="X28" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>280</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>281</v>
+      </c>
+      <c r="J29" t="s">
+        <v>282</v>
+      </c>
+      <c r="K29" t="s">
+        <v>283</v>
+      </c>
+      <c r="L29" t="s">
+        <v>284</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>285</v>
+      </c>
+      <c r="O29" t="s">
+        <v>107</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>286</v>
+      </c>
+      <c r="X29" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>289</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>290</v>
+      </c>
+      <c r="J30" t="s">
+        <v>291</v>
+      </c>
+      <c r="K30" t="s">
+        <v>292</v>
+      </c>
+      <c r="L30" t="s">
+        <v>293</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>294</v>
+      </c>
+      <c r="O30" t="s">
+        <v>117</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>286</v>
+      </c>
+      <c r="X30" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>296</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>297</v>
+      </c>
+      <c r="J31" t="s">
+        <v>298</v>
+      </c>
+      <c r="K31" t="s">
+        <v>299</v>
+      </c>
+      <c r="L31" t="s">
+        <v>300</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>294</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>301</v>
+      </c>
+      <c r="X31" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>304</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>305</v>
+      </c>
+      <c r="J32" t="s">
+        <v>306</v>
+      </c>
+      <c r="K32" t="s">
+        <v>307</v>
+      </c>
+      <c r="L32" t="s">
+        <v>308</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>309</v>
+      </c>
+      <c r="O32" t="s">
+        <v>107</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>310</v>
+      </c>
+      <c r="X32" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>313</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>314</v>
+      </c>
+      <c r="J33" t="s">
+        <v>315</v>
+      </c>
+      <c r="K33" t="s">
+        <v>316</v>
+      </c>
+      <c r="L33" t="s">
+        <v>317</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>318</v>
+      </c>
+      <c r="X33" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>321</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>322</v>
+      </c>
+      <c r="J34" t="s">
+        <v>315</v>
+      </c>
+      <c r="K34" t="s">
+        <v>323</v>
+      </c>
+      <c r="L34" t="s">
+        <v>324</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>325</v>
+      </c>
+      <c r="O34" t="s">
+        <v>260</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>318</v>
+      </c>
+      <c r="X34" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>327</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>328</v>
+      </c>
+      <c r="J35" t="s">
+        <v>329</v>
+      </c>
+      <c r="K35" t="s">
+        <v>330</v>
+      </c>
+      <c r="L35" t="s">
+        <v>331</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>332</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>333</v>
+      </c>
+      <c r="X35" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>336</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>337</v>
+      </c>
+      <c r="J36" t="s">
+        <v>338</v>
+      </c>
+      <c r="K36" t="s">
+        <v>339</v>
+      </c>
+      <c r="L36" t="s">
+        <v>340</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>341</v>
+      </c>
+      <c r="O36" t="s">
+        <v>117</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>342</v>
+      </c>
+      <c r="X36" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>345</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>346</v>
+      </c>
+      <c r="J37" t="s">
+        <v>347</v>
+      </c>
+      <c r="K37" t="s">
+        <v>348</v>
+      </c>
+      <c r="L37" t="s">
+        <v>349</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>332</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>350</v>
+      </c>
+      <c r="X37" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>353</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>354</v>
+      </c>
+      <c r="J38" t="s">
+        <v>355</v>
+      </c>
+      <c r="K38" t="s">
+        <v>356</v>
+      </c>
+      <c r="L38" t="s">
+        <v>357</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>358</v>
+      </c>
+      <c r="O38" t="s">
+        <v>107</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>359</v>
+      </c>
+      <c r="X38" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>362</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>363</v>
+      </c>
+      <c r="J39" t="s">
+        <v>364</v>
+      </c>
+      <c r="K39" t="s">
+        <v>365</v>
+      </c>
+      <c r="L39" t="s">
+        <v>366</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>367</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>368</v>
+      </c>
+      <c r="X39" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>371</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>372</v>
+      </c>
+      <c r="J40" t="s">
+        <v>373</v>
+      </c>
+      <c r="K40" t="s">
+        <v>374</v>
+      </c>
+      <c r="L40" t="s">
+        <v>375</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>376</v>
+      </c>
+      <c r="O40" t="s">
+        <v>260</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>377</v>
+      </c>
+      <c r="X40" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>380</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>381</v>
+      </c>
+      <c r="J41" t="s">
+        <v>382</v>
+      </c>
+      <c r="K41" t="s">
+        <v>383</v>
+      </c>
+      <c r="L41" t="s">
+        <v>384</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>385</v>
+      </c>
+      <c r="O41" t="s">
+        <v>81</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>386</v>
+      </c>
+      <c r="X41" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>389</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>390</v>
+      </c>
+      <c r="J42" t="s">
+        <v>391</v>
+      </c>
+      <c r="K42" t="s">
+        <v>392</v>
+      </c>
+      <c r="L42" t="s">
+        <v>393</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>394</v>
+      </c>
+      <c r="O42" t="s">
+        <v>81</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>386</v>
+      </c>
+      <c r="X42" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>396</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>397</v>
+      </c>
+      <c r="J43" t="s">
+        <v>398</v>
+      </c>
+      <c r="K43" t="s">
+        <v>399</v>
+      </c>
+      <c r="L43" t="s">
+        <v>400</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>394</v>
+      </c>
+      <c r="O43" t="s">
+        <v>81</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>402</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>403</v>
+      </c>
+      <c r="J44" t="s">
+        <v>404</v>
+      </c>
+      <c r="K44" t="s">
+        <v>405</v>
+      </c>
+      <c r="L44" t="s">
+        <v>406</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>407</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>408</v>
+      </c>
+      <c r="X44" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>411</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>412</v>
+      </c>
+      <c r="J45" t="s">
+        <v>413</v>
+      </c>
+      <c r="K45" t="s">
+        <v>414</v>
+      </c>
+      <c r="L45" t="s">
+        <v>415</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>407</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>416</v>
+      </c>
+      <c r="X45" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>419</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>420</v>
+      </c>
+      <c r="J46" t="s">
+        <v>421</v>
+      </c>
+      <c r="K46" t="s">
+        <v>422</v>
+      </c>
+      <c r="L46" t="s">
+        <v>423</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>424</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>425</v>
+      </c>
+      <c r="X46" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>428</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>429</v>
+      </c>
+      <c r="J47" t="s">
+        <v>430</v>
+      </c>
+      <c r="K47" t="s">
+        <v>431</v>
+      </c>
+      <c r="L47" t="s">
+        <v>432</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>424</v>
+      </c>
+      <c r="O47" t="s">
+        <v>117</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>433</v>
+      </c>
+      <c r="X47" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>436</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>437</v>
+      </c>
+      <c r="J48" t="s">
+        <v>438</v>
+      </c>
+      <c r="K48" t="s">
+        <v>439</v>
+      </c>
+      <c r="L48" t="s">
+        <v>440</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>441</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>442</v>
+      </c>
+      <c r="X48" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>445</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>446</v>
+      </c>
+      <c r="J49" t="s">
+        <v>447</v>
+      </c>
+      <c r="K49" t="s">
+        <v>448</v>
+      </c>
+      <c r="L49" t="s">
+        <v>449</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>450</v>
+      </c>
+      <c r="O49" t="s">
+        <v>81</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>451</v>
+      </c>
+      <c r="X49" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>454</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>455</v>
+      </c>
+      <c r="J50" t="s">
+        <v>456</v>
+      </c>
+      <c r="K50" t="s">
+        <v>457</v>
+      </c>
+      <c r="L50" t="s">
+        <v>458</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>385</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>459</v>
+      </c>
+      <c r="X50" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>462</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>463</v>
+      </c>
+      <c r="J51" t="s">
+        <v>464</v>
+      </c>
+      <c r="K51" t="s">
+        <v>465</v>
+      </c>
+      <c r="L51" t="s">
+        <v>466</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>467</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>468</v>
+      </c>
+      <c r="X51" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>471</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>472</v>
+      </c>
+      <c r="J52" t="s">
+        <v>473</v>
+      </c>
+      <c r="K52" t="s">
+        <v>474</v>
+      </c>
+      <c r="L52" t="s">
+        <v>475</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>467</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>476</v>
+      </c>
+      <c r="X52" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>479</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>480</v>
+      </c>
+      <c r="J53" t="s">
+        <v>481</v>
+      </c>
+      <c r="K53" t="s">
+        <v>482</v>
+      </c>
+      <c r="L53" t="s">
+        <v>483</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>484</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>485</v>
+      </c>
+      <c r="X53" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>488</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>489</v>
+      </c>
+      <c r="J54" t="s">
+        <v>490</v>
+      </c>
+      <c r="K54" t="s">
+        <v>491</v>
+      </c>
+      <c r="L54" t="s">
+        <v>492</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>493</v>
+      </c>
+      <c r="O54" t="s">
+        <v>81</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>494</v>
+      </c>
+      <c r="X54" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>497</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>498</v>
+      </c>
+      <c r="J55" t="s">
+        <v>499</v>
+      </c>
+      <c r="K55" t="s">
+        <v>500</v>
+      </c>
+      <c r="L55" t="s">
+        <v>501</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>502</v>
+      </c>
+      <c r="X55" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>505</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>506</v>
+      </c>
+      <c r="J56" t="s">
+        <v>507</v>
+      </c>
+      <c r="K56" t="s">
+        <v>508</v>
+      </c>
+      <c r="L56" t="s">
+        <v>509</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>510</v>
+      </c>
+      <c r="X56" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>513</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>514</v>
+      </c>
+      <c r="J57" t="s">
+        <v>515</v>
+      </c>
+      <c r="K57" t="s">
+        <v>516</v>
+      </c>
+      <c r="L57" t="s">
+        <v>517</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>518</v>
+      </c>
+      <c r="X57" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>521</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>522</v>
+      </c>
+      <c r="J58" t="s">
+        <v>523</v>
+      </c>
+      <c r="K58" t="s">
+        <v>524</v>
+      </c>
+      <c r="L58" t="s">
+        <v>525</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>526</v>
+      </c>
+      <c r="X58" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>529</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>530</v>
+      </c>
+      <c r="J59" t="s">
+        <v>531</v>
+      </c>
+      <c r="K59" t="s">
+        <v>532</v>
+      </c>
+      <c r="L59" t="s">
+        <v>533</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>534</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>535</v>
+      </c>
+      <c r="X59" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>538</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>539</v>
+      </c>
+      <c r="J60" t="s">
+        <v>540</v>
+      </c>
+      <c r="K60" t="s">
+        <v>541</v>
+      </c>
+      <c r="L60" t="s">
+        <v>542</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>534</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>535</v>
+      </c>
+      <c r="X60" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>544</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>545</v>
+      </c>
+      <c r="J61" t="s">
+        <v>546</v>
+      </c>
+      <c r="K61" t="s">
+        <v>547</v>
+      </c>
+      <c r="L61" t="s">
+        <v>548</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>549</v>
+      </c>
+      <c r="O61" t="s">
+        <v>81</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>550</v>
+      </c>
+      <c r="X61" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>553</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>554</v>
+      </c>
+      <c r="J62" t="s">
+        <v>555</v>
+      </c>
+      <c r="K62" t="s">
+        <v>556</v>
+      </c>
+      <c r="L62" t="s">
+        <v>557</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>534</v>
+      </c>
+      <c r="O62" t="s">
+        <v>117</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>558</v>
+      </c>
+      <c r="X62" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>561</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>562</v>
+      </c>
+      <c r="J63" t="s">
+        <v>563</v>
+      </c>
+      <c r="K63" t="s">
+        <v>564</v>
+      </c>
+      <c r="L63" t="s">
+        <v>565</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>566</v>
+      </c>
+      <c r="O63" t="s">
+        <v>117</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>567</v>
+      </c>
+      <c r="X63" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>570</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>571</v>
+      </c>
+      <c r="J64" t="s">
+        <v>572</v>
+      </c>
+      <c r="K64" t="s">
+        <v>573</v>
+      </c>
+      <c r="L64" t="s">
+        <v>574</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>575</v>
+      </c>
+      <c r="O64" t="s">
+        <v>117</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>576</v>
+      </c>
+      <c r="X64" t="s">
+        <v>577</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>579</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>580</v>
+      </c>
+      <c r="J65" t="s">
+        <v>581</v>
+      </c>
+      <c r="K65" t="s">
+        <v>582</v>
+      </c>
+      <c r="L65" t="s">
+        <v>583</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>584</v>
+      </c>
+      <c r="O65" t="s">
+        <v>81</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>585</v>
+      </c>
+      <c r="X65" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>588</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>589</v>
+      </c>
+      <c r="J66" t="s">
+        <v>590</v>
+      </c>
+      <c r="K66" t="s">
+        <v>591</v>
+      </c>
+      <c r="L66" t="s">
+        <v>592</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>575</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>593</v>
+      </c>
+      <c r="X66" t="s">
+        <v>594</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>596</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>597</v>
+      </c>
+      <c r="J67" t="s">
+        <v>598</v>
+      </c>
+      <c r="K67" t="s">
+        <v>599</v>
+      </c>
+      <c r="L67" t="s">
+        <v>600</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>584</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>601</v>
+      </c>
+      <c r="X67" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>604</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>605</v>
+      </c>
+      <c r="J68" t="s">
+        <v>606</v>
+      </c>
+      <c r="K68" t="s">
+        <v>607</v>
+      </c>
+      <c r="L68" t="s">
+        <v>608</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>609</v>
+      </c>
+      <c r="O68" t="s">
+        <v>81</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>610</v>
+      </c>
+      <c r="X68" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>613</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>614</v>
+      </c>
+      <c r="J69" t="s">
+        <v>615</v>
+      </c>
+      <c r="K69" t="s">
+        <v>616</v>
+      </c>
+      <c r="L69" t="s">
+        <v>617</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>609</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>610</v>
+      </c>
+      <c r="X69" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>619</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>620</v>
+      </c>
+      <c r="J70" t="s">
+        <v>621</v>
+      </c>
+      <c r="K70" t="s">
+        <v>622</v>
+      </c>
+      <c r="L70" t="s">
+        <v>623</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>624</v>
+      </c>
+      <c r="O70" t="s">
+        <v>81</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>625</v>
+      </c>
+      <c r="X70" t="s">
+        <v>626</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>628</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>629</v>
+      </c>
+      <c r="J71" t="s">
+        <v>630</v>
+      </c>
+      <c r="K71" t="s">
+        <v>631</v>
+      </c>
+      <c r="L71" t="s">
+        <v>632</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>633</v>
+      </c>
+      <c r="O71" t="s">
+        <v>81</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>634</v>
+      </c>
+      <c r="X71" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>637</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>638</v>
+      </c>
+      <c r="J72" t="s">
+        <v>639</v>
+      </c>
+      <c r="K72" t="s">
+        <v>640</v>
+      </c>
+      <c r="L72" t="s">
+        <v>641</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>633</v>
+      </c>
+      <c r="O72" t="s">
+        <v>81</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>642</v>
+      </c>
+      <c r="X72" t="s">
+        <v>643</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>645</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>646</v>
+      </c>
+      <c r="J73" t="s">
+        <v>647</v>
+      </c>
+      <c r="K73" t="s">
+        <v>648</v>
+      </c>
+      <c r="L73" t="s">
+        <v>649</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>633</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>650</v>
+      </c>
+      <c r="X73" t="s">
+        <v>651</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>653</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>654</v>
+      </c>
+      <c r="J74" t="s">
+        <v>655</v>
+      </c>
+      <c r="K74" t="s">
+        <v>656</v>
+      </c>
+      <c r="L74" t="s">
+        <v>657</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>658</v>
+      </c>
+      <c r="O74" t="s">
+        <v>107</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>659</v>
+      </c>
+      <c r="X74" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>662</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>663</v>
+      </c>
+      <c r="J75" t="s">
+        <v>664</v>
+      </c>
+      <c r="K75" t="s">
+        <v>665</v>
+      </c>
+      <c r="L75" t="s">
+        <v>666</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>667</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>668</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>669</v>
+      </c>
+      <c r="J76" t="s">
+        <v>670</v>
+      </c>
+      <c r="K76" t="s">
+        <v>671</v>
+      </c>
+      <c r="L76" t="s">
+        <v>672</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>673</v>
+      </c>
+      <c r="O76" t="s">
+        <v>260</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>674</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>675</v>
+      </c>
+      <c r="J77" t="s">
+        <v>676</v>
+      </c>
+      <c r="K77" t="s">
+        <v>677</v>
+      </c>
+      <c r="L77" t="s">
+        <v>678</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>679</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>680</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>681</v>
+      </c>
+      <c r="J78" t="s">
+        <v>682</v>
+      </c>
+      <c r="K78" t="s">
+        <v>683</v>
+      </c>
+      <c r="L78" t="s">
+        <v>684</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>685</v>
+      </c>
+      <c r="O78" t="s">
+        <v>81</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>58405</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>687</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>688</v>
+      </c>
+      <c r="J79" t="s">
+        <v>689</v>
+      </c>
+      <c r="K79" t="s">
+        <v>690</v>
+      </c>
+      <c r="L79" t="s">
+        <v>691</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>692</v>
+      </c>
+      <c r="O79" t="s">
+        <v>107</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>691</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_98.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_98.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="770">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>makeupdemasi</t>
+  </si>
+  <si>
     <t>06/29/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>I have spent the last 4 yrs on and off staying at this location for work.The staff is wounderful, the property is clean and well taken care of. I felt safe and secure.Inessa the manager is fabulous and took care of any of my concerns.I recomend this property to everyone.More</t>
   </si>
   <si>
+    <t>anxious2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r578757732-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>I  had a view of Dumpsters outside my room, up close, and the hall carpet was stained, but  Receptionist  was helpful (directed me to Evolution, a really great vegetarian restaurant nearby), the room was immaculately clean, there is a 'fridge, microwave, dish washer, a little gym, video rentals.  Parking is free, and the bed was extremely comfortable. You can buy oatmeal and popcorn, fruit and soup, and coffee/tea are free. It's long term stay really, so they clean 1x week unless you ask.More</t>
   </si>
   <si>
+    <t>Eulalia_3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r572297369-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>I have stayed at this property in the past.It is a short drive to LAX.  It also is not on the "LAX Century drive strip" of hotels so it's often cheaper in price.Don't let the area fool you .... 10 years ago, I would have been more leery, but this part of Hawthorne is changing.  The area is much safer and cleaner than it used to be.  This property shares a (security code) parking garage with the Holiday Inn Express, and Hampton Inn.The grounds are clean and the staff are friendly.Maria at the desk went above and beyond.The rooms are spacious .... lots of amenities.The only "con" was a perfumy smell in the room.(No smell is good smell ... my nose was stuffed up for a bit and then got used to it.)There is a room with washer/dryer and adequate exercise room.I would definitely stay here again!: -)More</t>
   </si>
   <si>
+    <t>Ontour4444</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r557727817-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -273,6 +285,9 @@
     <t>Waited one half hour for the Shuttle from the airport. Called the hotel when we were outside and asked the desk person where to go for the shuttle and was told to ask someone at the airport. Carpet in halls dirty. Carpet in room around the edges full of dust. Use a towel to wipe my back after a shower and it ripped. No restaurant close except fast food and then we were accosted for money and food. Stay somewhere else. Not worth the slightly lower price. More</t>
   </si>
   <si>
+    <t>Scruffy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r553051019-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -295,6 +310,9 @@
   </si>
   <si>
     <t>We as a family come as one or as a couple. Whenever we come to LA, we come to Candlewood at Hawthorne.The staff are helpful all the time and have that smile on their dial whenever they see anyone.Rooms are comfy and served weekly.Fresh towels are available downstairs at the desk whenever you wish.The likes of Maria makes this place tick.We’ll always come back here at anytime with no doubt.Only downfall that I might have concerns about, is that there is no storage for returning customers while traveling.Great work Candlewood suites at Hawthorne.A job well done.More</t>
+  </si>
+  <si>
+    <t>Emerald1125</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r543655984-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
@@ -379,6 +397,9 @@
 Not...This Candlewood location has four floors andtwo elevators; both elevators were modern andfast.  The suites are roomy, and have twolighting levels: the conventional table lampsand bright ceiling lights.  It is nice to stayin a hotel room that does not feel like beingin a cave.  The bathroom lighting was also good.For some reason the hotel put me in a handicappedroom, which means the room was next to the elevator,which directly contradicts my IHG preferences.Also, the shower was cumbersome for a non-handicappedperson to use.The desk clerk on duty during the graveyard shiftwas rude, arrogant, and condescending.  I tried totalk to him about getting a late check-out but heacted like he did not want to talk to me.Also, I specifically asked him if the late check-outinfo would be given to the maids, and he said yes;but in the morning the maids came banging on thedoor at regular check-out time wanting to know whyI was not out yet.This location is unique in that it has a parkinggarage that provides secure, covered parking;I really like this arrangement.  This hotel iseasy to find, has easy access to the freeway, andis a short drive from LAX.  The side facing thestreet can be noisy.Internet at this hotel is terrible.  Both wired andWi-Fi are slow, and there are frequent disconnects.Not being able to get any work done online, I triedto watch TV, but the channel guide was of marginalvalue, and when I tried to manually scroll throughthe channels, there were many that only had staticor audio that was scratchy or pictures that keptpixelating or losing sync.More</t>
   </si>
   <si>
+    <t>EliteTraveler4Life</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r530588435-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -409,6 +430,9 @@
     <t>I chose this hotel primarily because they did not charge extra fees for parking. I booked a studio suite with a queen bed and it was very comfortable. I used the free laundry facilities and to wash and dry my clothes at the end of my stay. The staff was friendly and helpful. I did not spend a lot of time at the hotel. This was my first visit to L.A. I was only there to take a shower and get some sleep. I would definitely stay again.More</t>
   </si>
   <si>
+    <t>Warren C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r510049645-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -439,6 +463,9 @@
     <t>Easy check-in and nice personnel.Room configured as two double beds, and nice.  Except for the padded chair which had several rips and worn spots.Carpet could use a cleaning, but everything was clean.There is a fridge, microwave and kitchen plates, bowls etc. available.  All working and clean.The area around the hotel has several fast food restaurants close by.  However, the area does have several homeless wandering street.  And when I asked at the front desk if it good to walk in the area, they suggested driving might be a better choice.But we never felt insecure.  And there are people monitoring the parking garage area and has a key entry for the garage.  I felt very safe, but I do understand the caution.More</t>
   </si>
   <si>
+    <t>cruizee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r507225714-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -463,6 +490,9 @@
     <t>We used the Candlewood Suites Hawthorne as the IHG alternative hotel closer to the airport was fully booked. The free shuttle eventually came and we arrived at the Suites in Hawthorne mid evening, approximately 4 miles from LAX airport. The area did not feel particularly safe at night with people sitting on the footpath and corner outside the hotel and adjacent to McDonalds across the road. The hotel itself looks pleasant from the outside, however on entering, the lobby is plain and the corridors are reminiscent of a rest home or hospital. The male on reception was very matter of fact and not particularly welcoming, simply stating 'NAME' when we approached the desk. Our room was clean but hot when we arrived, the air con had not been activated ahead of our arrival. The beds were comfortable, however the level of noise from the elevator on the adjacent wall made it impossible to get an undisturbed sleep throughout the night, which was a real problem after a long international flight.  We asked to be moved but the short reply was there were no other rooms available. The air conditioning unit is also noisy when on cool. We would not choose to stay at Candlewood again simply for the reason there was no genuine effort made to resolve our issue, or warn us ahead our room was going to be where it was. The reception lady the following morning was very...We used the Candlewood Suites Hawthorne as the IHG alternative hotel closer to the airport was fully booked. The free shuttle eventually came and we arrived at the Suites in Hawthorne mid evening, approximately 4 miles from LAX airport. The area did not feel particularly safe at night with people sitting on the footpath and corner outside the hotel and adjacent to McDonalds across the road. The hotel itself looks pleasant from the outside, however on entering, the lobby is plain and the corridors are reminiscent of a rest home or hospital. The male on reception was very matter of fact and not particularly welcoming, simply stating 'NAME' when we approached the desk. Our room was clean but hot when we arrived, the air con had not been activated ahead of our arrival. The beds were comfortable, however the level of noise from the elevator on the adjacent wall made it impossible to get an undisturbed sleep throughout the night, which was a real problem after a long international flight.  We asked to be moved but the short reply was there were no other rooms available. The air conditioning unit is also noisy when on cool. We would not choose to stay at Candlewood again simply for the reason there was no genuine effort made to resolve our issue, or warn us ahead our room was going to be where it was. The reception lady the following morning was very pleasant and sympathised with us, even acknowledging management should not use this particular room (118) for commercial purpose. Our advice - do not stay here.More</t>
   </si>
   <si>
+    <t>Alexis S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r479026946-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -490,6 +520,9 @@
     <t>I travel to LA often for work and I travel all over the place so finding a place that is close to a freeway, isn't that expensive and that doesn't charge you for parking might sound easy but it's actually my nightmare. This hotel was close to a freeway, had a mini kitchen and that's super convenient. They also didn't charge for parking, the garage is strange since it's shared by three hotels but it's actually pretty big and the spots aren't the smallest things you'll ever see. It's close to LAX but that's good for me since I tend to end up all over LA. It was also incredibly affordable. I will most definitely be returning. I'm pretty sure they have a shuttle to the airport. They have a laundry facility on site free of charge, you can borrow board games or cooking gadgets and they had this outdoor grilling area. I've stayed at 5 hotels in LA in the pst 3 weeks and have had horrible experiences and this one is actually awesome. I highly recommend it. The rooms are modern and clean and for Southern California they are huge.Big yes from me.More</t>
   </si>
   <si>
+    <t>auggiemctavish</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r477596117-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -514,6 +547,9 @@
     <t>You get what you pay for.  The room was in need of new carpets and there was a bad odor coming from the air conditioner.  Do not stay near the picnic area, people were there late at night making noise and the windows were not sound proof.  I would not stay here again unless there were no alternatives.More</t>
   </si>
   <si>
+    <t>johnny51958</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r476560123-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -541,6 +577,9 @@
     <t>Throughout my three decades of traveling, I have come to find out this was the best stay I've ever had. Thank you to all the staff for relaxing and enjoyable stay;  Mohamad, Shaz, Inessa, Maria, Sharron, Sally, Brian, Alejandro, all front desk, housekeeping and shuttle staff.  I would recommend this place 100%. Thank you all for making my stay so memorable. 10 stars to this property.More</t>
   </si>
   <si>
+    <t>JohninAnnapolis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r440979597-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -568,6 +607,9 @@
     <t>Great property and great comfort. Staff excellent, especially Raniesha at the front desk, who handled a tricky situation with aplomb. Well located near the (clogged) highways and close to LAX. Fully equipped kitchen makes for in-room food preparation. Stove, Microwave, no oven. Pots and pans, silverware and a dishwasher and full size fridge. Beds comfy. Local shuttle. Parking in locked garage next to property. McDonalds right across street and Dollar Store within one block. Taco Bell/KFC nearby also. Near SpaceX. TV great. Business Center great with two computers and a printer. Lobby has faux fireplace and is cozy. There is a cupboard to buy drinks and food--good selection. Gym great. Lockered items such as games, markers, tape and blenders are available free of charge. Washers and dryers were free to use. TV had most needed cable stations and HBO and NFL network. Bathtub in my room. I gave 5 stars but the property owner could make an improvement... behind the hotel--visible through all the back room windows, is a vacant lot used to store trash in two huge dumpsters that are overflowing with trash. I asked, and the lot is owned by the owner of the property, who should do something to mitigate the trashy eyesore visible to everyone with windows out the back of the hotel (Half of the rooms!) The curtains blocked the view just fine and otherwise, it was an excellent stay.More</t>
   </si>
   <si>
+    <t>Mary Jane D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r432143601-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -595,6 +637,9 @@
     <t>We stayed at the Candlewood Suites to be near the airport for an early flight the next day. It was an ideal location, only a short drive away. Although Hawthorne is not what you'd call a city center, the hotel has a Starbucks, McDonald's and gasoline right on the corner. The sights of L A are near enough to drive to such that you could spend you whole vacation there. The room is spacious and clean, the kitchen is well-equipped and the dishes kept clean enough to use. The staff are very helpful.More</t>
   </si>
   <si>
+    <t>ritamuh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r406254020-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -622,6 +667,9 @@
     <t>Came in from overseas and needed a quiet place.  Friendly, professional front desk staff.   Very quiet most of the time.  Though my room was on the side of the street that looked onto a busy highway, the solid windows kept out noise from the street until I actually opened the window.  Very clean and well-stocked, stainless steel kitchen with full size frig.  Spotless, free washer and dryer room which really came in handy.  Close to market, fast food restaurants, and small shopping center and very close to LAX.  Nice stay.  Will definitely recommend and stay here again in the future.More</t>
   </si>
   <si>
+    <t>Hotrod855</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r398452047-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -646,6 +694,9 @@
     <t>Stayed two nights, the last part of a road trip from Chicago to Los Angeles.Ample car parking in separate secure block next to hotel. Staff friendly and welcoming.Room (2 queens) large with the usual Kitchen area including a large fridge/freezer. Small TV with a reasonable selection of channels. Room was clean and tidy but looked a bit tired, beds creaky and could do with replacing. The only armchair was covered in splits, should have been replaced! Wi-Fi hit 2mbps if you were lucky with constant drop out, not helpful when doing the flight check in!Reasonable size bathroom but not enough counter top space, hooks or shelving.Lighting ok, extractor ok, water pressure ok, water temperature dangerously hot!Did not use the fitness room.Hotel is in a good location for airport but not so good for the tourist bits. Stayed in the Hampton next door last year, a much better choice.No eateries nearby. Avoid the Chili’s a few miles away. Food ok, service not up to scratch! Person at the door pointed to a distance empty table and told us to seat ourselves. Waitress hovered while we paid the bill watching to see what tip was given.More</t>
   </si>
   <si>
+    <t>ana g</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r397708631-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -664,6 +715,9 @@
     <t>people nice,dishwasher leaked and had no pool. to go anywhere it took hours not 30 min. won't stay there again. And only got maid service once. beach 30 min. away but took longer traffic was terrible. Not for a family vacation  only business.More</t>
   </si>
   <si>
+    <t>Andy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r397267835-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -679,6 +733,9 @@
     <t>Clean, friendly and quiet. If you need to stay in the area for more than a couple of days this would be a great choice. Rooms all have full-size fridges and cook tops and  an outdoor grilling area. For trips other than the airport you'll want to rent a car. Staff are excellent.  NO POOL - NO RESTAURANT.More</t>
   </si>
   <si>
+    <t>MissRRM23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r373941417-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -706,6 +763,9 @@
     <t>Had I done more research I probably would have stay here my entire trip. The laundry room was perfect and free! The staff was great.  I would have saved money by cooking instead of eating out at mediocre restaurants. Only negative is I wish the bed was less firm! I would stay here again. The location is questionable at times, but security was on hand. My rental was in a safe  coded parking garage.More</t>
   </si>
   <si>
+    <t>eloisersanchez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r371560779-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -733,6 +793,9 @@
     <t>In researching a hotel for a long-term stay because of medical treatment, we selected the Candlewoods Suites in Hawthorne, California which provided everything that families needed for comfort from begin away from home.  The amenities fit right into our budget, which allowed for free parking, free internet, free laundry, and staff that treated you like family.  The kitchenette which is equipped with a full-size fridge and a two-burner stovetop  made it possible to save on having to eat out everyday.  There was also a gym that was available for  you to run or lift weights anytime of the day.  But, along with all of this, is the excellent staff members that greeted as you leave the hotel and welcomed you back as you arrived.  They  accommodated all of our needs throughout our stay. This is probably one of the best hotels in Los Angeles!!More</t>
   </si>
   <si>
+    <t>Bonnie D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r369343419-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -757,6 +820,9 @@
     <t>I made a last minute reservation at Candlewood Suites. I'd never stayed with them before but I was looking forward to it.  I arrived and check-in was a breeze.  I discovered they have free garage parking which was a fabulous perk.  My room was a real suite... a full-kitchen, large bathroom with tub, work desk, recliner, queen bed and lots and lots of outlets for my electronics.  The hotel is on a busy corner but I had no problem with noise and I slept like a baby.  I can't wait to visit Candlewood Suites again.More</t>
   </si>
   <si>
+    <t>Michael N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r358320137-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -784,6 +850,9 @@
     <t>I book this hotel for one night.  I'm a flight attendant on call for the night and need a place to stay.  The price was great and the room was super clean.  The night van drive was professional and very helpful.  I arrive the was greeted by Alex at the front desk.  He was a very professional and very friendly.  He was a great help in tell a great place to eat and the area around the hotel.  The only problem I had was I got a Handicap room and I'm not Handicap.  But, the room was very nice and that was important to me.More</t>
   </si>
   <si>
+    <t>nancypecho</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r341784075-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -811,6 +880,9 @@
     <t>from the airport i went straight to the hotel . I was accommodated right away by two friendly and efficient staff namely Inessa and Maria even though the check in time is in the afternoon. its my first time to use this hotel and i was really delighted and contented when i saw the room. its clean, organize, complete with everything you need . kitchen, microwave,toaster,dish washer,induction cooker kitchen utensils pots etc.you name it they have it...if it is not in the room you can always ask the friendly staff. they even have a free laundry area...though they don't serve breakfast, they have free pastries every morning..coffee and tea are free 24/7.aside from this the hotel is near the train station and is accessible by bus that can take you to a nearby mall for shopping and to the nearest beach. Try Redondo Beach Pier. it is a place to walk, jog, eat, shop some souvenir and see the sunset.. i will definitely miss this place and will definitely go back on this place.. Thanks to the staff  especially to Inessa and Maria for the wonderful experience.More</t>
   </si>
   <si>
+    <t>Andejani</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r336600542-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -838,6 +910,9 @@
     <t>The hotel is good with all necessary accessories needed. The room's space is good and enough to put your stuff. The bed is enough for two. The hotel staff are friendly and the location is almost 6 minutes from the airport. They offer free and safe parking which is additional advantage. I guess the price of the room was also competitive compared to other hotels. There are so many Resturant around you which make it easy for you to get your needMore</t>
   </si>
   <si>
+    <t>TitelPisi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r297031392-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -868,6 +943,9 @@
     <t>People in the hotel, staff, are nice to work with but rooms are way too expensive for what they offer. We used it only to sleep overnight as we visited LA and surroundings throughout the day so I cannot pronounce about laundry and fitness room that I have seen being used. It is clean inside and outside. Has a BBQ area where you can enjoy just chilling outside. It is close to a few stores, major highways, has shuttle to LAX but still believe it is way more expensive than it should be.More</t>
   </si>
   <si>
+    <t>Martin B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r296066466-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -889,6 +967,9 @@
     <t>The Candlewood Suites LAX Hawthorne is conveniently located, just a few management provided and shared with the adjacent Holiday Inn Express Hotel, shuttle van ride away to LAX.The suites are well equipped, with full fridge and freezer, microwave, sink etc.The hotel staff is small in number, but generally friendly and welcoming. There are a good number of Fast Food and other restaurants/stores nearby, within walking distance.More</t>
   </si>
   <si>
+    <t>Andibobo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r293339236-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -914,6 +995,9 @@
   </si>
   <si>
     <t>I liked the service provided by the staff, all the staffs always seemed to be in a good mood and they tried and were happy to be of help in any possible way they could. I liked the size of the room and the size of the beds, they were average but the only thing I did not like was there chair giving in the room. The area were one was meant to sit was torn making the causing pain on the individual utilizing it. More</t>
+  </si>
+  <si>
+    <t>charjbaby</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r272105459-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
@@ -947,6 +1031,9 @@
 I have traveled the world and my stay at the Candlewood Suites ranks...I sold my home in LA Ca.and had a number of appointments to complete before relocating.I had absolutely no intentions of staying at the Candlewood Suites for an entire month.It is my pleasure too share with all future guest that my time spent there was wonderful. Their Great Employee's are the best.The rooms are nice, clean and bug free. I'll always remember Maria(Front Desk) as the first impression representing this establishment because she was very warm and welcoming and i was exhausted after two long days of moving and just wanted to rest!! She quickly and professionally handled the process in minutes. It wasn't just "a" good day for Maria because she and Inessa were very sweet &amp; pleasant each morning during my unexpected extended stay. The evening &amp; graveyard shifts with Bryan,Sharon and Larry (Mr cool breeze) were equally great!! One evening i decided to vent my automobile issues with Sharon without knowledge of her valuable expertise regarding automobile repairs. Not only could she run the hotel, she's also a merchanic that knows her stuff!! (I returned to my merchanic feeling empowered) Thank You Sharon :) . The Hotel offers around the clock security. David is that special security guy that every company prays for.He made certain you knew that you were safe throughout the property. Always with a smile as he warmly greeted everyone. I have traveled the world and my stay at the Candlewood Suites ranks as my favorite (amongst its level of stay).Thanks to all of the Candlewood Suites Employee's of Hawthorne Ca.for your Top Notch Service. You Are Simply The Best!!C JonesMore</t>
   </si>
   <si>
+    <t>Shweta S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r271780073-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -968,6 +1055,9 @@
     <t>We stayed there for 8 days...in their 1 bedroom suite...and our experience was very good...our kid liked it a lot...as he could play in their separated living room...the kitchen was very well maintained....utensils were provided...u have to bring only your nonstick utensil...if you want....dish soap was also there...hotel staff was nice and helpful....I gave 4 stars because...there is no facility for breakfast...there is a small cupboard..in which they have some munching items..coffee..cold drinks...but we didn't need it as we always had something leftover from restaurant with us...they do housekeeping after a week....and it's not a very fancy hotel...but it was comfortable for us...n I recommend it for long stays.... They provide free laundry 24 hrs...gym....Overall it was very nice...More</t>
   </si>
   <si>
+    <t>frequent_trav_tx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r270269721-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -992,6 +1082,9 @@
     <t>A typical Candlewood property located in a not-so-nice area of Hawthorne (just east of LAX airport).The staff were incredible and very receptive both at checkin and checkout. I was placed in a room on the top (4th) floor, yet there was the strong odor of cigarette smoke throughout the hallway. Thankfully the odor did not enter my room.The property is secure enough but the surrounding area is rather sketchy, esp. after dark. I did walk from the Hawthorne/Lennox Green line station (about 1/4 mile north of the hotel), but I would not recommend this after the sun goes down. Immediately within walking distance is a strip shopping center containing a Hawaiian restaurant and I believe a Subway sandwiches, and across the street El Pollo Loco (a Mexican chicken fast food joint). There is a Ralph's supermarket about 1/3 of a mile south of the hotel, but as one goes south the area does look dangerous.My advice is that you do all your errands and eating during daylight hours, then return to the property after the sunset. Parking lot is shared with the adjoining Holiday In Express and is reasonably well-lit. The hotel provides a shuttle to LAX airport.More</t>
   </si>
   <si>
+    <t>Laura S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r259805818-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -1019,6 +1112,9 @@
     <t>I needed temporary long term accommodations for a few months. I found this hotel which had a convenient location, a good long term rate, free wifi, and free cable. From the moment I arrived, everyone on staff was incredibly nice -- especially Maria who always went out of her way to greet you when you arrived/left the building. The room was basically a studio apartment with all of the standard necessities and supplies. The cleaning staff, always super polite, came in once a week to clean and exchange fresh towels/sheets. They steam cleaned the common area carpets a few times while I was there and everything always smelled fresh/clean. Some nights they were completely booked, and it was still quiet which I appreciated. The hotel and parking garage were always clean and secure. There was an onsite gym that had all the basics and was rarely packed. And free laundry facilities. It's fairly close to the airport and beaches with a free shuttle bus to the airport. I enjoyed this location so much, I extended my stay twice. I would gladly recommend this place and stay here again.More</t>
   </si>
   <si>
+    <t>prettygena</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r259106093-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -1043,6 +1139,9 @@
     <t>When you first walk in the greetings are so delightful and welcoming. Customer Service is Great especially "MARIA" she is very helpful kind and a very hard worker she's always smiling. Maria also always makes sure im ok with the  stay here at the Candlewood and thats a hard worker. Far as MANAGEMENT "INESSA" she is so sweet and kind hearted to me and others. If the Candlewood is Sold Out She always find another room for me so my family is covered and thats great management. Inessa also keeps a smile on her face an her welcoming is great. The Candlewood is a beautiful place with wonderful people.  THANK YOU AGAIN MARIA AND INESSA. GENA.More</t>
   </si>
   <si>
+    <t>Janine N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r259102980-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -1061,6 +1160,9 @@
     <t>The Candlewood Suites in Hawthorne, just minutes away from LAX is my choice when I arrive in LA from Sydney. The price is great as you are not paying LAX rates and it has absolutely everything you need. Starbucks is just down the road as is a supermarket and 2 fast food restaurants across the road. It also includes secure parking if needed. The rooms are fantastic, large with everything you need for a self contained stay. Staff are always friendly and will assist you if you are looking to order in for dinner (great Chinese food delivered). Highly recommendMore</t>
   </si>
   <si>
+    <t>pocahunter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r247275962-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -1088,6 +1190,9 @@
     <t>the rooms are of good quality. the walls are somewhat thin at times, although it was quiet during the three day period of Christmas. the suite was well stocked with pots and pans, even paper towels and dish towels. I was impressed by this and apparently the rooms have been updated to a newer version.More</t>
   </si>
   <si>
+    <t>BBrookline,MA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r246122250-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -1115,6 +1220,9 @@
     <t>I arrived at the hotel very late as our flight from Boston was over 2 hours late.Since I was traveling with my two late teen daughters,I gave them the bedroom and I had to sleep on the unmade sofa bed. There were no sheets on the bed. I had a very hard time finding them and as it was nearly 1am pdt,I didn't want to bother the front desk. When I finally got to bed,my feet hung over the short bed. I have stayed at other Candlewoods in the East and they all had nice sofa beds,not this rickety bed that was fit for a child. I am only 5'10".When we finally woke up the air conditioning did not work properly in the living room.It took two technicians to fix it and two hours later it was fixed.They did give us an extra hour to check out which was nice.The next time I need to stay near LAX, I will look for other accommodations.More</t>
   </si>
   <si>
+    <t>Steve M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r245161712-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -1139,6 +1247,9 @@
     <t>Overall I was pleased with my stay.  The staff was friendly and the hotel was clean.  The parking garage is right next door and well secured.  Internet was free and had reasonable speed.  Time to/from LAX was very short and they had a shuttle also.More</t>
   </si>
   <si>
+    <t>David_M48406</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r238945290-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -1166,6 +1277,9 @@
     <t>This Candlewood is a good place to stay, fits in with the rest, clean and good service. However, it's not in a good area - there was some police activity outside overnight. Parking is in a garage behind the property. Gate codes are required. Makes checking in and out with luggage a little cumbersomb. More</t>
   </si>
   <si>
+    <t>mtunender</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r223063234-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -1193,6 +1307,9 @@
     <t>This hotel is just ok. It is not in the greatest area. If you stay on the property you are ok but there are some very bad areas not too far away. There is some great food in walking distance (in the daylight).More</t>
   </si>
   <si>
+    <t>chanandmike</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r216509839-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -1220,6 +1337,9 @@
     <t>We stayed here for two nights in July.  We had four in our party so we booked a suite.  Jose at the front desk for friendly and checked us in with no problems.  The room was large and in good condition.  The suite included a full kitchen.  We used the microwave and the refrigerator and had no problems.  The only downside was that the sofa-bed was small.  We intended for two of us to sleep on the sofa bed.  It was too small so two of us slept on the floor.  That is not a big problem and we should have checked ahead of time.  The parking was in a parking deck adjacent to the hotel.  You have to have a code to go in and out.  It was secure and safe.  We all took the shuttle over to the airport to drop two of our party off.  David drove the van and kept a good mood even with all the LAX traffic.  This hotel is a good place to stay near LAX and we will defintely use it again.More</t>
   </si>
   <si>
+    <t>EmR4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r203983963-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -1247,6 +1367,9 @@
     <t>It's been a while since we stayed (holiday was actually October 2011 - it wouldn't let me go back that far) but we still talk about our holiday all the time. We stayed at Candlewood Suites for 7 nights and really, really didn't want to leave. The staff where fab, the rooms &amp; communal areas always immaculately clean and the facilities are flawless with a gym &amp; even a shop.The rooms are a great size &amp; would be lovely to stay in long term. The kitchen is well stocked with everything you could possibly need and more. The bathroom is a fab size &amp; really clean with a lovely shower. Super comfy bed, a desk &amp; good sized TV as well.We can't wait to go back to LA (hopefully soon) and wouldn't stay anywhere else!More</t>
   </si>
   <si>
+    <t>GrannyJules218</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r203514301-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -1268,6 +1391,9 @@
     <t>We stayed just one night at the recommendation of our travel agent. This hotel would be ideal for the traveler looking for a longer term stay. The shuttle from the airport was very nice and got there much sooner than we expected. The staff we had contact with was very pleasant and helpful. The room was beautiful, spacious and clean. The bed was comfortable. There was a recliner!!! The view was nothing much, but it was pretty quiet, considering the area. There were several dining establishments within walking distance (including the world's slowest McDonald's). Don't expect ice in the fridge or even the fridge being turned on. That was our only disappointment. The hotel is just across a cobblestone area from a Holiday Inn and it seems the two are perhaps commercially connected somehow, as you are invited to use the Holiday Inn's ice makers and newspapers. There is even a nice area to grill and eat outdoors if you feel so inclined. Free use of DVDs was a nice addition.  If this is a two star hotel, a one star might be good enough! I'd consider it 4 stars for a longer term stay! Very nice!More</t>
   </si>
   <si>
+    <t>Kasturi D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r202283714-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -1286,6 +1412,9 @@
     <t>I have stayed there for long time and it is a really good hotel if you are planning for extended stay in Los Angeles near airport. Our one bedroom suite was spacious with enough storage for clothes and stuffs. They provide a full kitchen with pots and pans and dishwasher. This hotel also has free gym, free wifi, free secure parking and free laundry!!one bed room suit has 2 TVs and DVD player. Internet speed was average.The only issue I had that this hotel does not provide breakfast , but there is a cupboard where you can buy snacks and beverages. Although the area initially dose not look good,but I never had any problem while walking around during evening time.  I really appreciate front desk staffs. They are efficient and willing to provide good service every time specially Maria and Jose.Overall I liked this property and would like to visit again.More</t>
   </si>
   <si>
+    <t>Debkal4nia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r197906252-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -1313,6 +1442,9 @@
     <t>The room is warm and cozy, home away from home. Close to shopping center and restraunts and also very close to the airport.  Idea location to get around in the city.  The rooms have wooden floors, very modern and modern.  The Hotel is much nicer than you can imagine.  Nice kitchen, and clean bathroom. The gym small and convenient. I do reccommend.More</t>
   </si>
   <si>
+    <t>Itain</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r196236373-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -1337,6 +1469,9 @@
     <t>The hotel is clean. Rooms are big and well equiped. Staff is kind of tired for serving customers ,  do not like to advise.No Breakfast which is huge disadvantage. In front is the Holiday inn which has breakfast. Gym room is nice and also the self laundry. Do not know if i will use again. More</t>
   </si>
   <si>
+    <t>Bernie D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r194464974-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -1364,6 +1499,9 @@
     <t>after a quick work trip to Vegas, I'm back again. no reason to stay anywhere else. area is sketchy but they have 24/7 security patrolling outside and I am in and out at all times of the day and night and always look around and see the guard watching out for me. the room is the same, roomy, and comfortable. ill be here for another month or more and have no reason not to stay here. Maria at the front desk and the Mgr, Mr. Shaz are wonderful and always answer my questions.Maids do a good job and I especially say hi to the security guards. (oh, and laundry is free too.More</t>
   </si>
   <si>
+    <t>lfisherhertz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r192857075-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -1388,6 +1526,9 @@
     <t>I've had great experiences with Candlewood Suites in Times Square and Massachusetts, but I will never come back to this one.  Reserved a handicapped-accessible suite for myself and my mother, who is in a wheelchair.  At check-in was told (only when I asked), "Oh yeah, I see you reserved that, but they gave that room to someone else and we're sold out, so there's nothing we can do about it." (We were told we could have a handicapped accessible single room, but not the suite we'd reserved.) Nothing about the hotel was explained to us, no instructions on where the parking was, no info unless specifically asked, then the clerk went back to texting.   Fortunately, the wheelchair fit OK in the room they gave us, and the interior of the room itself is great -- spacious and clean, though missing little touches I've found in other Candlewoods, like popcorn waiting in the microwave.  The view out the window is of a lot filled with garbage and dumpsters (see photo).  When we opened the fold-out couch, it was a bare, lumpy mattress, and no extra linens or pillows could be found in the room.  We called to ask for help with this and a young man showed up with too-large sheets, no pillows, and a torn-up and stained blanket (see photo), threw everything down, and ran out -- we were laughing at how obvious it was he didn't want to be...I've had great experiences with Candlewood Suites in Times Square and Massachusetts, but I will never come back to this one.  Reserved a handicapped-accessible suite for myself and my mother, who is in a wheelchair.  At check-in was told (only when I asked), "Oh yeah, I see you reserved that, but they gave that room to someone else and we're sold out, so there's nothing we can do about it." (We were told we could have a handicapped accessible single room, but not the suite we'd reserved.) Nothing about the hotel was explained to us, no instructions on where the parking was, no info unless specifically asked, then the clerk went back to texting.   Fortunately, the wheelchair fit OK in the room they gave us, and the interior of the room itself is great -- spacious and clean, though missing little touches I've found in other Candlewoods, like popcorn waiting in the microwave.  The view out the window is of a lot filled with garbage and dumpsters (see photo).  When we opened the fold-out couch, it was a bare, lumpy mattress, and no extra linens or pillows could be found in the room.  We called to ask for help with this and a young man showed up with too-large sheets, no pillows, and a torn-up and stained blanket (see photo), threw everything down, and ran out -- we were laughing at how obvious it was he didn't want to be asked to make the bed. I brought a box of food garbage downstairs (left over from food we had delivered) and asked where it should go, and the new woman behind the desk sent me out myself into a back alley and told me to throw the box out there.  No one ever offered to help hold a door as I struggled with the wheelchair.  Parking across the street in the garage, where the gate stays open for multiple cars, felt not very safe in the middle of the night. We are only here 3 nights so will not bother moving, but at a minimum,the staff here needs customer-service training.More</t>
   </si>
   <si>
+    <t>G W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r187713724-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -1413,6 +1554,9 @@
   </si>
   <si>
     <t>We were checked in by Jose.  He was friendly and thorough.  He explained the parking, business center, gym and laundry to us.  We felt welcomed by this polite young man.The room was beautiful.  It had ammenities from home, pans,dishes, glasses and silverware.  The room had a comfy ambiance.  It was clean and well maintained.  The pillows and towels are the best!  Throughout the week Maria at the front desk greeted us with a smile.  You can tell she truly loves her job.  She is knowledable about the area and greeted us each time we left and re-entered.  Its so nice to see a genuine friendly person at the desk.Our room was tidied up each day by Josephina.  She takes great care to ensure your room is to her satisfaction.  She was polite and friendly as well.  This hotel is staffed with friendly staff that are dedicated to making your stay the best!  Thanks to all that make this Candlewood hotel awesome!More</t>
+  </si>
+  <si>
+    <t>Sally S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r186474104-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
@@ -1478,6 +1622,9 @@
     <t>This place is centrally located near Los Angeles airport and just south of Beverly hills, 15 minutes to downtown and a short drive south to Orange county. Beaches are close too, like 5 minutes to the closest one.If you want service, this one has wonderful  front counter personel, the security guys in the parking area are always watching so that we are safe and the maids make sure you are comfortable. a kitchen in the room and free laundry and workout room really make this place feel like home. I give it an A+. you can't go wrong here. I will return to this one againMore</t>
   </si>
   <si>
+    <t>xokie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r179773516-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -1505,6 +1652,9 @@
     <t>just a few rambling thoughts about this hotel......this place is near the LAX airport (about 2 miles) and has protected 24 hour security parking.located in the opposite direction of heavy traffic for me during this stay. while I'm headed to work toward the east, heavy traffic is on the other side and the reverse direction is true on the way home....awesome. the hotel has a kitchen that is well equipped. the desk personnel are attentive and very helpful; (Thanks Maria and Shaz). The maids take care of the room and I don't even know when they are there except for the clean towels and bed is made (thanks to Trini and Josefina. they do a great job and are very friendly). This is my new favorite home away from home. If every Candlewood is this friendly, I will be staying at more of them as I cross the country. (and the free laundry machines are a very nice touch) and I get my points as a priority member too. Thank you candlewood!!!More</t>
   </si>
   <si>
+    <t>takx23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r179284306-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -1529,6 +1679,9 @@
     <t>Stayed at the Express next door and thought would upgrade (price would assume) to better hotel.  Problem was beds smaller, not pool or hot tub.  Kitchenette nice if was going to use, no ice in freezer (told to go and get from Express.  With kitchenette, no breakfast, and ran out of morning paper (to to get from Express). For the price, Express better choice and was told that by off going clerk - saving grace was Jose at the desk - really nice and helpful .More</t>
   </si>
   <si>
+    <t>Joe L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r167324797-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -1556,6 +1709,9 @@
     <t>I stayed here on 7/9-7/10 and They have done nothing but made my stay worse and worse. I go to check in and the rooms  arent ready and when they are they put other people ahead of me. I am a platinum member and stay at these chains all year long and this is ny far one of the worst places to stay. Then they over charge my room when i was supposed to be on GOVT' rate. oh well never again. They didnt even recognize me as a priority club member.More</t>
   </si>
   <si>
+    <t>SS220</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r166800125-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -1583,6 +1739,9 @@
     <t>We stayed here during a road trip down from San Francisco to San Diego.  It's located close to the airport.  The neighborhood is not so great and the parking structure is detached from the hotel so be careful if arriving late at night.  The rooms are big and have a kitchenette in there.  So that is convenient.  It wasn't the nicest place but it fit our needs for our two nights while passing through L.A. area.More</t>
   </si>
   <si>
+    <t>James W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r162129120-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -1607,6 +1766,9 @@
     <t>Going into my third week in this facility. Friendliness of front desk, free laundry, and nearness to job (Huntington Beach) are biggest plus. Room is ok but not luxurious. Full size fridge with ice maker is great. Stove top but no oven is downer. Not the best part of town but secure parking garage with lots of spaces  -even at capacity crowd of holiday weekend. No complaints for the extended stay price. More</t>
   </si>
   <si>
+    <t>Reenahun</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r156665846-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -1631,6 +1793,9 @@
     <t>Stayed for a week and Loved this hotel , facilities are amazing and professional, polite and helpful staff. My family and I had a great stay! The area was safe and had many fast food places nearby which were walking distance such as McDonald's and KFC and a lovely restaurant nearby named 'el poco loco' which had delicious food and appeared to be the most suitable to us!Only disadvantage is the location as it was far from the main attractions of LA. the subway and buses were easy to figure out however it did take a while . I would hire a car if I was to stay again. More</t>
   </si>
   <si>
+    <t>CherylC1987</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r154742732-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -1655,6 +1820,9 @@
     <t>The staff at this hotel are excellent in customer service, made great recommendations and were courteous. The rooms were slightly dated but were spacious and had all amenities needed for a comfortable stay. Unfortunately the location is the only downside, I didn't feel safe walking around the area day or night and it is quite far from any tourist locations and/or malls. Would stay here again but perhaps rent a car.More</t>
   </si>
   <si>
+    <t>gregw357</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r147318583-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -1679,6 +1847,9 @@
     <t>Stayed here while working in the area. Rooms are nice and the staff is very friendly. Laundry is free and the have a pretty good exercise room which is important to me. I will be staying here agian when I come out hereMore</t>
   </si>
   <si>
+    <t>RandySpate</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r144558031-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -1706,6 +1877,9 @@
     <t>Great value and nice amenities, close to LAX and my printing company in Gardena. Will stay here again! The kitchen, refrigerator and microwave were a nice bonus. Bed and pillows very comfortable for a good night's rest!More</t>
   </si>
   <si>
+    <t>JKfromSA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r144402510-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -1724,6 +1898,9 @@
     <t>The hotel is very close to LAX and there are a number of places to eat out at in close proximity.This is actually an apartment hotel so the rooms are huge with a small lounge are and kitchen.Very comfortable and clean.I would recommend this hotel to anyone.More</t>
   </si>
   <si>
+    <t>Sidney R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r142957681-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -1751,6 +1928,9 @@
     <t>The convenience of having a full kitchen was enjoyable. The room was clean and adequately equipped. Even had a dish washer and detergent to get you started. So sweet of them to  put a buttered popcorn package and plastic bowl in the microwave as a room gift. Had an internet room in the lobby, very convenient, and a commissary snack room also. The staff was very friendly. Each day and evening we were greeted at the door with smiles and friendly "Hello's". I appreciate it when the front desk dont talk loud when checking you in and everyone then knows your business. Candlewood talked directly to us in a reasonably tone of voice. The hallways were quiet. Even the cleaning staff were friendly and always spoke with a "good morning". We, ( my husband and I) truly enjoyed our stay. We celebrated our 44th wedding anniversary during our stay in California. (our only small complaint was our window faced a lot with constuction debris and 6am we awoke to loud sounds of trucks moving and stacking debris.) That really didnt bother us too much since we wake 6:30am normally. Otherwise it was a great trip. We would definitely return. Hopefully construction will be over then.More</t>
   </si>
   <si>
+    <t>JimCayman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r135112863-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -1775,6 +1955,9 @@
     <t>This hotel was close to the airport about 15 mins. We stayed there in July 2012 for 3 nights before going to Anaheim. The room was very clean, there was a little canteen that sold basic stuff, the room included a little kitchen with a stove top, regular size fridge, dishwasher, microwave, glasses and dishes including stuff to wash dishes. There were 3 washers and 4 dryers that were free to use for guest. Parking was also very good with secured parking I believe the parking was free and also included wi-fi internet (a little on the slow side). Easy check in and check out.The area was sort of run down but the people were very friendly and there was a lot of fast food places all within walking distance.The only negative thing I can say about the stay was the noise we heard every morning and night of someone walking in the room above us. It was really loud like if the person was stomping and walking.More</t>
   </si>
   <si>
+    <t>Anoini2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r133409588-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -1802,6 +1985,9 @@
     <t>Had a nice stay at Candlewood Suites near the airport.  They had a free shuttle to and from LAX but the shuttle doesn't loop around so you need to call them to pick you up.  I suggest that you give them a call when you arrive coz it takes about 15 minutes to get to the hotel.Check in was quick and we got to spin the wheel to get a free great being a priority club member.  The room was nice with two double beds and it has a kitchenette with a full size fridge, a two or three burner stove and a microwave and a good size sink.  The bathroom was spacious with very basic toiletries.  They also had free self-serve laundry.  They had a nice gazebo with a BBQ close to the parkade.  I think this hotel caters more to long term clients with their free laundry and a mini kitchen and no breakfast.More</t>
   </si>
   <si>
+    <t>rizzo0904</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r131486066-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -1827,6 +2013,9 @@
   </si>
   <si>
     <t>Spent one night here before flying out of LAX.  Hotel is clean.  Staff is friendly.  Rooms are a small "suite".  It's all one room, but you do have a mini kitchen.  Room had a food odor...must have been whatever the previous occupant had cooked the night before.  No big deal.Parking is secure...it has to be.  The area sucks.  It's not a part of town I would go walking around by myself or at night.Very convenient to the airport.  I don't think it even took 10 minutes to get to Alamo to return the car.It's also noisy.  Didn't look out the window, so I don't know if it was hotel guests outside, or the neighborhood.More</t>
+  </si>
+  <si>
+    <t>Poppy014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r130181047-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
@@ -1862,6 +2051,9 @@
 There are a few shops locally but I'm not sure if it's a safe place to walk around at night.  There is a shopping centre around 20 minutes away by bus but getting back to the hotel was a challenge.  We couldn't find the bus stop and when we eventually found a terminus (behind the shopping centre) found the bus drivers do not run to a schedule - they seem to decide when they want to leave.  A complete contrast to the cheerful drivers and well...This was the last night of our holiday in California and we had booked 2 suites so we could relax before the long flight home the following day.  Unfortunately when we got there, the booking had been cancelled.   I was told that my credit card had declined the payment.  I had booked the rooms through membership of the parent group and wished the Candlewood Hawthorne had emailed me but perhaps bookings are done centrally.  A few months previously my bank had upgraded my credit card and this necessitated a number change.  I obviously thought that any previous committments would be honoured by my bank but this obviously was not the case.  We were lucky that the manager gave us 2 rooms - studios on the ground floor with a view of a wall - for the same rate as that detailed on our hotel confirmation.   However, the room was clean with a full kitchen.There are a few shops locally but I'm not sure if it's a safe place to walk around at night.  There is a shopping centre around 20 minutes away by bus but getting back to the hotel was a challenge.  We couldn't find the bus stop and when we eventually found a terminus (behind the shopping centre) found the bus drivers do not run to a schedule - they seem to decide when they want to leave.  A complete contrast to the cheerful drivers and well run bus service in Santa Barbara.  It was just a disappointing end to our holiday not to have the rooms we had booked,  but we were just glad we had a room.  If I could highlight one member of staff it would be the man who drove the free courtesy bus to the airport - he was very pleasant and helpful.More</t>
   </si>
   <si>
+    <t>yayhasplz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r129760985-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -1886,6 +2078,9 @@
     <t>Let's start by saying that this is a horrible, nasty area.  However, sometimes that's where you have to be, and you need somewhere decent to stay.  I was not disappointed with this hotel.  I have used Candlewood before in Texas, and this was what I expected.  For $225.00 for two nights, we have a queen standard suite with full kitchen and bath.  CLEAN and perfect for what I needed.  The only downside is the noise.  Lots of doors slamming, thumping and traffic noise.... but what do you expect this close to LAX??  Free parking in a VERY secure garage, free wifi, and the little store downstairs.  Those were all huge plus factors.  There is a Holiday Inn Express across the driveway that is probably very similar.  I'm definitely happy with this stay, and would use this location again if I were needing a room in this area.  The bed is very comfy, good linens and towels too.  I just wish it were a little quieter.More</t>
   </si>
   <si>
+    <t>Fletc404</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r128976585-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -1910,6 +2105,9 @@
     <t>The "standard suites"  is just a regular hotel room with a full size fridge crammed in.  Go for the supersize if you want a real suite.  Totally non-smoking hotel so Cigar Connoisseurs are not welcome.  Otherwise, its your standard room, close to the airport w/ free shuttle service.More</t>
   </si>
   <si>
+    <t>IMNash</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r120176609-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -1937,6 +2135,9 @@
     <t>We stayed here on our last night of a 10 California road trip and having stayed in many Holiday Inns and SPG hotels, this one was the best equipped and most comfortable. (If you use IHG points, it's a really great deal).Pros+ well equipped+ you park in a closed garage across the street+ huge bed, you get a welcome juiceCons- the street can be a bit noisy- you'll hear the bigger planes, so check-in late- everything is self-serviceMore</t>
   </si>
   <si>
+    <t>Chuck C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r119268451-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -1955,6 +2156,9 @@
     <t>Candlewood Suites with Holiday Inn's budget extended stay hotel, but budget isn't the first word that comes to mind when you step into your room.  It was nicely decorated, comes fully equipped with a kitchen with everything you'd find at home (except an oven).  This hotel is in a complex with a Holiday Inn Express and Comfort Suites.  All three hotels share a covered garage with security gate.  The one thing you don't get is housekeeping on a daily basis, it is only weekly.  I'd like to see Candlewood change this policy to a higher frequency.  I know Homewood Suites has what they call a "light" housekeeping day vs. a more extensive cleaning, which would do Candlewood good to adopt.The staff here is friendly, always greeting you when you walk in the door, even if they don't remember your name.  The hotel is not in the best neighborhood, but it is near LAX (offering free shuttle) and is only blocks from the 405 and 105 freeways if you're driving (and if you're in LA, you're driving).  I felt entirely safe while there, as the hotels and garage seem to be "set apart" from the rest of the area.  A good choice if you find yourself needing a hotel near LAX.More</t>
   </si>
   <si>
+    <t>Javil</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r118330985-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -1982,6 +2186,9 @@
     <t>We stayed here together with partner for 3 nights being in and around Los Angeles. The hotel is very nice - clean and quiet. The rooms has everything you may need to stay long, including microwave, large fridge, cooker, coffee maker and even a dishwasher. And what I liked the most - a set of utensils (plates, forks, knives etc.) + glasses :)). The hotel doesn't serve breakfast, but you can cook your own meal while there. The other thing we especially liked about the hotel was its location -  about 7 miles from LAX, 10 miles from beautiful Manhattan beach and appx. 30 minutes to Griffith Observatory. Other good things were free Wi-Fi, free self-parking in a parking building, small shop inside the hotel, laundry room.More</t>
   </si>
   <si>
+    <t>Aristal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r112532866-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -2009,6 +2216,9 @@
     <t>Me and my partner stayed at this hotel for 16 nights, we were in town for a wedding and sightseeing.  Our room was clean, updated, the air conditioner worked great as well.  We used extended stay and our room came with a 2 burner glasstop stove, a full sized refrigerator, plenty of cupboard space and a dishwasher.  The TV was a large flatscreen with a DVD player (and use of a free if slightly outdated lending library).  Our bed was comfy and the pillows soft.  Extended stay gets housekeeping once a week and you can get new towels/sheets anytime you wish.  Gym facilities, laundry, wifi and parking (gated and covered) all free which I found a major bonus.  A business center with accessable printer as well.  I even bought stamps and mailed postcards and the front desk.  We had 2 minor repairs needed and were address promptly.  All the staff was great, friendly and accomodating.  This being the first time I have ever stayed in a hotel for an extended amount of time I found this one enjoyable, I searched on Tripadvisor for 5 months and loved the reviews for this one.  They proved to be quite accurate and I'm glad I stayed!  Overnight or extended a perfect hotel.  The neighborhood is a bit sketchy, but I had no problems and security around the hotel(s) in the area patrol at night on a golf cart, and the distance to find...Me and my partner stayed at this hotel for 16 nights, we were in town for a wedding and sightseeing.  Our room was clean, updated, the air conditioner worked great as well.  We used extended stay and our room came with a 2 burner glasstop stove, a full sized refrigerator, plenty of cupboard space and a dishwasher.  The TV was a large flatscreen with a DVD player (and use of a free if slightly outdated lending library).  Our bed was comfy and the pillows soft.  Extended stay gets housekeeping once a week and you can get new towels/sheets anytime you wish.  Gym facilities, laundry, wifi and parking (gated and covered) all free which I found a major bonus.  A business center with accessable printer as well.  I even bought stamps and mailed postcards and the front desk.  We had 2 minor repairs needed and were address promptly.  All the staff was great, friendly and accomodating.  This being the first time I have ever stayed in a hotel for an extended amount of time I found this one enjoyable, I searched on Tripadvisor for 5 months and loved the reviews for this one.  They proved to be quite accurate and I'm glad I stayed!  Overnight or extended a perfect hotel.  The neighborhood is a bit sketchy, but I had no problems and security around the hotel(s) in the area patrol at night on a golf cart, and the distance to find more approved surroundings is not far.  I would suggest anyone needing to stay near LAX book here! (65/night for 15 and more night stays) *only thing it needs is a pool*More</t>
   </si>
   <si>
+    <t>socal_desertgirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r110627090-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -2033,6 +2243,9 @@
     <t>My husband and I were flying out of LAX early.  We wanted to stay the night before and leave our car parked at the hotel while we were on vacation.  We arrived at the hotel arount 10pm and the desk clerk was very nice.  He had everything ready for us and explained where to park our car (in a locked, gated, covered parking garage).  He arranged for a time to meet with the shuttle that took us to the airport.  We were pleasantly surprised when we got to the room and it was very nice and clean! It was equiped with a kitchen (which we didn't need, but might be nice for more than overnight) desk, dvd player and a comfortable bed.  The shuttle was on time and got us to the airport in plenty of time.  They explained how to get the shuttle back to the car when we returned from our trip.  This was also very easy, just call when we got our baggage and wait at the red shuttle stop.  Got back to our car and left.  We will definitely us this hotel the next time we leave from LAX!More</t>
   </si>
   <si>
+    <t>89springersftail</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r110347507-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -2057,6 +2270,9 @@
     <t>This hotel has clean, beautiful and comfortable rooms.  I stay often for business.  The staff is very friendly and willing to help out.   There is not much up front parking but there is a covered, gated secure parking area that is a minimal walk.  The beds are comfortable and nice. If you are looking for a great place to stay with awesome staff check out this Candlewood you will not be disappointed...More</t>
   </si>
   <si>
+    <t>Homeward_Bound_3911</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r103427408-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -2084,6 +2300,9 @@
     <t>This is the 2nd trip to Hawthorne, with the 1st being January/2010 when I stayed at the Hawthorne Holiday Inn.  In noting the visible change in the neighborhood that the Holiday Inn and the Candlewood Suites are situated, I'd suggest that security may become an issue.  During the most recent visit, I walked Hawthorne Blvd. twice to either the Roby's grocery store, or to SubWay.  Both times were in the early evening hours.  Both times I noticed youth activity that made me feel uneasy.  On the way to SubWay I was approached by a young woman who asked "Is there anything I can do for you tonight?"  I know that LA is changing; maybe Candlewood Suites, the Holiday Inn, and the Comfort Inn should consider either moving, or giving guests a sense of ease by the visible presence of security staff in the front drive and street entrance.I travel alot, and this is the first time I felt led to respond regarding this topic.  Even though the Candlewood Suites was everything I expected (and more), I'll think twice about staying in that neighborhood the next time I'm in LA.More</t>
   </si>
   <si>
+    <t>annyb33</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r99781735-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -2102,6 +2321,9 @@
     <t>January 2011</t>
   </si>
   <si>
+    <t>ciamikaela</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r94546855-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -2120,6 +2342,9 @@
     <t>December 2010</t>
   </si>
   <si>
+    <t>travelguide62</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r86112846-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -2138,6 +2363,9 @@
     <t>November 2010</t>
   </si>
   <si>
+    <t>UpUpAndAway-Brisbane</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r84985586-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
   </si>
   <si>
@@ -2157,6 +2385,9 @@
   </si>
   <si>
     <t>Having worked in hotels for the past 10 years, I think this hotel is wonderful! The staff are fantastic and friendly (we were acknowledge every time we walked past Reception). Their washing machines and dryers are free to use, free gym, free internet, free car parking, there was a general store at Reception and free hire of movies and the rooms are new (refurbished 2010), lovely and clean and even allow you to cook your own meals if you wish.  I met a few of the other guests while doing my washing and everyone was so happy and impressed with Candlewood Suites Hawthorne!! The hotel is located close to the airport and has easy access to the freeways to access the theme parks and Hollywood. I think it took us approximately 40 minutes to Disneyland and about 40 minutes to Universal Studios (both a must do). There is a McDonalds across the road and a grocery store within 5 minutes drive. I couldn't believe how reasonable priced the rooms are and how good everything was. I was worried about the lack of Trip Advisor comments but the hotel has only just opened this year after its refurbishment!! I highly recommend this hotel and will stay here next time when in LA.More</t>
+  </si>
+  <si>
+    <t>mtlnorm</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32478-d1011234-r81142989-Candlewood_Suites_Lax_Hawthorne-Hawthorne_California.html</t>
@@ -2679,43 +2910,47 @@
       <c r="A2" t="n">
         <v>58405</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>130019</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2727,56 +2962,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>58405</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>130020</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2792,56 +3031,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>58405</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>42315</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2857,56 +3100,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>58405</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>130021</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2918,56 +3165,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>58405</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>130022</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
         <v>85</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" t="s">
-        <v>87</v>
-      </c>
-      <c r="K6" t="s">
-        <v>88</v>
-      </c>
-      <c r="L6" t="s">
-        <v>89</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>80</v>
-      </c>
-      <c r="O6" t="s">
-        <v>81</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2979,47 +3230,51 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>58405</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>130023</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
@@ -3036,56 +3291,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="X7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Y7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>58405</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>130024</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -3103,56 +3362,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>58405</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>39255</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="O9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -3168,56 +3431,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="X9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="Y9" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>58405</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>130025</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="O10" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P10" t="n">
         <v>2</v>
@@ -3235,56 +3502,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="X10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Y10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>58405</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>103562</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3296,56 +3567,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="X11" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Y11" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>58405</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>130026</v>
+      </c>
+      <c r="C12" t="s">
+        <v>148</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="K12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O12" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3357,56 +3632,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="X12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="Y12" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>58405</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>130027</v>
+      </c>
+      <c r="C13" t="s">
+        <v>157</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="J13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="K13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -3422,56 +3701,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="X13" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="Y13" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>58405</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>130028</v>
+      </c>
+      <c r="C14" t="s">
+        <v>167</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="J14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="K14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="L14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3487,56 +3770,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="X14" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="Y14" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>58405</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>130029</v>
+      </c>
+      <c r="C15" t="s">
+        <v>177</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="J15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="K15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="O15" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3552,56 +3839,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="X15" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="Y15" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>58405</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>130030</v>
+      </c>
+      <c r="C16" t="s">
+        <v>187</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="J16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="K16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="L16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="O16" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -3619,56 +3910,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="X16" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="Y16" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>58405</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>130031</v>
+      </c>
+      <c r="C17" t="s">
+        <v>197</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="J17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="K17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="L17" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="O17" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -3686,56 +3981,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="X17" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Y17" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>58405</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>130032</v>
+      </c>
+      <c r="C18" t="s">
+        <v>206</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="J18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="K18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="L18" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="O18" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -3753,56 +4052,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="X18" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Y18" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>58405</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>69512</v>
+      </c>
+      <c r="C19" t="s">
+        <v>213</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="J19" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="K19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="L19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="O19" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3814,56 +4117,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="X19" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Y19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>58405</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>130033</v>
+      </c>
+      <c r="C20" t="s">
+        <v>219</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="J20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="K20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="L20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="O20" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -3879,56 +4186,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="X20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="Y20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>58405</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>130034</v>
+      </c>
+      <c r="C21" t="s">
+        <v>229</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="J21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="K21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="L21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="O21" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3946,56 +4257,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="X21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="Y21" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>58405</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>15657</v>
+      </c>
+      <c r="C22" t="s">
+        <v>239</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="J22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="K22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="L22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4011,56 +4326,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="X22" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="Y22" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>58405</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>18121</v>
+      </c>
+      <c r="C23" t="s">
+        <v>248</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="J23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="K23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="L23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="O23" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -4078,56 +4397,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="X23" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="Y23" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>58405</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>130035</v>
+      </c>
+      <c r="C24" t="s">
+        <v>258</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="J24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="K24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="L24" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="O24" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -4145,56 +4468,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="X24" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="Y24" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>58405</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>100219</v>
+      </c>
+      <c r="C25" t="s">
+        <v>268</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="J25" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="K25" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="L25" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="O25" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4206,56 +4533,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="X25" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="Y25" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>58405</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>130036</v>
+      </c>
+      <c r="C26" t="s">
+        <v>278</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="J26" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="K26" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="L26" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="O26" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -4271,56 +4602,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="X26" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="Y26" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>58405</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>84224</v>
+      </c>
+      <c r="C27" t="s">
+        <v>289</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="J27" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="K27" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="L27" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="O27" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -4338,56 +4673,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="X27" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="Y27" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>58405</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>130037</v>
+      </c>
+      <c r="C28" t="s">
+        <v>297</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="J28" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="K28" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="L28" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="O28" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4399,56 +4738,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="X28" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="Y28" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>58405</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>130038</v>
+      </c>
+      <c r="C29" t="s">
+        <v>307</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="J29" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="K29" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="L29" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="O29" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4460,56 +4803,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="X29" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="Y29" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>58405</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>130039</v>
+      </c>
+      <c r="C30" t="s">
+        <v>317</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="J30" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="K30" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="L30" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="O30" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4527,56 +4874,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="X30" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="Y30" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>58405</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>130040</v>
+      </c>
+      <c r="C31" t="s">
+        <v>325</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="J31" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="K31" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="L31" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>3</v>
@@ -4594,56 +4945,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="X31" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="Y31" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>58405</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>12822</v>
+      </c>
+      <c r="C32" t="s">
+        <v>334</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="J32" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="K32" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="L32" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="O32" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4659,47 +5014,51 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="X32" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="Y32" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>58405</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>130041</v>
+      </c>
+      <c r="C33" t="s">
+        <v>344</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="J33" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="K33" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="L33" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
@@ -4726,56 +5085,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="X33" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="Y33" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>58405</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>130042</v>
+      </c>
+      <c r="C34" t="s">
+        <v>353</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="J34" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="K34" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="L34" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="O34" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -4791,56 +5154,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="X34" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="Y34" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>58405</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>130043</v>
+      </c>
+      <c r="C35" t="s">
+        <v>360</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="J35" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="K35" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="L35" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4856,56 +5223,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="X35" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="Y35" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>58405</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>130044</v>
+      </c>
+      <c r="C36" t="s">
+        <v>370</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="J36" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="K36" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="L36" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="M36" t="n">
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="O36" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4923,56 +5294,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="X36" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="Y36" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>58405</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>457</v>
+      </c>
+      <c r="C37" t="s">
+        <v>380</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="J37" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="K37" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="L37" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4988,56 +5363,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="X37" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="Y37" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>58405</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>125546</v>
+      </c>
+      <c r="C38" t="s">
+        <v>389</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="J38" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="K38" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="L38" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="O38" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5049,56 +5428,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="X38" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="Y38" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>58405</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>130045</v>
+      </c>
+      <c r="C39" t="s">
+        <v>399</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="J39" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="K39" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="L39" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -5116,56 +5499,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="X39" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="Y39" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>58405</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>48422</v>
+      </c>
+      <c r="C40" t="s">
+        <v>409</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="J40" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="K40" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="L40" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="O40" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5177,56 +5564,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="X40" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="Y40" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>58405</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>130046</v>
+      </c>
+      <c r="C41" t="s">
+        <v>419</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="J41" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="K41" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="L41" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="O41" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -5248,56 +5639,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="X41" t="s">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="Y41" t="s">
-        <v>388</v>
+        <v>428</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>58405</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>130047</v>
+      </c>
+      <c r="C42" t="s">
+        <v>429</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>389</v>
+        <v>430</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="J42" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="K42" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="L42" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="O42" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -5319,56 +5714,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="X42" t="s">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="Y42" t="s">
-        <v>395</v>
+        <v>436</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>58405</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>130048</v>
+      </c>
+      <c r="C43" t="s">
+        <v>437</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="J43" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="K43" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="L43" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="O43" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -5392,50 +5791,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>58405</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>130049</v>
+      </c>
+      <c r="C44" t="s">
+        <v>444</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>403</v>
+        <v>446</v>
       </c>
       <c r="J44" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
       <c r="K44" t="s">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="L44" t="s">
-        <v>406</v>
+        <v>449</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -5457,56 +5860,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>408</v>
+        <v>451</v>
       </c>
       <c r="X44" t="s">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="Y44" t="s">
-        <v>410</v>
+        <v>453</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>58405</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>38443</v>
+      </c>
+      <c r="C45" t="s">
+        <v>454</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>411</v>
+        <v>455</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="J45" t="s">
-        <v>413</v>
+        <v>457</v>
       </c>
       <c r="K45" t="s">
-        <v>414</v>
+        <v>458</v>
       </c>
       <c r="L45" t="s">
-        <v>415</v>
+        <v>459</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5518,56 +5925,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="X45" t="s">
-        <v>417</v>
+        <v>461</v>
       </c>
       <c r="Y45" t="s">
-        <v>418</v>
+        <v>462</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>58405</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>2548</v>
+      </c>
+      <c r="C46" t="s">
+        <v>463</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>420</v>
+        <v>465</v>
       </c>
       <c r="J46" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
       <c r="K46" t="s">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="L46" t="s">
-        <v>423</v>
+        <v>468</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>424</v>
+        <v>469</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5589,56 +6000,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>425</v>
+        <v>470</v>
       </c>
       <c r="X46" t="s">
-        <v>426</v>
+        <v>471</v>
       </c>
       <c r="Y46" t="s">
-        <v>427</v>
+        <v>472</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>58405</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>130050</v>
+      </c>
+      <c r="C47" t="s">
+        <v>473</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>429</v>
+        <v>475</v>
       </c>
       <c r="J47" t="s">
-        <v>430</v>
+        <v>476</v>
       </c>
       <c r="K47" t="s">
-        <v>431</v>
+        <v>477</v>
       </c>
       <c r="L47" t="s">
-        <v>432</v>
+        <v>478</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>424</v>
+        <v>469</v>
       </c>
       <c r="O47" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P47" t="n">
         <v>3</v>
@@ -5660,56 +6075,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
       <c r="X47" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
       <c r="Y47" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>58405</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>61202</v>
+      </c>
+      <c r="C48" t="s">
+        <v>482</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>437</v>
+        <v>484</v>
       </c>
       <c r="J48" t="s">
-        <v>438</v>
+        <v>485</v>
       </c>
       <c r="K48" t="s">
-        <v>439</v>
+        <v>486</v>
       </c>
       <c r="L48" t="s">
-        <v>440</v>
+        <v>487</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>441</v>
+        <v>488</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5721,56 +6140,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>442</v>
+        <v>489</v>
       </c>
       <c r="X48" t="s">
-        <v>443</v>
+        <v>490</v>
       </c>
       <c r="Y48" t="s">
-        <v>444</v>
+        <v>491</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>58405</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>14684</v>
+      </c>
+      <c r="C49" t="s">
+        <v>492</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>445</v>
+        <v>493</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
       <c r="J49" t="s">
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="K49" t="s">
-        <v>448</v>
+        <v>496</v>
       </c>
       <c r="L49" t="s">
-        <v>449</v>
+        <v>497</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>450</v>
+        <v>498</v>
       </c>
       <c r="O49" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5792,56 +6215,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>451</v>
+        <v>499</v>
       </c>
       <c r="X49" t="s">
-        <v>452</v>
+        <v>500</v>
       </c>
       <c r="Y49" t="s">
-        <v>453</v>
+        <v>501</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>58405</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>2548</v>
+      </c>
+      <c r="C50" t="s">
+        <v>463</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>454</v>
+        <v>502</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>455</v>
+        <v>503</v>
       </c>
       <c r="J50" t="s">
-        <v>456</v>
+        <v>504</v>
       </c>
       <c r="K50" t="s">
-        <v>457</v>
+        <v>505</v>
       </c>
       <c r="L50" t="s">
-        <v>458</v>
+        <v>506</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5863,56 +6290,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>459</v>
+        <v>507</v>
       </c>
       <c r="X50" t="s">
-        <v>460</v>
+        <v>508</v>
       </c>
       <c r="Y50" t="s">
-        <v>461</v>
+        <v>509</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>58405</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>130051</v>
+      </c>
+      <c r="C51" t="s">
+        <v>510</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>462</v>
+        <v>511</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>463</v>
+        <v>512</v>
       </c>
       <c r="J51" t="s">
-        <v>464</v>
+        <v>513</v>
       </c>
       <c r="K51" t="s">
-        <v>465</v>
+        <v>514</v>
       </c>
       <c r="L51" t="s">
-        <v>466</v>
+        <v>515</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>467</v>
+        <v>516</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5934,56 +6365,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>468</v>
+        <v>517</v>
       </c>
       <c r="X51" t="s">
-        <v>469</v>
+        <v>518</v>
       </c>
       <c r="Y51" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>58405</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>130052</v>
+      </c>
+      <c r="C52" t="s">
+        <v>520</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>471</v>
+        <v>521</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>472</v>
+        <v>522</v>
       </c>
       <c r="J52" t="s">
-        <v>473</v>
+        <v>523</v>
       </c>
       <c r="K52" t="s">
-        <v>474</v>
+        <v>524</v>
       </c>
       <c r="L52" t="s">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>467</v>
+        <v>516</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>2</v>
@@ -6005,56 +6440,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>476</v>
+        <v>526</v>
       </c>
       <c r="X52" t="s">
-        <v>477</v>
+        <v>527</v>
       </c>
       <c r="Y52" t="s">
-        <v>478</v>
+        <v>528</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>58405</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>5101</v>
+      </c>
+      <c r="C53" t="s">
+        <v>529</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>479</v>
+        <v>530</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>480</v>
+        <v>531</v>
       </c>
       <c r="J53" t="s">
-        <v>481</v>
+        <v>532</v>
       </c>
       <c r="K53" t="s">
-        <v>482</v>
+        <v>533</v>
       </c>
       <c r="L53" t="s">
-        <v>483</v>
+        <v>534</v>
       </c>
       <c r="M53" t="n">
         <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>484</v>
+        <v>535</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>1</v>
@@ -6076,56 +6515,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>485</v>
+        <v>536</v>
       </c>
       <c r="X53" t="s">
-        <v>486</v>
+        <v>537</v>
       </c>
       <c r="Y53" t="s">
-        <v>487</v>
+        <v>538</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>58405</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>130053</v>
+      </c>
+      <c r="C54" t="s">
+        <v>539</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>488</v>
+        <v>540</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>489</v>
+        <v>541</v>
       </c>
       <c r="J54" t="s">
-        <v>490</v>
+        <v>542</v>
       </c>
       <c r="K54" t="s">
-        <v>491</v>
+        <v>543</v>
       </c>
       <c r="L54" t="s">
-        <v>492</v>
+        <v>544</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>493</v>
+        <v>545</v>
       </c>
       <c r="O54" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -6147,47 +6590,51 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>494</v>
+        <v>546</v>
       </c>
       <c r="X54" t="s">
-        <v>495</v>
+        <v>547</v>
       </c>
       <c r="Y54" t="s">
-        <v>496</v>
+        <v>548</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>58405</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>2409</v>
+      </c>
+      <c r="C55" t="s">
+        <v>549</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>497</v>
+        <v>550</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>498</v>
+        <v>551</v>
       </c>
       <c r="J55" t="s">
-        <v>499</v>
+        <v>552</v>
       </c>
       <c r="K55" t="s">
-        <v>500</v>
+        <v>553</v>
       </c>
       <c r="L55" t="s">
-        <v>501</v>
+        <v>554</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
@@ -6214,47 +6661,51 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>502</v>
+        <v>555</v>
       </c>
       <c r="X55" t="s">
-        <v>503</v>
+        <v>556</v>
       </c>
       <c r="Y55" t="s">
-        <v>504</v>
+        <v>557</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>58405</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>130054</v>
+      </c>
+      <c r="C56" t="s">
+        <v>558</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>505</v>
+        <v>559</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>506</v>
+        <v>560</v>
       </c>
       <c r="J56" t="s">
-        <v>507</v>
+        <v>561</v>
       </c>
       <c r="K56" t="s">
-        <v>508</v>
+        <v>562</v>
       </c>
       <c r="L56" t="s">
-        <v>509</v>
+        <v>563</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
@@ -6281,47 +6732,51 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>510</v>
+        <v>564</v>
       </c>
       <c r="X56" t="s">
-        <v>511</v>
+        <v>565</v>
       </c>
       <c r="Y56" t="s">
-        <v>512</v>
+        <v>566</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>58405</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>130055</v>
+      </c>
+      <c r="C57" t="s">
+        <v>567</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>513</v>
+        <v>568</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>514</v>
+        <v>569</v>
       </c>
       <c r="J57" t="s">
-        <v>515</v>
+        <v>570</v>
       </c>
       <c r="K57" t="s">
-        <v>516</v>
+        <v>571</v>
       </c>
       <c r="L57" t="s">
-        <v>517</v>
+        <v>572</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
@@ -6348,47 +6803,51 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>518</v>
+        <v>573</v>
       </c>
       <c r="X57" t="s">
-        <v>519</v>
+        <v>574</v>
       </c>
       <c r="Y57" t="s">
-        <v>520</v>
+        <v>575</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>58405</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>130056</v>
+      </c>
+      <c r="C58" t="s">
+        <v>576</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>521</v>
+        <v>577</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>522</v>
+        <v>578</v>
       </c>
       <c r="J58" t="s">
-        <v>523</v>
+        <v>579</v>
       </c>
       <c r="K58" t="s">
-        <v>524</v>
+        <v>580</v>
       </c>
       <c r="L58" t="s">
-        <v>525</v>
+        <v>581</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
@@ -6415,56 +6874,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>526</v>
+        <v>582</v>
       </c>
       <c r="X58" t="s">
-        <v>527</v>
+        <v>583</v>
       </c>
       <c r="Y58" t="s">
-        <v>528</v>
+        <v>584</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>58405</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>130057</v>
+      </c>
+      <c r="C59" t="s">
+        <v>585</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>529</v>
+        <v>586</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>530</v>
+        <v>587</v>
       </c>
       <c r="J59" t="s">
-        <v>531</v>
+        <v>588</v>
       </c>
       <c r="K59" t="s">
-        <v>532</v>
+        <v>589</v>
       </c>
       <c r="L59" t="s">
-        <v>533</v>
+        <v>590</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>534</v>
+        <v>591</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6486,56 +6949,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>535</v>
+        <v>592</v>
       </c>
       <c r="X59" t="s">
-        <v>536</v>
+        <v>593</v>
       </c>
       <c r="Y59" t="s">
-        <v>537</v>
+        <v>594</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>58405</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>130058</v>
+      </c>
+      <c r="C60" t="s">
+        <v>595</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="J60" t="s">
-        <v>540</v>
+        <v>598</v>
       </c>
       <c r="K60" t="s">
-        <v>541</v>
+        <v>599</v>
       </c>
       <c r="L60" t="s">
-        <v>542</v>
+        <v>600</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>534</v>
+        <v>591</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -6557,56 +7024,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>535</v>
+        <v>592</v>
       </c>
       <c r="X60" t="s">
-        <v>536</v>
+        <v>593</v>
       </c>
       <c r="Y60" t="s">
-        <v>543</v>
+        <v>601</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>58405</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>92271</v>
+      </c>
+      <c r="C61" t="s">
+        <v>602</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>544</v>
+        <v>603</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>545</v>
+        <v>604</v>
       </c>
       <c r="J61" t="s">
-        <v>546</v>
+        <v>605</v>
       </c>
       <c r="K61" t="s">
-        <v>547</v>
+        <v>606</v>
       </c>
       <c r="L61" t="s">
-        <v>548</v>
+        <v>607</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>549</v>
+        <v>608</v>
       </c>
       <c r="O61" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6628,56 +7099,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>550</v>
+        <v>609</v>
       </c>
       <c r="X61" t="s">
-        <v>551</v>
+        <v>610</v>
       </c>
       <c r="Y61" t="s">
-        <v>552</v>
+        <v>611</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>58405</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>130059</v>
+      </c>
+      <c r="C62" t="s">
+        <v>612</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>553</v>
+        <v>613</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>554</v>
+        <v>614</v>
       </c>
       <c r="J62" t="s">
-        <v>555</v>
+        <v>615</v>
       </c>
       <c r="K62" t="s">
-        <v>556</v>
+        <v>616</v>
       </c>
       <c r="L62" t="s">
-        <v>557</v>
+        <v>617</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>534</v>
+        <v>591</v>
       </c>
       <c r="O62" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -6699,56 +7174,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>558</v>
+        <v>618</v>
       </c>
       <c r="X62" t="s">
-        <v>559</v>
+        <v>619</v>
       </c>
       <c r="Y62" t="s">
-        <v>560</v>
+        <v>620</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>58405</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>130060</v>
+      </c>
+      <c r="C63" t="s">
+        <v>621</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>561</v>
+        <v>622</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>562</v>
+        <v>623</v>
       </c>
       <c r="J63" t="s">
-        <v>563</v>
+        <v>624</v>
       </c>
       <c r="K63" t="s">
-        <v>564</v>
+        <v>625</v>
       </c>
       <c r="L63" t="s">
-        <v>565</v>
+        <v>626</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>566</v>
+        <v>627</v>
       </c>
       <c r="O63" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -6760,56 +7239,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>567</v>
+        <v>628</v>
       </c>
       <c r="X63" t="s">
-        <v>568</v>
+        <v>629</v>
       </c>
       <c r="Y63" t="s">
-        <v>569</v>
+        <v>630</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>58405</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>130061</v>
+      </c>
+      <c r="C64" t="s">
+        <v>631</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>570</v>
+        <v>632</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>571</v>
+        <v>633</v>
       </c>
       <c r="J64" t="s">
-        <v>572</v>
+        <v>634</v>
       </c>
       <c r="K64" t="s">
-        <v>573</v>
+        <v>635</v>
       </c>
       <c r="L64" t="s">
-        <v>574</v>
+        <v>636</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>575</v>
+        <v>637</v>
       </c>
       <c r="O64" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -6831,56 +7314,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>576</v>
+        <v>638</v>
       </c>
       <c r="X64" t="s">
-        <v>577</v>
+        <v>639</v>
       </c>
       <c r="Y64" t="s">
-        <v>578</v>
+        <v>640</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>58405</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>130062</v>
+      </c>
+      <c r="C65" t="s">
+        <v>641</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>579</v>
+        <v>642</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>580</v>
+        <v>643</v>
       </c>
       <c r="J65" t="s">
-        <v>581</v>
+        <v>644</v>
       </c>
       <c r="K65" t="s">
-        <v>582</v>
+        <v>645</v>
       </c>
       <c r="L65" t="s">
-        <v>583</v>
+        <v>646</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>584</v>
+        <v>647</v>
       </c>
       <c r="O65" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P65" t="n">
         <v>2</v>
@@ -6902,56 +7389,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>585</v>
+        <v>648</v>
       </c>
       <c r="X65" t="s">
-        <v>586</v>
+        <v>649</v>
       </c>
       <c r="Y65" t="s">
-        <v>587</v>
+        <v>650</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>58405</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>130063</v>
+      </c>
+      <c r="C66" t="s">
+        <v>651</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>588</v>
+        <v>652</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>589</v>
+        <v>653</v>
       </c>
       <c r="J66" t="s">
-        <v>590</v>
+        <v>654</v>
       </c>
       <c r="K66" t="s">
-        <v>591</v>
+        <v>655</v>
       </c>
       <c r="L66" t="s">
-        <v>592</v>
+        <v>656</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>575</v>
+        <v>637</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>3</v>
@@ -6973,56 +7464,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>593</v>
+        <v>657</v>
       </c>
       <c r="X66" t="s">
-        <v>594</v>
+        <v>658</v>
       </c>
       <c r="Y66" t="s">
-        <v>595</v>
+        <v>659</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>58405</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>130064</v>
+      </c>
+      <c r="C67" t="s">
+        <v>660</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>596</v>
+        <v>661</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>597</v>
+        <v>662</v>
       </c>
       <c r="J67" t="s">
-        <v>598</v>
+        <v>663</v>
       </c>
       <c r="K67" t="s">
-        <v>599</v>
+        <v>664</v>
       </c>
       <c r="L67" t="s">
-        <v>600</v>
+        <v>665</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>584</v>
+        <v>647</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -7044,56 +7539,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="X67" t="s">
-        <v>602</v>
+        <v>667</v>
       </c>
       <c r="Y67" t="s">
-        <v>603</v>
+        <v>668</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>58405</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>130065</v>
+      </c>
+      <c r="C68" t="s">
+        <v>669</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>604</v>
+        <v>670</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>605</v>
+        <v>671</v>
       </c>
       <c r="J68" t="s">
-        <v>606</v>
+        <v>672</v>
       </c>
       <c r="K68" t="s">
-        <v>607</v>
+        <v>673</v>
       </c>
       <c r="L68" t="s">
-        <v>608</v>
+        <v>674</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>609</v>
+        <v>675</v>
       </c>
       <c r="O68" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -7115,56 +7614,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>610</v>
+        <v>676</v>
       </c>
       <c r="X68" t="s">
-        <v>611</v>
+        <v>677</v>
       </c>
       <c r="Y68" t="s">
-        <v>612</v>
+        <v>678</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>58405</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>623</v>
+      </c>
+      <c r="C69" t="s">
+        <v>679</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>613</v>
+        <v>680</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>614</v>
+        <v>681</v>
       </c>
       <c r="J69" t="s">
-        <v>615</v>
+        <v>682</v>
       </c>
       <c r="K69" t="s">
-        <v>616</v>
+        <v>683</v>
       </c>
       <c r="L69" t="s">
-        <v>617</v>
+        <v>684</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>609</v>
+        <v>675</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7186,56 +7689,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>610</v>
+        <v>676</v>
       </c>
       <c r="X69" t="s">
-        <v>611</v>
+        <v>677</v>
       </c>
       <c r="Y69" t="s">
-        <v>618</v>
+        <v>685</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>58405</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>130066</v>
+      </c>
+      <c r="C70" t="s">
+        <v>686</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>619</v>
+        <v>687</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>620</v>
+        <v>688</v>
       </c>
       <c r="J70" t="s">
-        <v>621</v>
+        <v>689</v>
       </c>
       <c r="K70" t="s">
-        <v>622</v>
+        <v>690</v>
       </c>
       <c r="L70" t="s">
-        <v>623</v>
+        <v>691</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>624</v>
+        <v>692</v>
       </c>
       <c r="O70" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7257,56 +7764,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>625</v>
+        <v>693</v>
       </c>
       <c r="X70" t="s">
-        <v>626</v>
+        <v>694</v>
       </c>
       <c r="Y70" t="s">
-        <v>627</v>
+        <v>695</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>58405</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>130067</v>
+      </c>
+      <c r="C71" t="s">
+        <v>696</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>628</v>
+        <v>697</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>629</v>
+        <v>698</v>
       </c>
       <c r="J71" t="s">
-        <v>630</v>
+        <v>699</v>
       </c>
       <c r="K71" t="s">
-        <v>631</v>
+        <v>700</v>
       </c>
       <c r="L71" t="s">
-        <v>632</v>
+        <v>701</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>633</v>
+        <v>702</v>
       </c>
       <c r="O71" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7324,56 +7835,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>634</v>
+        <v>703</v>
       </c>
       <c r="X71" t="s">
-        <v>635</v>
+        <v>704</v>
       </c>
       <c r="Y71" t="s">
-        <v>636</v>
+        <v>705</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>58405</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>130068</v>
+      </c>
+      <c r="C72" t="s">
+        <v>706</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>637</v>
+        <v>707</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>638</v>
+        <v>708</v>
       </c>
       <c r="J72" t="s">
-        <v>639</v>
+        <v>709</v>
       </c>
       <c r="K72" t="s">
-        <v>640</v>
+        <v>710</v>
       </c>
       <c r="L72" t="s">
-        <v>641</v>
+        <v>711</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>633</v>
+        <v>702</v>
       </c>
       <c r="O72" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7395,56 +7910,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>642</v>
+        <v>712</v>
       </c>
       <c r="X72" t="s">
-        <v>643</v>
+        <v>713</v>
       </c>
       <c r="Y72" t="s">
-        <v>644</v>
+        <v>714</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>58405</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>130069</v>
+      </c>
+      <c r="C73" t="s">
+        <v>715</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>645</v>
+        <v>716</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>646</v>
+        <v>717</v>
       </c>
       <c r="J73" t="s">
-        <v>647</v>
+        <v>718</v>
       </c>
       <c r="K73" t="s">
-        <v>648</v>
+        <v>719</v>
       </c>
       <c r="L73" t="s">
-        <v>649</v>
+        <v>720</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>633</v>
+        <v>702</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7466,56 +7985,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>650</v>
+        <v>721</v>
       </c>
       <c r="X73" t="s">
-        <v>651</v>
+        <v>722</v>
       </c>
       <c r="Y73" t="s">
-        <v>652</v>
+        <v>723</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>58405</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>130070</v>
+      </c>
+      <c r="C74" t="s">
+        <v>724</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>653</v>
+        <v>725</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>654</v>
+        <v>726</v>
       </c>
       <c r="J74" t="s">
-        <v>655</v>
+        <v>727</v>
       </c>
       <c r="K74" t="s">
-        <v>656</v>
+        <v>728</v>
       </c>
       <c r="L74" t="s">
-        <v>657</v>
+        <v>729</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>658</v>
+        <v>730</v>
       </c>
       <c r="O74" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7537,56 +8060,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>659</v>
+        <v>731</v>
       </c>
       <c r="X74" t="s">
-        <v>660</v>
+        <v>732</v>
       </c>
       <c r="Y74" t="s">
-        <v>661</v>
+        <v>733</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>58405</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>130071</v>
+      </c>
+      <c r="C75" t="s">
+        <v>734</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>662</v>
+        <v>735</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>663</v>
+        <v>736</v>
       </c>
       <c r="J75" t="s">
-        <v>664</v>
+        <v>737</v>
       </c>
       <c r="K75" t="s">
-        <v>665</v>
+        <v>738</v>
       </c>
       <c r="L75" t="s">
-        <v>666</v>
+        <v>739</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>667</v>
+        <v>740</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7610,50 +8137,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>666</v>
+        <v>739</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>58405</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>130072</v>
+      </c>
+      <c r="C76" t="s">
+        <v>741</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>668</v>
+        <v>742</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>669</v>
+        <v>743</v>
       </c>
       <c r="J76" t="s">
-        <v>670</v>
+        <v>744</v>
       </c>
       <c r="K76" t="s">
-        <v>671</v>
+        <v>745</v>
       </c>
       <c r="L76" t="s">
-        <v>672</v>
+        <v>746</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>673</v>
+        <v>747</v>
       </c>
       <c r="O76" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7677,50 +8208,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>672</v>
+        <v>746</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>58405</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>130073</v>
+      </c>
+      <c r="C77" t="s">
+        <v>748</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>674</v>
+        <v>749</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="J77" t="s">
-        <v>676</v>
+        <v>751</v>
       </c>
       <c r="K77" t="s">
-        <v>677</v>
+        <v>752</v>
       </c>
       <c r="L77" t="s">
-        <v>678</v>
+        <v>753</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>679</v>
+        <v>754</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7744,50 +8279,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>678</v>
+        <v>753</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>58405</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>130074</v>
+      </c>
+      <c r="C78" t="s">
+        <v>755</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>680</v>
+        <v>756</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>681</v>
+        <v>757</v>
       </c>
       <c r="J78" t="s">
-        <v>682</v>
+        <v>758</v>
       </c>
       <c r="K78" t="s">
-        <v>683</v>
+        <v>759</v>
       </c>
       <c r="L78" t="s">
-        <v>684</v>
+        <v>760</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>685</v>
+        <v>761</v>
       </c>
       <c r="O78" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7811,50 +8350,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>686</v>
+        <v>762</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>58405</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>130075</v>
+      </c>
+      <c r="C79" t="s">
+        <v>763</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>687</v>
+        <v>764</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>688</v>
+        <v>765</v>
       </c>
       <c r="J79" t="s">
-        <v>689</v>
+        <v>766</v>
       </c>
       <c r="K79" t="s">
-        <v>690</v>
+        <v>767</v>
       </c>
       <c r="L79" t="s">
-        <v>691</v>
+        <v>768</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>692</v>
+        <v>769</v>
       </c>
       <c r="O79" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7878,7 +8421,7 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>691</v>
+        <v>768</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_98.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_98.xlsx
@@ -2911,7 +2911,7 @@
         <v>58405</v>
       </c>
       <c r="B2" t="n">
-        <v>130019</v>
+        <v>160729</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -2976,7 +2976,7 @@
         <v>58405</v>
       </c>
       <c r="B3" t="n">
-        <v>130020</v>
+        <v>160730</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -3114,7 +3114,7 @@
         <v>58405</v>
       </c>
       <c r="B5" t="n">
-        <v>130021</v>
+        <v>160731</v>
       </c>
       <c r="C5" t="s">
         <v>78</v>
@@ -3179,7 +3179,7 @@
         <v>58405</v>
       </c>
       <c r="B6" t="n">
-        <v>130022</v>
+        <v>160732</v>
       </c>
       <c r="C6" t="s">
         <v>89</v>
@@ -3244,7 +3244,7 @@
         <v>58405</v>
       </c>
       <c r="B7" t="n">
-        <v>130023</v>
+        <v>160733</v>
       </c>
       <c r="C7" t="s">
         <v>98</v>
@@ -3305,7 +3305,7 @@
         <v>58405</v>
       </c>
       <c r="B8" t="n">
-        <v>130024</v>
+        <v>160734</v>
       </c>
       <c r="C8" t="s">
         <v>107</v>
@@ -3445,7 +3445,7 @@
         <v>58405</v>
       </c>
       <c r="B10" t="n">
-        <v>130025</v>
+        <v>160735</v>
       </c>
       <c r="C10" t="s">
         <v>129</v>
@@ -3581,7 +3581,7 @@
         <v>58405</v>
       </c>
       <c r="B12" t="n">
-        <v>130026</v>
+        <v>160736</v>
       </c>
       <c r="C12" t="s">
         <v>148</v>
@@ -3646,7 +3646,7 @@
         <v>58405</v>
       </c>
       <c r="B13" t="n">
-        <v>130027</v>
+        <v>160737</v>
       </c>
       <c r="C13" t="s">
         <v>157</v>
@@ -3715,7 +3715,7 @@
         <v>58405</v>
       </c>
       <c r="B14" t="n">
-        <v>130028</v>
+        <v>160738</v>
       </c>
       <c r="C14" t="s">
         <v>167</v>
@@ -3784,7 +3784,7 @@
         <v>58405</v>
       </c>
       <c r="B15" t="n">
-        <v>130029</v>
+        <v>160739</v>
       </c>
       <c r="C15" t="s">
         <v>177</v>
@@ -3853,7 +3853,7 @@
         <v>58405</v>
       </c>
       <c r="B16" t="n">
-        <v>130030</v>
+        <v>160740</v>
       </c>
       <c r="C16" t="s">
         <v>187</v>
@@ -3924,7 +3924,7 @@
         <v>58405</v>
       </c>
       <c r="B17" t="n">
-        <v>130031</v>
+        <v>160741</v>
       </c>
       <c r="C17" t="s">
         <v>197</v>
@@ -3995,7 +3995,7 @@
         <v>58405</v>
       </c>
       <c r="B18" t="n">
-        <v>130032</v>
+        <v>160742</v>
       </c>
       <c r="C18" t="s">
         <v>206</v>
@@ -4131,7 +4131,7 @@
         <v>58405</v>
       </c>
       <c r="B20" t="n">
-        <v>130033</v>
+        <v>160743</v>
       </c>
       <c r="C20" t="s">
         <v>219</v>
@@ -4200,7 +4200,7 @@
         <v>58405</v>
       </c>
       <c r="B21" t="n">
-        <v>130034</v>
+        <v>160744</v>
       </c>
       <c r="C21" t="s">
         <v>229</v>
@@ -4411,7 +4411,7 @@
         <v>58405</v>
       </c>
       <c r="B24" t="n">
-        <v>130035</v>
+        <v>160745</v>
       </c>
       <c r="C24" t="s">
         <v>258</v>
@@ -4547,7 +4547,7 @@
         <v>58405</v>
       </c>
       <c r="B26" t="n">
-        <v>130036</v>
+        <v>160746</v>
       </c>
       <c r="C26" t="s">
         <v>278</v>
@@ -4687,7 +4687,7 @@
         <v>58405</v>
       </c>
       <c r="B28" t="n">
-        <v>130037</v>
+        <v>160747</v>
       </c>
       <c r="C28" t="s">
         <v>297</v>
@@ -4752,7 +4752,7 @@
         <v>58405</v>
       </c>
       <c r="B29" t="n">
-        <v>130038</v>
+        <v>160748</v>
       </c>
       <c r="C29" t="s">
         <v>307</v>
@@ -4817,7 +4817,7 @@
         <v>58405</v>
       </c>
       <c r="B30" t="n">
-        <v>130039</v>
+        <v>160749</v>
       </c>
       <c r="C30" t="s">
         <v>317</v>
@@ -4888,7 +4888,7 @@
         <v>58405</v>
       </c>
       <c r="B31" t="n">
-        <v>130040</v>
+        <v>160750</v>
       </c>
       <c r="C31" t="s">
         <v>325</v>
@@ -5028,7 +5028,7 @@
         <v>58405</v>
       </c>
       <c r="B33" t="n">
-        <v>130041</v>
+        <v>160751</v>
       </c>
       <c r="C33" t="s">
         <v>344</v>
@@ -5099,7 +5099,7 @@
         <v>58405</v>
       </c>
       <c r="B34" t="n">
-        <v>130042</v>
+        <v>160752</v>
       </c>
       <c r="C34" t="s">
         <v>353</v>
@@ -5168,7 +5168,7 @@
         <v>58405</v>
       </c>
       <c r="B35" t="n">
-        <v>130043</v>
+        <v>160753</v>
       </c>
       <c r="C35" t="s">
         <v>360</v>
@@ -5237,7 +5237,7 @@
         <v>58405</v>
       </c>
       <c r="B36" t="n">
-        <v>130044</v>
+        <v>160754</v>
       </c>
       <c r="C36" t="s">
         <v>370</v>
@@ -5442,7 +5442,7 @@
         <v>58405</v>
       </c>
       <c r="B39" t="n">
-        <v>130045</v>
+        <v>160755</v>
       </c>
       <c r="C39" t="s">
         <v>399</v>
@@ -5578,7 +5578,7 @@
         <v>58405</v>
       </c>
       <c r="B41" t="n">
-        <v>130046</v>
+        <v>160756</v>
       </c>
       <c r="C41" t="s">
         <v>419</v>
@@ -5653,7 +5653,7 @@
         <v>58405</v>
       </c>
       <c r="B42" t="n">
-        <v>130047</v>
+        <v>160757</v>
       </c>
       <c r="C42" t="s">
         <v>429</v>
@@ -5728,7 +5728,7 @@
         <v>58405</v>
       </c>
       <c r="B43" t="n">
-        <v>130048</v>
+        <v>160758</v>
       </c>
       <c r="C43" t="s">
         <v>437</v>
@@ -5799,7 +5799,7 @@
         <v>58405</v>
       </c>
       <c r="B44" t="n">
-        <v>130049</v>
+        <v>160759</v>
       </c>
       <c r="C44" t="s">
         <v>444</v>
@@ -6014,7 +6014,7 @@
         <v>58405</v>
       </c>
       <c r="B47" t="n">
-        <v>130050</v>
+        <v>160760</v>
       </c>
       <c r="C47" t="s">
         <v>473</v>
@@ -6304,7 +6304,7 @@
         <v>58405</v>
       </c>
       <c r="B51" t="n">
-        <v>130051</v>
+        <v>160761</v>
       </c>
       <c r="C51" t="s">
         <v>510</v>
@@ -6379,7 +6379,7 @@
         <v>58405</v>
       </c>
       <c r="B52" t="n">
-        <v>130052</v>
+        <v>160762</v>
       </c>
       <c r="C52" t="s">
         <v>520</v>
@@ -6529,7 +6529,7 @@
         <v>58405</v>
       </c>
       <c r="B54" t="n">
-        <v>130053</v>
+        <v>160763</v>
       </c>
       <c r="C54" t="s">
         <v>539</v>
@@ -6675,7 +6675,7 @@
         <v>58405</v>
       </c>
       <c r="B56" t="n">
-        <v>130054</v>
+        <v>160764</v>
       </c>
       <c r="C56" t="s">
         <v>558</v>
@@ -6746,7 +6746,7 @@
         <v>58405</v>
       </c>
       <c r="B57" t="n">
-        <v>130055</v>
+        <v>160765</v>
       </c>
       <c r="C57" t="s">
         <v>567</v>
@@ -6817,7 +6817,7 @@
         <v>58405</v>
       </c>
       <c r="B58" t="n">
-        <v>130056</v>
+        <v>160766</v>
       </c>
       <c r="C58" t="s">
         <v>576</v>
@@ -6888,7 +6888,7 @@
         <v>58405</v>
       </c>
       <c r="B59" t="n">
-        <v>130057</v>
+        <v>160767</v>
       </c>
       <c r="C59" t="s">
         <v>585</v>
@@ -6963,7 +6963,7 @@
         <v>58405</v>
       </c>
       <c r="B60" t="n">
-        <v>130058</v>
+        <v>160768</v>
       </c>
       <c r="C60" t="s">
         <v>595</v>
@@ -7113,7 +7113,7 @@
         <v>58405</v>
       </c>
       <c r="B62" t="n">
-        <v>130059</v>
+        <v>160769</v>
       </c>
       <c r="C62" t="s">
         <v>612</v>
@@ -7188,7 +7188,7 @@
         <v>58405</v>
       </c>
       <c r="B63" t="n">
-        <v>130060</v>
+        <v>160770</v>
       </c>
       <c r="C63" t="s">
         <v>621</v>
@@ -7253,7 +7253,7 @@
         <v>58405</v>
       </c>
       <c r="B64" t="n">
-        <v>130061</v>
+        <v>160771</v>
       </c>
       <c r="C64" t="s">
         <v>631</v>
@@ -7328,7 +7328,7 @@
         <v>58405</v>
       </c>
       <c r="B65" t="n">
-        <v>130062</v>
+        <v>160772</v>
       </c>
       <c r="C65" t="s">
         <v>641</v>
@@ -7403,7 +7403,7 @@
         <v>58405</v>
       </c>
       <c r="B66" t="n">
-        <v>130063</v>
+        <v>160773</v>
       </c>
       <c r="C66" t="s">
         <v>651</v>
@@ -7478,7 +7478,7 @@
         <v>58405</v>
       </c>
       <c r="B67" t="n">
-        <v>130064</v>
+        <v>160774</v>
       </c>
       <c r="C67" t="s">
         <v>660</v>
@@ -7553,7 +7553,7 @@
         <v>58405</v>
       </c>
       <c r="B68" t="n">
-        <v>130065</v>
+        <v>160775</v>
       </c>
       <c r="C68" t="s">
         <v>669</v>
@@ -7703,7 +7703,7 @@
         <v>58405</v>
       </c>
       <c r="B70" t="n">
-        <v>130066</v>
+        <v>160776</v>
       </c>
       <c r="C70" t="s">
         <v>686</v>
@@ -7778,7 +7778,7 @@
         <v>58405</v>
       </c>
       <c r="B71" t="n">
-        <v>130067</v>
+        <v>160777</v>
       </c>
       <c r="C71" t="s">
         <v>696</v>
@@ -7849,7 +7849,7 @@
         <v>58405</v>
       </c>
       <c r="B72" t="n">
-        <v>130068</v>
+        <v>160778</v>
       </c>
       <c r="C72" t="s">
         <v>706</v>
@@ -7924,7 +7924,7 @@
         <v>58405</v>
       </c>
       <c r="B73" t="n">
-        <v>130069</v>
+        <v>160779</v>
       </c>
       <c r="C73" t="s">
         <v>715</v>
@@ -7999,7 +7999,7 @@
         <v>58405</v>
       </c>
       <c r="B74" t="n">
-        <v>130070</v>
+        <v>160780</v>
       </c>
       <c r="C74" t="s">
         <v>724</v>
@@ -8074,7 +8074,7 @@
         <v>58405</v>
       </c>
       <c r="B75" t="n">
-        <v>130071</v>
+        <v>160781</v>
       </c>
       <c r="C75" t="s">
         <v>734</v>
@@ -8145,7 +8145,7 @@
         <v>58405</v>
       </c>
       <c r="B76" t="n">
-        <v>130072</v>
+        <v>160782</v>
       </c>
       <c r="C76" t="s">
         <v>741</v>
@@ -8216,7 +8216,7 @@
         <v>58405</v>
       </c>
       <c r="B77" t="n">
-        <v>130073</v>
+        <v>160783</v>
       </c>
       <c r="C77" t="s">
         <v>748</v>
@@ -8287,7 +8287,7 @@
         <v>58405</v>
       </c>
       <c r="B78" t="n">
-        <v>130074</v>
+        <v>160784</v>
       </c>
       <c r="C78" t="s">
         <v>755</v>
@@ -8358,7 +8358,7 @@
         <v>58405</v>
       </c>
       <c r="B79" t="n">
-        <v>130075</v>
+        <v>160785</v>
       </c>
       <c r="C79" t="s">
         <v>763</v>
